--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -477,6 +478,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +786,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1012"/>
+  <dimension ref="A1:AP1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,38 +1135,42 @@
       <c r="AP4" s="67" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="99" t="n">
-        <v>46057</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="100" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>334.35</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>673.4299999999999</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>326.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3292.61</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>4.06</v>
+      <c r="H5" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1182,13 +1188,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>334.4</v>
+        <v>334.35</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1010.29</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1196,10 +1202,10 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>6.09</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="7">
@@ -1217,13 +1223,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>334.4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1683.82</v>
+        <v>1010.29</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1231,15 +1237,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>10.15</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="99" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1252,13 +1258,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>332.6</v>
+        <v>334.4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3349.54</v>
+        <v>1683.82</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1266,15 +1272,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.33</v>
+        <v>1.67</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>20.21</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="99" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1287,13 +1293,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>340.65</v>
+        <v>332.6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1372.22</v>
+        <v>3349.54</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1301,10 +1307,10 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.36</v>
+        <v>3.33</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>8.26</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="10">
@@ -1322,13 +1328,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>340.65</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2058.39</v>
+        <v>1372.22</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1336,15 +1342,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2.06</v>
+        <v>1.36</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>12.43</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="99" t="n">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1357,13 +1363,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>377.5</v>
+        <v>340.65</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3801.8</v>
+        <v>2058.39</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1371,19 +1377,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.79</v>
+        <v>2.06</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>23.01</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="99" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1395,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>358.2</v>
+        <v>377.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3607.38</v>
+        <v>3801.8</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1406,19 +1412,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.56</v>
+        <v>3.79</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>21.82</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="99" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1430,10 +1436,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>326.5</v>
+        <v>358.2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3288.12</v>
+        <v>3607.38</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1441,15 +1447,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19.83</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="99" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1465,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>332.8</v>
+        <v>326.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3351.53</v>
+        <v>3288.12</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1476,15 +1482,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>20.21</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="99" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1500,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>328.3</v>
+        <v>332.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3306.25</v>
+        <v>3351.53</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1511,15 +1517,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>19.96</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="99" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1535,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>332.2</v>
+        <v>328.3</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3345.52</v>
+        <v>3306.25</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1546,15 +1552,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>20.21</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="99" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1570,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>345.6</v>
+        <v>332.2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3480.52</v>
+        <v>3345.52</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1581,19 +1587,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>21.06</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="99" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1602,13 +1608,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>351.25</v>
+        <v>345.6</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1061.24</v>
+        <v>3480.52</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1616,10 +1622,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.04</v>
+        <v>3.46</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6.45</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="19">
@@ -1637,13 +1643,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>351.4</v>
+        <v>351.25</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2477.27</v>
+        <v>1061.24</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1651,19 +1657,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>15.03</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="99" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1672,13 +1678,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>359.15</v>
+        <v>351.4</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1085.1</v>
+        <v>2477.27</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1686,10 +1692,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.08</v>
+        <v>2.44</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>6.57</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="21">
@@ -1707,13 +1713,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>361.69</v>
+        <v>1085.1</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1721,10 +1727,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.36</v>
+        <v>1.08</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>2.18</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="22">
@@ -1777,13 +1783,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1808.53</v>
+        <v>361.69</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1791,15 +1797,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1.81</v>
+        <v>0.36</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>10.97</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="99" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1812,13 +1818,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>365.6</v>
+        <v>359.15</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>7363.88</v>
+        <v>1808.53</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1826,19 +1832,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>7.34</v>
+        <v>1.81</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>44.54</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="99" t="n">
-        <v>45965</v>
+        <v>45978</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1847,33 +1853,33 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>365.6</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>90</v>
+        <v>7363.88</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>7.34</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="99" t="n">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1882,24 +1888,24 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>365.55</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3681.41</v>
+        <v>90</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>22.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1917,13 +1923,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>365.55</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1840.72</v>
+        <v>3681.41</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1931,15 +1937,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.83</v>
+        <v>3.64</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>11.14</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="99" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1952,13 +1958,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>367.45</v>
+        <v>365.55</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3700.58</v>
+        <v>1840.72</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1966,15 +1972,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.68</v>
+        <v>1.83</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>22.4</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="99" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1990,10 +1996,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>369.25</v>
+        <v>367.45</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3718.71</v>
+        <v>3700.58</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2001,15 +2007,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>22.52</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="99" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2025,10 +2031,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>371</v>
+        <v>369.25</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3736.33</v>
+        <v>3718.71</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2036,19 +2042,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>22.63</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="99" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2057,13 +2063,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>366.25</v>
+        <v>371</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>7376.93</v>
+        <v>3736.33</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2071,19 +2077,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>7.32</v>
+        <v>3.7</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>44.61</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="99" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2092,13 +2098,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>340.2</v>
+        <v>366.25</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3426.12</v>
+        <v>7376.93</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2106,113 +2112,50 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3.4</v>
+        <v>7.32</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>20.72</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B33" s="39" t="inlineStr">
+      <c r="A33" s="99" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C33" s="39" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D33" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E33" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F33" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G33" s="39" t="inlineStr">
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>3426.12</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="40" t="n"/>
-      <c r="J33" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S33" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W33" s="47" t="n"/>
-      <c r="X33" s="47" t="n"/>
-      <c r="Y33" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z33" s="47" t="n"/>
-      <c r="AA33" s="47" t="n"/>
-      <c r="AB33" s="48" t="n"/>
-      <c r="AC33" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="50" t="n"/>
+      <c r="H33" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>20.72</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
@@ -2225,99 +2168,96 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F34" s="41" t="n">
-        <v>3426.12</v>
+        <v>368.85</v>
+      </c>
+      <c r="F34" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I34" s="40" t="n">
-        <v>20.72</v>
-      </c>
+      <c r="H34" s="40" t="n"/>
+      <c r="I34" s="40" t="n"/>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="49">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD34" s="50" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -2326,189 +2266,189 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>0.85</v>
+        <v>342.61</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>12.75</v>
+        <v>3426.12</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD35" s="50" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>459.93</v>
+        <v>0.85</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>22996.63</v>
+        <v>12.75</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>23.13</v>
+        <v>0</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>137.74</v>
+        <v>0</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD36" s="50" t="n"/>
@@ -2528,13 +2468,13 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>459.94</v>
+        <v>459.93</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>459.94</v>
+        <v>22996.63</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -2542,74 +2482,74 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>0.46</v>
+        <v>23.13</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>2.75</v>
+        <v>137.74</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD37" s="50" t="n"/>
@@ -2629,13 +2569,13 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>459.93</v>
+        <v>459.94</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>24836.35</v>
+        <v>459.94</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -2643,81 +2583,81 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>24.97</v>
+        <v>0.46</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>148.78</v>
+        <v>2.75</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD38" s="50" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2726,17 +2666,17 @@
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>402.64</v>
+        <v>459.93</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>6039.54</v>
+        <v>24836.35</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2744,85 +2684,85 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>6</v>
+        <v>24.97</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>36.54</v>
+        <v>148.78</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD39" s="50" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45749</v>
+        <v>45811</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
@@ -2831,99 +2771,99 @@
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>1</v>
+        <v>402.64</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>105</v>
+        <v>6039.54</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>0</v>
+        <v>36.54</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD40" s="50" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45734</v>
+        <v>45749</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
@@ -2932,112 +2872,91 @@
         </is>
       </c>
       <c r="D41" s="40" t="n">
+        <v>105</v>
+      </c>
+      <c r="E41" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F41" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+      <c r="F41" s="41" t="n">
+        <v>105</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
-      <c r="H41" s="40" t="n"/>
+      <c r="H41" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" s="40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X41" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y41" s="54">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="55">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
-        <v/>
-      </c>
-      <c r="AA41" s="55">
-        <f>((E13*D13)+Z13)</f>
-        <v/>
-      </c>
-      <c r="AB41" s="56">
-        <f>D13</f>
-        <v/>
-      </c>
-      <c r="AC41" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="47" t="n"/>
+      <c r="X41" s="47" t="n"/>
+      <c r="Y41" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="47" t="n"/>
+      <c r="AA41" s="47" t="n"/>
+      <c r="AB41" s="48" t="n"/>
+      <c r="AC41" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD41" s="50" t="n"/>
-      <c r="AE41" s="57" t="n"/>
-      <c r="AF41" s="57" t="n"/>
-      <c r="AG41" s="57" t="n"/>
-      <c r="AH41" s="57" t="n"/>
-      <c r="AI41" s="57" t="n"/>
-      <c r="AJ41" s="57" t="n"/>
-      <c r="AK41" s="57" t="n"/>
-      <c r="AL41" s="57" t="n"/>
-      <c r="AM41" s="57" t="n"/>
-      <c r="AN41" s="57" t="n"/>
-      <c r="AO41" s="57" t="n"/>
-      <c r="AP41" s="57" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
@@ -3054,13 +2973,13 @@
         </is>
       </c>
       <c r="D42" s="40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" s="41" t="n">
         <v>283</v>
       </c>
       <c r="F42" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
+        <f>E13*D13 + sum(H13:I13)</f>
         <v/>
       </c>
       <c r="G42" s="39" t="inlineStr">
@@ -3070,58 +2989,58 @@
       </c>
       <c r="H42" s="40" t="n"/>
       <c r="I42" s="40" t="n">
-        <v>7.99</v>
+        <v>2</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W42" s="52" t="n">
@@ -3131,19 +3050,19 @@
         <v>45820</v>
       </c>
       <c r="Y42" s="54">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z42" s="55">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA42" s="55">
-        <f>((E14*D14)+Z14)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB42" s="56">
-        <f>D14</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC42" s="49" t="n"/>
@@ -3163,7 +3082,7 @@
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
@@ -3176,75 +3095,74 @@
         </is>
       </c>
       <c r="D43" s="40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>297.1</v>
-      </c>
-      <c r="F43" s="41" t="n">
-        <v>2970.96</v>
+        <v>283</v>
+      </c>
+      <c r="F43" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="40" t="n">
-        <v>2.96</v>
-      </c>
+      <c r="H43" s="40" t="n"/>
       <c r="I43" s="40" t="n">
-        <v>18</v>
+        <v>7.99</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W43" s="52" t="n">
@@ -3254,19 +3172,19 @@
         <v>45820</v>
       </c>
       <c r="Y43" s="54">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z43" s="55">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA43" s="55">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB43" s="56">
-        <f>D15</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC43" s="49" t="n"/>
@@ -3286,7 +3204,7 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
@@ -3302,10 +3220,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>312.45</v>
+        <v>297.1</v>
       </c>
       <c r="F44" s="41" t="n">
-        <v>3124.48</v>
+        <v>2970.96</v>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
@@ -3313,61 +3231,61 @@
         </is>
       </c>
       <c r="H44" s="40" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="I44" s="40" t="n">
-        <v>18.89</v>
+        <v>18</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W44" s="52" t="n">
@@ -3377,19 +3295,19 @@
         <v>45820</v>
       </c>
       <c r="Y44" s="54">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z44" s="55">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA44" s="55">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB44" s="56">
-        <f>D16</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC44" s="49" t="n"/>
@@ -3409,7 +3327,7 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -3422,13 +3340,13 @@
         </is>
       </c>
       <c r="D45" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>299.31</v>
+        <v>312.45</v>
       </c>
       <c r="F45" s="41" t="n">
-        <v>11972.42</v>
+        <v>3124.48</v>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
@@ -3436,61 +3354,61 @@
         </is>
       </c>
       <c r="H45" s="40" t="n">
-        <v>11.88</v>
+        <v>3.09</v>
       </c>
       <c r="I45" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W45" s="52" t="n">
@@ -3500,19 +3418,19 @@
         <v>45820</v>
       </c>
       <c r="Y45" s="54">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z45" s="55">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA45" s="55">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB45" s="56">
-        <f>D17</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC45" s="49" t="n"/>
@@ -3545,13 +3463,13 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>299.36</v>
+        <v>299.31</v>
       </c>
       <c r="F46" s="41" t="n">
-        <v>5987.21</v>
+        <v>11972.42</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
@@ -3559,61 +3477,61 @@
         </is>
       </c>
       <c r="H46" s="40" t="n">
-        <v>5.93</v>
+        <v>11.88</v>
       </c>
       <c r="I46" s="40" t="n">
-        <v>36.28</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W46" s="52" t="n">
@@ -3623,19 +3541,19 @@
         <v>45820</v>
       </c>
       <c r="Y46" s="54">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z46" s="55">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA46" s="55">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB46" s="56">
-        <f>D18</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC46" s="49" t="n"/>
@@ -3655,7 +3573,7 @@
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
@@ -3668,13 +3586,13 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>333.8</v>
+        <v>299.36</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>3338</v>
+        <v>5987.21</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
@@ -3682,61 +3600,61 @@
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>3.31</v>
+        <v>5.93</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>20.19</v>
+        <v>36.28</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W47" s="52" t="n">
@@ -3746,19 +3664,19 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="54">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z47" s="55">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA47" s="55">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB47" s="56">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC47" s="49" t="n"/>
@@ -3778,7 +3696,7 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
@@ -3794,10 +3712,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>361.6</v>
+        <v>333.8</v>
       </c>
       <c r="F48" s="41" t="n">
-        <v>3615.99</v>
+        <v>3338</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
@@ -3805,61 +3723,61 @@
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>21.91</v>
+        <v>20.19</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W48" s="52" t="n">
@@ -3869,19 +3787,19 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="54">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z48" s="55">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA48" s="55">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB48" s="56">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC48" s="49" t="n"/>
@@ -3901,7 +3819,7 @@
     </row>
     <row r="49">
       <c r="A49" s="38" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
@@ -3910,17 +3828,17 @@
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D49" s="40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>293.2</v>
+        <v>361.6</v>
       </c>
       <c r="F49" s="41" t="n">
-        <v>13193.82</v>
+        <v>3615.99</v>
       </c>
       <c r="G49" s="39" t="inlineStr">
         <is>
@@ -3928,81 +3846,103 @@
         </is>
       </c>
       <c r="H49" s="40" t="n">
-        <v>13.31</v>
+        <v>3.58</v>
       </c>
       <c r="I49" s="40" t="n">
-        <v>79.12</v>
+        <v>21.91</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="58" t="n"/>
-      <c r="X49" s="58" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W49" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X49" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y49" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="58" t="n"/>
-      <c r="AA49" s="58" t="n"/>
-      <c r="AB49" s="59" t="n"/>
-      <c r="AC49" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z49" s="55">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA49" s="55">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB49" s="56">
+        <f>D20</f>
+        <v/>
+      </c>
+      <c r="AC49" s="49" t="n"/>
       <c r="AD49" s="50" t="n"/>
+      <c r="AE49" s="57" t="n"/>
+      <c r="AF49" s="57" t="n"/>
+      <c r="AG49" s="57" t="n"/>
+      <c r="AH49" s="57" t="n"/>
+      <c r="AI49" s="57" t="n"/>
+      <c r="AJ49" s="57" t="n"/>
+      <c r="AK49" s="57" t="n"/>
+      <c r="AL49" s="57" t="n"/>
+      <c r="AM49" s="57" t="n"/>
+      <c r="AN49" s="57" t="n"/>
+      <c r="AO49" s="57" t="n"/>
+      <c r="AP49" s="57" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -4015,13 +3955,13 @@
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="F50" s="41" t="n">
-        <v>28798.67</v>
+        <v>13193.82</v>
       </c>
       <c r="G50" s="39" t="inlineStr">
         <is>
@@ -4029,186 +3969,186 @@
         </is>
       </c>
       <c r="H50" s="40" t="n">
-        <v>29.05</v>
+        <v>13.31</v>
       </c>
       <c r="I50" s="40" t="n">
-        <v>172.28</v>
+        <v>79.12</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W50" s="58" t="n"/>
       <c r="X50" s="58" t="n"/>
       <c r="Y50" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z50" s="58" t="n"/>
       <c r="AA50" s="58" t="n"/>
       <c r="AB50" s="59" t="n"/>
       <c r="AC50" s="49">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD50" s="50" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45233</v>
+        <v>45258</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D51" s="40" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>1</v>
+        <v>287.99</v>
       </c>
       <c r="F51" s="41" t="n">
-        <v>145</v>
+        <v>28798.67</v>
       </c>
       <c r="G51" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H51" s="40" t="n">
-        <v>0</v>
+        <v>29.05</v>
       </c>
       <c r="I51" s="40" t="n">
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W51" s="58" t="n"/>
       <c r="X51" s="58" t="n"/>
       <c r="Y51" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z51" s="58" t="n"/>
       <c r="AA51" s="58" t="n"/>
       <c r="AB51" s="59" t="n"/>
       <c r="AC51" s="49">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD51" s="50" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="38" t="n">
-        <v>45225</v>
+        <v>45233</v>
       </c>
       <c r="B52" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C52" s="39" t="inlineStr">
@@ -4217,81 +4157,95 @@
         </is>
       </c>
       <c r="D52" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E52" s="41" t="n">
-        <v>207.12</v>
+        <v>1</v>
       </c>
       <c r="F52" s="41" t="n">
-        <v>2071.16</v>
+        <v>145</v>
       </c>
       <c r="G52" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H52" s="40" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="I52" s="40" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K52" s="58" t="n"/>
-      <c r="L52" s="58" t="n"/>
-      <c r="M52" s="60" t="n"/>
-      <c r="N52" s="61" t="n"/>
-      <c r="O52" s="60" t="n"/>
-      <c r="P52" s="58" t="n"/>
-      <c r="Q52" s="60" t="n"/>
-      <c r="R52" s="60" t="n"/>
-      <c r="S52" s="60" t="n"/>
-      <c r="T52" s="60" t="n"/>
-      <c r="U52" s="60" t="n"/>
-      <c r="V52" s="60" t="n"/>
-      <c r="W52" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X52" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K52" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N52" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O52" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P52" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q52" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R52" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S52" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T52" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U52" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V52" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="58" t="n"/>
+      <c r="X52" s="58" t="n"/>
       <c r="Y52" s="54">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="55">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
-        <v/>
-      </c>
-      <c r="AA52" s="55">
-        <f>((E24*D24)+Z24)</f>
-        <v/>
-      </c>
-      <c r="AB52" s="56">
-        <f>D24</f>
-        <v/>
-      </c>
-      <c r="AC52" s="49" t="n"/>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="58" t="n"/>
+      <c r="AA52" s="58" t="n"/>
+      <c r="AB52" s="59" t="n"/>
+      <c r="AC52" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD52" s="50" t="n"/>
-      <c r="AE52" s="57" t="n"/>
-      <c r="AF52" s="57" t="n"/>
-      <c r="AG52" s="57" t="n"/>
-      <c r="AH52" s="57" t="n"/>
-      <c r="AI52" s="57" t="n"/>
-      <c r="AJ52" s="57" t="n"/>
-      <c r="AK52" s="57" t="n"/>
-      <c r="AL52" s="57" t="n"/>
-      <c r="AM52" s="57" t="n"/>
-      <c r="AN52" s="57" t="n"/>
-      <c r="AO52" s="57" t="n"/>
-      <c r="AP52" s="57" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="38" t="n">
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="B53" s="39" t="inlineStr">
         <is>
@@ -4307,10 +4261,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="41" t="n">
-        <v>215.42</v>
+        <v>207.12</v>
       </c>
       <c r="F53" s="41" t="n">
-        <v>2154.2</v>
+        <v>2071.16</v>
       </c>
       <c r="G53" s="39" t="inlineStr">
         <is>
@@ -4318,10 +4272,10 @@
         </is>
       </c>
       <c r="H53" s="40" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="I53" s="40" t="n">
-        <v>13.09</v>
+        <v>12.58</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
@@ -4346,19 +4300,19 @@
         <v>45282</v>
       </c>
       <c r="Y53" s="54">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z53" s="55">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA53" s="55">
-        <f>((E25*D25)+Z25)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB53" s="56">
-        <f>D25</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC53" s="49" t="n"/>
@@ -4378,7 +4332,7 @@
     </row>
     <row r="54">
       <c r="A54" s="38" t="n">
-        <v>45191</v>
+        <v>45204</v>
       </c>
       <c r="B54" s="39" t="inlineStr">
         <is>
@@ -4394,10 +4348,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="41" t="n">
-        <v>215.62</v>
+        <v>215.42</v>
       </c>
       <c r="F54" s="41" t="n">
-        <v>2156.25</v>
+        <v>2154.2</v>
       </c>
       <c r="G54" s="39" t="inlineStr">
         <is>
@@ -4405,10 +4359,10 @@
         </is>
       </c>
       <c r="H54" s="40" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="I54" s="40" t="n">
-        <v>13.07</v>
+        <v>13.09</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
@@ -4433,19 +4387,19 @@
         <v>45282</v>
       </c>
       <c r="Y54" s="54">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z54" s="55">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
         <v/>
       </c>
       <c r="AA54" s="55">
-        <f>((E26*D26)+Z26)</f>
+        <f>((E25*D25)+Z25)</f>
         <v/>
       </c>
       <c r="AB54" s="56">
-        <f>D26</f>
+        <f>D25</f>
         <v/>
       </c>
       <c r="AC54" s="49" t="n"/>
@@ -4465,7 +4419,7 @@
     </row>
     <row r="55">
       <c r="A55" s="38" t="n">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="B55" s="39" t="inlineStr">
         <is>
@@ -4481,10 +4435,10 @@
         <v>10</v>
       </c>
       <c r="E55" s="41" t="n">
-        <v>223.93</v>
+        <v>215.62</v>
       </c>
       <c r="F55" s="41" t="n">
-        <v>2239.3</v>
+        <v>2156.25</v>
       </c>
       <c r="G55" s="39" t="inlineStr">
         <is>
@@ -4492,10 +4446,10 @@
         </is>
       </c>
       <c r="H55" s="40" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I55" s="40" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
@@ -4520,19 +4474,19 @@
         <v>45282</v>
       </c>
       <c r="Y55" s="54">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z55" s="55">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA55" s="55">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB55" s="56">
-        <f>D27</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC55" s="49" t="n"/>
@@ -4552,7 +4506,7 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="n">
-        <v>45181</v>
+        <v>45184</v>
       </c>
       <c r="B56" s="39" t="inlineStr">
         <is>
@@ -4565,13 +4519,13 @@
         </is>
       </c>
       <c r="D56" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E56" s="41" t="n">
-        <v>231.33</v>
+        <v>223.93</v>
       </c>
       <c r="F56" s="41" t="n">
-        <v>1156.64</v>
+        <v>2239.3</v>
       </c>
       <c r="G56" s="39" t="inlineStr">
         <is>
@@ -4579,10 +4533,10 @@
         </is>
       </c>
       <c r="H56" s="40" t="n">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="I56" s="40" t="n">
-        <v>6.99</v>
+        <v>13.56</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4607,19 +4561,19 @@
         <v>45282</v>
       </c>
       <c r="Y56" s="54">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z56" s="55">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA56" s="55">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB56" s="56">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC56" s="49" t="n"/>
@@ -4639,7 +4593,7 @@
     </row>
     <row r="57">
       <c r="A57" s="38" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B57" s="39" t="inlineStr">
         <is>
@@ -4652,13 +4606,13 @@
         </is>
       </c>
       <c r="D57" s="40" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E57" s="41" t="n">
-        <v>171.76</v>
+        <v>231.33</v>
       </c>
       <c r="F57" s="41" t="n">
-        <v>6870.22</v>
+        <v>1156.64</v>
       </c>
       <c r="G57" s="39" t="inlineStr">
         <is>
@@ -4666,10 +4620,10 @@
         </is>
       </c>
       <c r="H57" s="40" t="n">
-        <v>6.76</v>
+        <v>1.15</v>
       </c>
       <c r="I57" s="40" t="n">
-        <v>41.46</v>
+        <v>6.99</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4688,25 +4642,25 @@
       <c r="U57" s="60" t="n"/>
       <c r="V57" s="60" t="n"/>
       <c r="W57" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X57" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y57" s="54">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z57" s="55">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA57" s="55">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB57" s="56">
-        <f>D29</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC57" s="49" t="n"/>
@@ -4730,7 +4684,7 @@
       </c>
       <c r="B58" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C58" s="39" t="inlineStr">
@@ -4739,90 +4693,85 @@
         </is>
       </c>
       <c r="D58" s="40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E58" s="41" t="n">
-        <v>1.05</v>
+        <v>171.76</v>
       </c>
       <c r="F58" s="41" t="n">
-        <v>63</v>
+        <v>6870.22</v>
       </c>
       <c r="G58" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H58" s="40" t="n">
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="I58" s="40" t="n">
-        <v>0</v>
+        <v>41.46</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K58" s="47" t="n"/>
-      <c r="L58" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N58" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O58" s="62" t="n"/>
-      <c r="P58" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S58" s="62" t="n"/>
-      <c r="T58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V58" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="58" t="n"/>
-      <c r="X58" s="58" t="n"/>
+      <c r="K58" s="58" t="n"/>
+      <c r="L58" s="58" t="n"/>
+      <c r="M58" s="60" t="n"/>
+      <c r="N58" s="61" t="n"/>
+      <c r="O58" s="60" t="n"/>
+      <c r="P58" s="58" t="n"/>
+      <c r="Q58" s="60" t="n"/>
+      <c r="R58" s="60" t="n"/>
+      <c r="S58" s="60" t="n"/>
+      <c r="T58" s="60" t="n"/>
+      <c r="U58" s="60" t="n"/>
+      <c r="V58" s="60" t="n"/>
+      <c r="W58" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X58" s="53" t="n">
+        <v>45258</v>
+      </c>
       <c r="Y58" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="58" t="n"/>
-      <c r="AA58" s="58" t="n"/>
-      <c r="AB58" s="59" t="n"/>
-      <c r="AC58" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="55">
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <v/>
+      </c>
+      <c r="AA58" s="55">
+        <f>((E29*D29)+Z29)</f>
+        <v/>
+      </c>
+      <c r="AB58" s="56">
+        <f>D29</f>
+        <v/>
+      </c>
+      <c r="AC58" s="49" t="n"/>
       <c r="AD58" s="50" t="n"/>
+      <c r="AE58" s="57" t="n"/>
+      <c r="AF58" s="57" t="n"/>
+      <c r="AG58" s="57" t="n"/>
+      <c r="AH58" s="57" t="n"/>
+      <c r="AI58" s="57" t="n"/>
+      <c r="AJ58" s="57" t="n"/>
+      <c r="AK58" s="57" t="n"/>
+      <c r="AL58" s="57" t="n"/>
+      <c r="AM58" s="57" t="n"/>
+      <c r="AN58" s="57" t="n"/>
+      <c r="AO58" s="57" t="n"/>
+      <c r="AP58" s="57" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="38" t="n">
-        <v>45140</v>
+        <v>45162</v>
       </c>
       <c r="B59" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C59" s="39" t="inlineStr">
@@ -4834,90 +4783,166 @@
         <v>60</v>
       </c>
       <c r="E59" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F59" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G59" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H59" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K59" s="47" t="n"/>
+      <c r="L59" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="62" t="n"/>
+      <c r="P59" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S59" s="62" t="n"/>
+      <c r="T59" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U59" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V59" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="58" t="n"/>
+      <c r="X59" s="58" t="n"/>
+      <c r="Y59" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="58" t="n"/>
+      <c r="AA59" s="58" t="n"/>
+      <c r="AB59" s="59" t="n"/>
+      <c r="AC59" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD59" s="50" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B60" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C60" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D60" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="41" t="n">
         <v>177.1</v>
       </c>
-      <c r="F59" s="41" t="n">
+      <c r="F60" s="41" t="n">
         <v>10625.89</v>
       </c>
-      <c r="G59" s="39" t="inlineStr">
+      <c r="G60" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H59" s="40" t="n">
+      <c r="H60" s="40" t="n">
         <v>10.58</v>
       </c>
-      <c r="I59" s="40" t="n">
+      <c r="I60" s="40" t="n">
         <v>64.31</v>
       </c>
-      <c r="J59" s="42">
+      <c r="J60" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K59" s="58" t="n"/>
-      <c r="L59" s="58" t="n"/>
-      <c r="M59" s="60" t="n"/>
-      <c r="N59" s="61" t="n"/>
-      <c r="O59" s="60" t="n"/>
-      <c r="P59" s="58" t="n"/>
-      <c r="Q59" s="60" t="n"/>
-      <c r="R59" s="60" t="n"/>
-      <c r="S59" s="60" t="n"/>
-      <c r="T59" s="60" t="n"/>
-      <c r="U59" s="60" t="n"/>
-      <c r="V59" s="60" t="n"/>
-      <c r="W59" s="52" t="n">
+      <c r="K60" s="58" t="n"/>
+      <c r="L60" s="58" t="n"/>
+      <c r="M60" s="60" t="n"/>
+      <c r="N60" s="61" t="n"/>
+      <c r="O60" s="60" t="n"/>
+      <c r="P60" s="58" t="n"/>
+      <c r="Q60" s="60" t="n"/>
+      <c r="R60" s="60" t="n"/>
+      <c r="S60" s="60" t="n"/>
+      <c r="T60" s="60" t="n"/>
+      <c r="U60" s="60" t="n"/>
+      <c r="V60" s="60" t="n"/>
+      <c r="W60" s="52" t="n">
         <v>287.99</v>
       </c>
-      <c r="X59" s="53" t="n">
+      <c r="X60" s="53" t="n">
         <v>45258</v>
       </c>
-      <c r="Y59" s="54">
+      <c r="Y60" s="54">
         <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
-      <c r="Z59" s="55">
+      <c r="Z60" s="55">
         <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
-      <c r="AA59" s="55">
+      <c r="AA60" s="55">
         <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
-      <c r="AB59" s="56">
+      <c r="AB60" s="56">
         <f>D31</f>
         <v/>
       </c>
-      <c r="AC59" s="49" t="n"/>
-      <c r="AD59" s="50" t="n"/>
-      <c r="AE59" s="57" t="n"/>
-      <c r="AF59" s="57" t="n"/>
-      <c r="AG59" s="57" t="n"/>
-      <c r="AH59" s="57" t="n"/>
-      <c r="AI59" s="57" t="n"/>
-      <c r="AJ59" s="57" t="n"/>
-      <c r="AK59" s="57" t="n"/>
-      <c r="AL59" s="57" t="n"/>
-      <c r="AM59" s="57" t="n"/>
-      <c r="AN59" s="57" t="n"/>
-      <c r="AO59" s="57" t="n"/>
-      <c r="AP59" s="57" t="n"/>
-    </row>
-    <row r="60">
-      <c r="E60" s="64" t="n"/>
-      <c r="F60" s="64" t="n"/>
-      <c r="G60" s="65" t="n"/>
-      <c r="J60" s="64" t="n"/>
-      <c r="K60" s="64" t="n"/>
-      <c r="L60" s="64" t="n"/>
-      <c r="M60" s="67" t="n"/>
-      <c r="W60" s="64" t="n"/>
-      <c r="X60" s="64" t="n"/>
-      <c r="Y60" s="64" t="n"/>
-      <c r="Z60" s="64" t="n"/>
-      <c r="AA60" s="64" t="n"/>
-      <c r="AB60" s="64" t="n"/>
-      <c r="AC60" s="64" t="n"/>
+      <c r="AC60" s="49" t="n"/>
+      <c r="AD60" s="50" t="n"/>
+      <c r="AE60" s="57" t="n"/>
+      <c r="AF60" s="57" t="n"/>
+      <c r="AG60" s="57" t="n"/>
+      <c r="AH60" s="57" t="n"/>
+      <c r="AI60" s="57" t="n"/>
+      <c r="AJ60" s="57" t="n"/>
+      <c r="AK60" s="57" t="n"/>
+      <c r="AL60" s="57" t="n"/>
+      <c r="AM60" s="57" t="n"/>
+      <c r="AN60" s="57" t="n"/>
+      <c r="AO60" s="57" t="n"/>
+      <c r="AP60" s="57" t="n"/>
     </row>
     <row r="61">
       <c r="E61" s="64" t="n"/>
@@ -19886,6 +19911,7 @@
       <c r="J996" s="64" t="n"/>
       <c r="K996" s="64" t="n"/>
       <c r="L996" s="64" t="n"/>
+      <c r="M996" s="67" t="n"/>
       <c r="W996" s="64" t="n"/>
       <c r="X996" s="64" t="n"/>
       <c r="Y996" s="64" t="n"/>
@@ -20133,6 +20159,21 @@
       <c r="AA1012" s="64" t="n"/>
       <c r="AB1012" s="64" t="n"/>
       <c r="AC1012" s="64" t="n"/>
+    </row>
+    <row r="1013">
+      <c r="E1013" s="64" t="n"/>
+      <c r="F1013" s="64" t="n"/>
+      <c r="G1013" s="65" t="n"/>
+      <c r="J1013" s="64" t="n"/>
+      <c r="K1013" s="64" t="n"/>
+      <c r="L1013" s="64" t="n"/>
+      <c r="W1013" s="64" t="n"/>
+      <c r="X1013" s="64" t="n"/>
+      <c r="Y1013" s="64" t="n"/>
+      <c r="Z1013" s="64" t="n"/>
+      <c r="AA1013" s="64" t="n"/>
+      <c r="AB1013" s="64" t="n"/>
+      <c r="AC1013" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>

--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1013"/>
+  <dimension ref="A1:AP1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="5">
       <c r="A5" s="100" t="n">
-        <v>46062</v>
+        <v>45959</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1149,24 +1149,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>326.95</v>
+        <v>365.55</v>
       </c>
       <c r="F5" t="n">
-        <v>3292.61</v>
+        <v>5510.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3.27</v>
-      </c>
       <c r="I5" t="n">
-        <v>19.84</v>
+        <v>27.45</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1174,8 +1171,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="99" t="n">
-        <v>46057</v>
+      <c r="A6" s="100" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1188,24 +1185,28 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>334.35</v>
+        <v>326.95</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>673.4299999999999</v>
+        <v>3292.61</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.67</v>
+        <v>3.27</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>4.06</v>
+        <v>19.84</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1223,13 +1224,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>334.4</v>
+        <v>334.35</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1010.29</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1237,10 +1238,10 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>6.09</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="8">
@@ -1258,13 +1259,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>334.4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1683.82</v>
+        <v>1010.29</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1272,15 +1273,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>10.15</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="99" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1293,13 +1294,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>332.6</v>
+        <v>334.4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3349.54</v>
+        <v>1683.82</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1307,15 +1308,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.33</v>
+        <v>1.67</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>20.21</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="99" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1328,13 +1329,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>340.65</v>
+        <v>332.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1372.22</v>
+        <v>3349.54</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1342,10 +1343,10 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.36</v>
+        <v>3.33</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>8.26</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="11">
@@ -1363,13 +1364,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>340.65</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2058.39</v>
+        <v>1372.22</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1377,15 +1378,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.06</v>
+        <v>1.36</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>12.43</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="99" t="n">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1398,13 +1399,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>377.5</v>
+        <v>340.65</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3801.8</v>
+        <v>2058.39</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1412,19 +1413,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.79</v>
+        <v>2.06</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>23.01</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="99" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1436,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>358.2</v>
+        <v>377.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3607.38</v>
+        <v>3801.8</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1447,19 +1448,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.56</v>
+        <v>3.79</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>21.82</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="99" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1471,10 +1472,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>326.5</v>
+        <v>358.2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3288.12</v>
+        <v>3607.38</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1482,15 +1483,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>19.83</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="99" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1506,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>332.8</v>
+        <v>326.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3351.53</v>
+        <v>3288.12</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1517,15 +1518,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>20.21</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="99" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1541,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>328.3</v>
+        <v>332.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3306.25</v>
+        <v>3351.53</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1552,15 +1553,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>19.96</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="99" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1576,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>332.2</v>
+        <v>328.3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3345.52</v>
+        <v>3306.25</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1587,15 +1588,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>20.21</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="99" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1611,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>345.6</v>
+        <v>332.2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3480.52</v>
+        <v>3345.52</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1622,19 +1623,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>21.06</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="99" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1643,13 +1644,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>351.25</v>
+        <v>345.6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1061.24</v>
+        <v>3480.52</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1657,10 +1658,10 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.04</v>
+        <v>3.46</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>6.45</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="20">
@@ -1678,13 +1679,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>351.4</v>
+        <v>351.25</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2477.27</v>
+        <v>1061.24</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1692,19 +1693,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>15.03</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="99" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1713,13 +1714,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>359.15</v>
+        <v>351.4</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1085.1</v>
+        <v>2477.27</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1727,10 +1728,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.08</v>
+        <v>2.44</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>6.57</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="22">
@@ -1748,13 +1749,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>361.69</v>
+        <v>1085.1</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1762,10 +1763,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.36</v>
+        <v>1.08</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>2.18</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="23">
@@ -1818,13 +1819,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1808.53</v>
+        <v>361.69</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1832,15 +1833,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.81</v>
+        <v>0.36</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>10.97</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="99" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1853,13 +1854,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>365.6</v>
+        <v>359.15</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>7363.88</v>
+        <v>1808.53</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1867,19 +1868,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>7.34</v>
+        <v>1.81</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>44.54</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="99" t="n">
-        <v>45965</v>
+        <v>45978</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1888,33 +1889,33 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>365.6</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>90</v>
+        <v>7363.88</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>7.34</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="99" t="n">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1923,24 +1924,24 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>365.55</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3681.41</v>
+        <v>90</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>22.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1958,13 +1959,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>365.55</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1840.72</v>
+        <v>3681.41</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1972,15 +1973,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.83</v>
+        <v>3.64</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>11.14</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="99" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1993,13 +1994,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>367.45</v>
+        <v>365.55</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3700.58</v>
+        <v>1840.72</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2007,15 +2008,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.68</v>
+        <v>1.83</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>22.4</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="99" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2031,10 +2032,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>369.25</v>
+        <v>367.45</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3718.71</v>
+        <v>3700.58</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2042,15 +2043,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>22.52</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="99" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2066,10 +2067,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>371</v>
+        <v>369.25</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3736.33</v>
+        <v>3718.71</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2077,19 +2078,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>22.63</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="99" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2098,13 +2099,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>366.25</v>
+        <v>371</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>7376.93</v>
+        <v>3736.33</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2112,19 +2113,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>7.32</v>
+        <v>3.7</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>44.61</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="99" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2133,13 +2134,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>340.2</v>
+        <v>366.25</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3426.12</v>
+        <v>7376.93</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2147,113 +2148,50 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>3.4</v>
+        <v>7.32</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>20.72</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B34" s="39" t="inlineStr">
+      <c r="A34" s="99" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C34" s="39" t="inlineStr">
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D34" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F34" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G34" s="39" t="inlineStr">
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>3426.12</v>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="40" t="n"/>
-      <c r="J34" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S34" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W34" s="47" t="n"/>
-      <c r="X34" s="47" t="n"/>
-      <c r="Y34" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="47" t="n"/>
-      <c r="AA34" s="47" t="n"/>
-      <c r="AB34" s="48" t="n"/>
-      <c r="AC34" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD34" s="50" t="n"/>
+      <c r="H34" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>20.72</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2266,99 +2204,96 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F35" s="41" t="n">
-        <v>3426.12</v>
+        <v>368.85</v>
+      </c>
+      <c r="F35" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I35" s="40" t="n">
-        <v>20.72</v>
-      </c>
+      <c r="H35" s="40" t="n"/>
+      <c r="I35" s="40" t="n"/>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="49">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD35" s="50" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" s="39" t="inlineStr">
@@ -2367,189 +2302,189 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>0.85</v>
+        <v>342.61</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>12.75</v>
+        <v>3426.12</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD36" s="50" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>459.93</v>
+        <v>0.85</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>22996.63</v>
+        <v>12.75</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>23.13</v>
+        <v>0</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>137.74</v>
+        <v>0</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD37" s="50" t="n"/>
@@ -2569,13 +2504,13 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>459.94</v>
+        <v>459.93</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>459.94</v>
+        <v>22996.63</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -2583,74 +2518,74 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>0.46</v>
+        <v>23.13</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>2.75</v>
+        <v>137.74</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD38" s="50" t="n"/>
@@ -2670,13 +2605,13 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>459.93</v>
+        <v>459.94</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>24836.35</v>
+        <v>459.94</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2684,81 +2619,81 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>24.97</v>
+        <v>0.46</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>148.78</v>
+        <v>2.75</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD39" s="50" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2767,17 +2702,17 @@
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>402.64</v>
+        <v>459.93</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>6039.54</v>
+        <v>24836.35</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2785,85 +2720,85 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>6</v>
+        <v>24.97</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>36.54</v>
+        <v>148.78</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD40" s="50" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45749</v>
+        <v>45811</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
@@ -2872,99 +2807,99 @@
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>1</v>
+        <v>402.64</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>105</v>
+        <v>6039.54</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>0</v>
+        <v>36.54</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD41" s="50" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45734</v>
+        <v>45749</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
@@ -2973,112 +2908,91 @@
         </is>
       </c>
       <c r="D42" s="40" t="n">
+        <v>105</v>
+      </c>
+      <c r="E42" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F42" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+      <c r="F42" s="41" t="n">
+        <v>105</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
-      <c r="H42" s="40" t="n"/>
+      <c r="H42" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" s="40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X42" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y42" s="54">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="55">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
-        <v/>
-      </c>
-      <c r="AA42" s="55">
-        <f>((E13*D13)+Z13)</f>
-        <v/>
-      </c>
-      <c r="AB42" s="56">
-        <f>D13</f>
-        <v/>
-      </c>
-      <c r="AC42" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="47" t="n"/>
+      <c r="X42" s="47" t="n"/>
+      <c r="Y42" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="47" t="n"/>
+      <c r="AA42" s="47" t="n"/>
+      <c r="AB42" s="48" t="n"/>
+      <c r="AC42" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD42" s="50" t="n"/>
-      <c r="AE42" s="57" t="n"/>
-      <c r="AF42" s="57" t="n"/>
-      <c r="AG42" s="57" t="n"/>
-      <c r="AH42" s="57" t="n"/>
-      <c r="AI42" s="57" t="n"/>
-      <c r="AJ42" s="57" t="n"/>
-      <c r="AK42" s="57" t="n"/>
-      <c r="AL42" s="57" t="n"/>
-      <c r="AM42" s="57" t="n"/>
-      <c r="AN42" s="57" t="n"/>
-      <c r="AO42" s="57" t="n"/>
-      <c r="AP42" s="57" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
@@ -3095,13 +3009,13 @@
         </is>
       </c>
       <c r="D43" s="40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="41" t="n">
         <v>283</v>
       </c>
       <c r="F43" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
+        <f>E13*D13 + sum(H13:I13)</f>
         <v/>
       </c>
       <c r="G43" s="39" t="inlineStr">
@@ -3111,58 +3025,58 @@
       </c>
       <c r="H43" s="40" t="n"/>
       <c r="I43" s="40" t="n">
-        <v>7.99</v>
+        <v>2</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W43" s="52" t="n">
@@ -3172,19 +3086,19 @@
         <v>45820</v>
       </c>
       <c r="Y43" s="54">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z43" s="55">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA43" s="55">
-        <f>((E14*D14)+Z14)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB43" s="56">
-        <f>D14</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC43" s="49" t="n"/>
@@ -3204,7 +3118,7 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
@@ -3217,75 +3131,74 @@
         </is>
       </c>
       <c r="D44" s="40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>297.1</v>
-      </c>
-      <c r="F44" s="41" t="n">
-        <v>2970.96</v>
+        <v>283</v>
+      </c>
+      <c r="F44" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H44" s="40" t="n">
-        <v>2.96</v>
-      </c>
+      <c r="H44" s="40" t="n"/>
       <c r="I44" s="40" t="n">
-        <v>18</v>
+        <v>7.99</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W44" s="52" t="n">
@@ -3295,19 +3208,19 @@
         <v>45820</v>
       </c>
       <c r="Y44" s="54">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z44" s="55">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA44" s="55">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB44" s="56">
-        <f>D15</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC44" s="49" t="n"/>
@@ -3327,7 +3240,7 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -3343,10 +3256,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>312.45</v>
+        <v>297.1</v>
       </c>
       <c r="F45" s="41" t="n">
-        <v>3124.48</v>
+        <v>2970.96</v>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
@@ -3354,61 +3267,61 @@
         </is>
       </c>
       <c r="H45" s="40" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="I45" s="40" t="n">
-        <v>18.89</v>
+        <v>18</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W45" s="52" t="n">
@@ -3418,19 +3331,19 @@
         <v>45820</v>
       </c>
       <c r="Y45" s="54">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z45" s="55">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA45" s="55">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB45" s="56">
-        <f>D16</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC45" s="49" t="n"/>
@@ -3450,7 +3363,7 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
@@ -3463,13 +3376,13 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>299.31</v>
+        <v>312.45</v>
       </c>
       <c r="F46" s="41" t="n">
-        <v>11972.42</v>
+        <v>3124.48</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
@@ -3477,61 +3390,61 @@
         </is>
       </c>
       <c r="H46" s="40" t="n">
-        <v>11.88</v>
+        <v>3.09</v>
       </c>
       <c r="I46" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W46" s="52" t="n">
@@ -3541,19 +3454,19 @@
         <v>45820</v>
       </c>
       <c r="Y46" s="54">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z46" s="55">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA46" s="55">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB46" s="56">
-        <f>D17</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC46" s="49" t="n"/>
@@ -3586,13 +3499,13 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>299.36</v>
+        <v>299.31</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>5987.21</v>
+        <v>11972.42</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
@@ -3600,61 +3513,61 @@
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>5.93</v>
+        <v>11.88</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>36.28</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W47" s="52" t="n">
@@ -3664,19 +3577,19 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="54">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z47" s="55">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA47" s="55">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB47" s="56">
-        <f>D18</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC47" s="49" t="n"/>
@@ -3696,7 +3609,7 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
@@ -3709,13 +3622,13 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>333.8</v>
+        <v>299.36</v>
       </c>
       <c r="F48" s="41" t="n">
-        <v>3338</v>
+        <v>5987.21</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
@@ -3723,61 +3636,61 @@
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>3.31</v>
+        <v>5.93</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>20.19</v>
+        <v>36.28</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W48" s="52" t="n">
@@ -3787,19 +3700,19 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="54">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z48" s="55">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA48" s="55">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB48" s="56">
-        <f>D19</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC48" s="49" t="n"/>
@@ -3819,7 +3732,7 @@
     </row>
     <row r="49">
       <c r="A49" s="38" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
@@ -3835,10 +3748,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>361.6</v>
+        <v>333.8</v>
       </c>
       <c r="F49" s="41" t="n">
-        <v>3615.99</v>
+        <v>3338</v>
       </c>
       <c r="G49" s="39" t="inlineStr">
         <is>
@@ -3846,61 +3759,61 @@
         </is>
       </c>
       <c r="H49" s="40" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="I49" s="40" t="n">
-        <v>21.91</v>
+        <v>20.19</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W49" s="52" t="n">
@@ -3910,19 +3823,19 @@
         <v>45820</v>
       </c>
       <c r="Y49" s="54">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z49" s="55">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
         <v/>
       </c>
       <c r="AA49" s="55">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E19*D19)+Z19)</f>
         <v/>
       </c>
       <c r="AB49" s="56">
-        <f>D20</f>
+        <f>D19</f>
         <v/>
       </c>
       <c r="AC49" s="49" t="n"/>
@@ -3942,7 +3855,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -3951,17 +3864,17 @@
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>293.2</v>
+        <v>361.6</v>
       </c>
       <c r="F50" s="41" t="n">
-        <v>13193.82</v>
+        <v>3615.99</v>
       </c>
       <c r="G50" s="39" t="inlineStr">
         <is>
@@ -3969,81 +3882,103 @@
         </is>
       </c>
       <c r="H50" s="40" t="n">
-        <v>13.31</v>
+        <v>3.58</v>
       </c>
       <c r="I50" s="40" t="n">
-        <v>79.12</v>
+        <v>21.91</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="58" t="n"/>
-      <c r="X50" s="58" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W50" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X50" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y50" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="58" t="n"/>
-      <c r="AA50" s="58" t="n"/>
-      <c r="AB50" s="59" t="n"/>
-      <c r="AC50" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="55">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA50" s="55">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB50" s="56">
+        <f>D20</f>
+        <v/>
+      </c>
+      <c r="AC50" s="49" t="n"/>
       <c r="AD50" s="50" t="n"/>
+      <c r="AE50" s="57" t="n"/>
+      <c r="AF50" s="57" t="n"/>
+      <c r="AG50" s="57" t="n"/>
+      <c r="AH50" s="57" t="n"/>
+      <c r="AI50" s="57" t="n"/>
+      <c r="AJ50" s="57" t="n"/>
+      <c r="AK50" s="57" t="n"/>
+      <c r="AL50" s="57" t="n"/>
+      <c r="AM50" s="57" t="n"/>
+      <c r="AN50" s="57" t="n"/>
+      <c r="AO50" s="57" t="n"/>
+      <c r="AP50" s="57" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
@@ -4056,13 +3991,13 @@
         </is>
       </c>
       <c r="D51" s="40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="F51" s="41" t="n">
-        <v>28798.67</v>
+        <v>13193.82</v>
       </c>
       <c r="G51" s="39" t="inlineStr">
         <is>
@@ -4070,186 +4005,186 @@
         </is>
       </c>
       <c r="H51" s="40" t="n">
-        <v>29.05</v>
+        <v>13.31</v>
       </c>
       <c r="I51" s="40" t="n">
-        <v>172.28</v>
+        <v>79.12</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W51" s="58" t="n"/>
       <c r="X51" s="58" t="n"/>
       <c r="Y51" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z51" s="58" t="n"/>
       <c r="AA51" s="58" t="n"/>
       <c r="AB51" s="59" t="n"/>
       <c r="AC51" s="49">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD51" s="50" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="38" t="n">
-        <v>45233</v>
+        <v>45258</v>
       </c>
       <c r="B52" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D52" s="40" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E52" s="41" t="n">
-        <v>1</v>
+        <v>287.99</v>
       </c>
       <c r="F52" s="41" t="n">
-        <v>145</v>
+        <v>28798.67</v>
       </c>
       <c r="G52" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H52" s="40" t="n">
-        <v>0</v>
+        <v>29.05</v>
       </c>
       <c r="I52" s="40" t="n">
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W52" s="58" t="n"/>
       <c r="X52" s="58" t="n"/>
       <c r="Y52" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z52" s="58" t="n"/>
       <c r="AA52" s="58" t="n"/>
       <c r="AB52" s="59" t="n"/>
       <c r="AC52" s="49">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD52" s="50" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="38" t="n">
-        <v>45225</v>
+        <v>45233</v>
       </c>
       <c r="B53" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C53" s="39" t="inlineStr">
@@ -4258,81 +4193,95 @@
         </is>
       </c>
       <c r="D53" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E53" s="41" t="n">
-        <v>207.12</v>
+        <v>1</v>
       </c>
       <c r="F53" s="41" t="n">
-        <v>2071.16</v>
+        <v>145</v>
       </c>
       <c r="G53" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H53" s="40" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="I53" s="40" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K53" s="58" t="n"/>
-      <c r="L53" s="58" t="n"/>
-      <c r="M53" s="60" t="n"/>
-      <c r="N53" s="61" t="n"/>
-      <c r="O53" s="60" t="n"/>
-      <c r="P53" s="58" t="n"/>
-      <c r="Q53" s="60" t="n"/>
-      <c r="R53" s="60" t="n"/>
-      <c r="S53" s="60" t="n"/>
-      <c r="T53" s="60" t="n"/>
-      <c r="U53" s="60" t="n"/>
-      <c r="V53" s="60" t="n"/>
-      <c r="W53" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X53" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K53" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R53" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S53" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T53" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U53" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V53" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="58" t="n"/>
+      <c r="X53" s="58" t="n"/>
       <c r="Y53" s="54">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="55">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
-        <v/>
-      </c>
-      <c r="AA53" s="55">
-        <f>((E24*D24)+Z24)</f>
-        <v/>
-      </c>
-      <c r="AB53" s="56">
-        <f>D24</f>
-        <v/>
-      </c>
-      <c r="AC53" s="49" t="n"/>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="58" t="n"/>
+      <c r="AA53" s="58" t="n"/>
+      <c r="AB53" s="59" t="n"/>
+      <c r="AC53" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD53" s="50" t="n"/>
-      <c r="AE53" s="57" t="n"/>
-      <c r="AF53" s="57" t="n"/>
-      <c r="AG53" s="57" t="n"/>
-      <c r="AH53" s="57" t="n"/>
-      <c r="AI53" s="57" t="n"/>
-      <c r="AJ53" s="57" t="n"/>
-      <c r="AK53" s="57" t="n"/>
-      <c r="AL53" s="57" t="n"/>
-      <c r="AM53" s="57" t="n"/>
-      <c r="AN53" s="57" t="n"/>
-      <c r="AO53" s="57" t="n"/>
-      <c r="AP53" s="57" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="38" t="n">
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="B54" s="39" t="inlineStr">
         <is>
@@ -4348,10 +4297,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="41" t="n">
-        <v>215.42</v>
+        <v>207.12</v>
       </c>
       <c r="F54" s="41" t="n">
-        <v>2154.2</v>
+        <v>2071.16</v>
       </c>
       <c r="G54" s="39" t="inlineStr">
         <is>
@@ -4359,10 +4308,10 @@
         </is>
       </c>
       <c r="H54" s="40" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="I54" s="40" t="n">
-        <v>13.09</v>
+        <v>12.58</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
@@ -4387,19 +4336,19 @@
         <v>45282</v>
       </c>
       <c r="Y54" s="54">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z54" s="55">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA54" s="55">
-        <f>((E25*D25)+Z25)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB54" s="56">
-        <f>D25</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC54" s="49" t="n"/>
@@ -4419,7 +4368,7 @@
     </row>
     <row r="55">
       <c r="A55" s="38" t="n">
-        <v>45191</v>
+        <v>45204</v>
       </c>
       <c r="B55" s="39" t="inlineStr">
         <is>
@@ -4435,10 +4384,10 @@
         <v>10</v>
       </c>
       <c r="E55" s="41" t="n">
-        <v>215.62</v>
+        <v>215.42</v>
       </c>
       <c r="F55" s="41" t="n">
-        <v>2156.25</v>
+        <v>2154.2</v>
       </c>
       <c r="G55" s="39" t="inlineStr">
         <is>
@@ -4446,10 +4395,10 @@
         </is>
       </c>
       <c r="H55" s="40" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="I55" s="40" t="n">
-        <v>13.07</v>
+        <v>13.09</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
@@ -4474,19 +4423,19 @@
         <v>45282</v>
       </c>
       <c r="Y55" s="54">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z55" s="55">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
         <v/>
       </c>
       <c r="AA55" s="55">
-        <f>((E26*D26)+Z26)</f>
+        <f>((E25*D25)+Z25)</f>
         <v/>
       </c>
       <c r="AB55" s="56">
-        <f>D26</f>
+        <f>D25</f>
         <v/>
       </c>
       <c r="AC55" s="49" t="n"/>
@@ -4506,7 +4455,7 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="n">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="B56" s="39" t="inlineStr">
         <is>
@@ -4522,10 +4471,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="41" t="n">
-        <v>223.93</v>
+        <v>215.62</v>
       </c>
       <c r="F56" s="41" t="n">
-        <v>2239.3</v>
+        <v>2156.25</v>
       </c>
       <c r="G56" s="39" t="inlineStr">
         <is>
@@ -4533,10 +4482,10 @@
         </is>
       </c>
       <c r="H56" s="40" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I56" s="40" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4561,19 +4510,19 @@
         <v>45282</v>
       </c>
       <c r="Y56" s="54">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z56" s="55">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA56" s="55">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB56" s="56">
-        <f>D27</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC56" s="49" t="n"/>
@@ -4593,7 +4542,7 @@
     </row>
     <row r="57">
       <c r="A57" s="38" t="n">
-        <v>45181</v>
+        <v>45184</v>
       </c>
       <c r="B57" s="39" t="inlineStr">
         <is>
@@ -4606,13 +4555,13 @@
         </is>
       </c>
       <c r="D57" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E57" s="41" t="n">
-        <v>231.33</v>
+        <v>223.93</v>
       </c>
       <c r="F57" s="41" t="n">
-        <v>1156.64</v>
+        <v>2239.3</v>
       </c>
       <c r="G57" s="39" t="inlineStr">
         <is>
@@ -4620,10 +4569,10 @@
         </is>
       </c>
       <c r="H57" s="40" t="n">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="I57" s="40" t="n">
-        <v>6.99</v>
+        <v>13.56</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4648,19 +4597,19 @@
         <v>45282</v>
       </c>
       <c r="Y57" s="54">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z57" s="55">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA57" s="55">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB57" s="56">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC57" s="49" t="n"/>
@@ -4680,7 +4629,7 @@
     </row>
     <row r="58">
       <c r="A58" s="38" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B58" s="39" t="inlineStr">
         <is>
@@ -4693,13 +4642,13 @@
         </is>
       </c>
       <c r="D58" s="40" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E58" s="41" t="n">
-        <v>171.76</v>
+        <v>231.33</v>
       </c>
       <c r="F58" s="41" t="n">
-        <v>6870.22</v>
+        <v>1156.64</v>
       </c>
       <c r="G58" s="39" t="inlineStr">
         <is>
@@ -4707,10 +4656,10 @@
         </is>
       </c>
       <c r="H58" s="40" t="n">
-        <v>6.76</v>
+        <v>1.15</v>
       </c>
       <c r="I58" s="40" t="n">
-        <v>41.46</v>
+        <v>6.99</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4729,25 +4678,25 @@
       <c r="U58" s="60" t="n"/>
       <c r="V58" s="60" t="n"/>
       <c r="W58" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X58" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y58" s="54">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z58" s="55">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA58" s="55">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB58" s="56">
-        <f>D29</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC58" s="49" t="n"/>
@@ -4771,7 +4720,7 @@
       </c>
       <c r="B59" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C59" s="39" t="inlineStr">
@@ -4780,90 +4729,85 @@
         </is>
       </c>
       <c r="D59" s="40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E59" s="41" t="n">
-        <v>1.05</v>
+        <v>171.76</v>
       </c>
       <c r="F59" s="41" t="n">
-        <v>63</v>
+        <v>6870.22</v>
       </c>
       <c r="G59" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H59" s="40" t="n">
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="I59" s="40" t="n">
-        <v>0</v>
+        <v>41.46</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K59" s="47" t="n"/>
-      <c r="L59" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N59" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O59" s="62" t="n"/>
-      <c r="P59" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S59" s="62" t="n"/>
-      <c r="T59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V59" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="58" t="n"/>
-      <c r="X59" s="58" t="n"/>
+      <c r="K59" s="58" t="n"/>
+      <c r="L59" s="58" t="n"/>
+      <c r="M59" s="60" t="n"/>
+      <c r="N59" s="61" t="n"/>
+      <c r="O59" s="60" t="n"/>
+      <c r="P59" s="58" t="n"/>
+      <c r="Q59" s="60" t="n"/>
+      <c r="R59" s="60" t="n"/>
+      <c r="S59" s="60" t="n"/>
+      <c r="T59" s="60" t="n"/>
+      <c r="U59" s="60" t="n"/>
+      <c r="V59" s="60" t="n"/>
+      <c r="W59" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X59" s="53" t="n">
+        <v>45258</v>
+      </c>
       <c r="Y59" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="58" t="n"/>
-      <c r="AA59" s="58" t="n"/>
-      <c r="AB59" s="59" t="n"/>
-      <c r="AC59" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="55">
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <v/>
+      </c>
+      <c r="AA59" s="55">
+        <f>((E29*D29)+Z29)</f>
+        <v/>
+      </c>
+      <c r="AB59" s="56">
+        <f>D29</f>
+        <v/>
+      </c>
+      <c r="AC59" s="49" t="n"/>
       <c r="AD59" s="50" t="n"/>
+      <c r="AE59" s="57" t="n"/>
+      <c r="AF59" s="57" t="n"/>
+      <c r="AG59" s="57" t="n"/>
+      <c r="AH59" s="57" t="n"/>
+      <c r="AI59" s="57" t="n"/>
+      <c r="AJ59" s="57" t="n"/>
+      <c r="AK59" s="57" t="n"/>
+      <c r="AL59" s="57" t="n"/>
+      <c r="AM59" s="57" t="n"/>
+      <c r="AN59" s="57" t="n"/>
+      <c r="AO59" s="57" t="n"/>
+      <c r="AP59" s="57" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="38" t="n">
-        <v>45140</v>
+        <v>45162</v>
       </c>
       <c r="B60" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C60" s="39" t="inlineStr">
@@ -4875,90 +4819,166 @@
         <v>60</v>
       </c>
       <c r="E60" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F60" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G60" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H60" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K60" s="47" t="n"/>
+      <c r="L60" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="62" t="n"/>
+      <c r="P60" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S60" s="62" t="n"/>
+      <c r="T60" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U60" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V60" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="58" t="n"/>
+      <c r="X60" s="58" t="n"/>
+      <c r="Y60" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="58" t="n"/>
+      <c r="AA60" s="58" t="n"/>
+      <c r="AB60" s="59" t="n"/>
+      <c r="AC60" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD60" s="50" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B61" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C61" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D61" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" s="41" t="n">
         <v>177.1</v>
       </c>
-      <c r="F60" s="41" t="n">
+      <c r="F61" s="41" t="n">
         <v>10625.89</v>
       </c>
-      <c r="G60" s="39" t="inlineStr">
+      <c r="G61" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H60" s="40" t="n">
+      <c r="H61" s="40" t="n">
         <v>10.58</v>
       </c>
-      <c r="I60" s="40" t="n">
+      <c r="I61" s="40" t="n">
         <v>64.31</v>
       </c>
-      <c r="J60" s="42">
+      <c r="J61" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K60" s="58" t="n"/>
-      <c r="L60" s="58" t="n"/>
-      <c r="M60" s="60" t="n"/>
-      <c r="N60" s="61" t="n"/>
-      <c r="O60" s="60" t="n"/>
-      <c r="P60" s="58" t="n"/>
-      <c r="Q60" s="60" t="n"/>
-      <c r="R60" s="60" t="n"/>
-      <c r="S60" s="60" t="n"/>
-      <c r="T60" s="60" t="n"/>
-      <c r="U60" s="60" t="n"/>
-      <c r="V60" s="60" t="n"/>
-      <c r="W60" s="52" t="n">
+      <c r="K61" s="58" t="n"/>
+      <c r="L61" s="58" t="n"/>
+      <c r="M61" s="60" t="n"/>
+      <c r="N61" s="61" t="n"/>
+      <c r="O61" s="60" t="n"/>
+      <c r="P61" s="58" t="n"/>
+      <c r="Q61" s="60" t="n"/>
+      <c r="R61" s="60" t="n"/>
+      <c r="S61" s="60" t="n"/>
+      <c r="T61" s="60" t="n"/>
+      <c r="U61" s="60" t="n"/>
+      <c r="V61" s="60" t="n"/>
+      <c r="W61" s="52" t="n">
         <v>287.99</v>
       </c>
-      <c r="X60" s="53" t="n">
+      <c r="X61" s="53" t="n">
         <v>45258</v>
       </c>
-      <c r="Y60" s="54">
+      <c r="Y61" s="54">
         <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
-      <c r="Z60" s="55">
+      <c r="Z61" s="55">
         <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
-      <c r="AA60" s="55">
+      <c r="AA61" s="55">
         <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
-      <c r="AB60" s="56">
+      <c r="AB61" s="56">
         <f>D31</f>
         <v/>
       </c>
-      <c r="AC60" s="49" t="n"/>
-      <c r="AD60" s="50" t="n"/>
-      <c r="AE60" s="57" t="n"/>
-      <c r="AF60" s="57" t="n"/>
-      <c r="AG60" s="57" t="n"/>
-      <c r="AH60" s="57" t="n"/>
-      <c r="AI60" s="57" t="n"/>
-      <c r="AJ60" s="57" t="n"/>
-      <c r="AK60" s="57" t="n"/>
-      <c r="AL60" s="57" t="n"/>
-      <c r="AM60" s="57" t="n"/>
-      <c r="AN60" s="57" t="n"/>
-      <c r="AO60" s="57" t="n"/>
-      <c r="AP60" s="57" t="n"/>
-    </row>
-    <row r="61">
-      <c r="E61" s="64" t="n"/>
-      <c r="F61" s="64" t="n"/>
-      <c r="G61" s="65" t="n"/>
-      <c r="J61" s="64" t="n"/>
-      <c r="K61" s="64" t="n"/>
-      <c r="L61" s="64" t="n"/>
-      <c r="M61" s="67" t="n"/>
-      <c r="W61" s="64" t="n"/>
-      <c r="X61" s="64" t="n"/>
-      <c r="Y61" s="64" t="n"/>
-      <c r="Z61" s="64" t="n"/>
-      <c r="AA61" s="64" t="n"/>
-      <c r="AB61" s="64" t="n"/>
-      <c r="AC61" s="64" t="n"/>
+      <c r="AC61" s="49" t="n"/>
+      <c r="AD61" s="50" t="n"/>
+      <c r="AE61" s="57" t="n"/>
+      <c r="AF61" s="57" t="n"/>
+      <c r="AG61" s="57" t="n"/>
+      <c r="AH61" s="57" t="n"/>
+      <c r="AI61" s="57" t="n"/>
+      <c r="AJ61" s="57" t="n"/>
+      <c r="AK61" s="57" t="n"/>
+      <c r="AL61" s="57" t="n"/>
+      <c r="AM61" s="57" t="n"/>
+      <c r="AN61" s="57" t="n"/>
+      <c r="AO61" s="57" t="n"/>
+      <c r="AP61" s="57" t="n"/>
     </row>
     <row r="62">
       <c r="E62" s="64" t="n"/>
@@ -19927,6 +19947,7 @@
       <c r="J997" s="64" t="n"/>
       <c r="K997" s="64" t="n"/>
       <c r="L997" s="64" t="n"/>
+      <c r="M997" s="67" t="n"/>
       <c r="W997" s="64" t="n"/>
       <c r="X997" s="64" t="n"/>
       <c r="Y997" s="64" t="n"/>
@@ -20174,6 +20195,21 @@
       <c r="AA1013" s="64" t="n"/>
       <c r="AB1013" s="64" t="n"/>
       <c r="AC1013" s="64" t="n"/>
+    </row>
+    <row r="1014">
+      <c r="E1014" s="64" t="n"/>
+      <c r="F1014" s="64" t="n"/>
+      <c r="G1014" s="65" t="n"/>
+      <c r="J1014" s="64" t="n"/>
+      <c r="K1014" s="64" t="n"/>
+      <c r="L1014" s="64" t="n"/>
+      <c r="W1014" s="64" t="n"/>
+      <c r="X1014" s="64" t="n"/>
+      <c r="Y1014" s="64" t="n"/>
+      <c r="Z1014" s="64" t="n"/>
+      <c r="AA1014" s="64" t="n"/>
+      <c r="AB1014" s="64" t="n"/>
+      <c r="AC1014" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>

--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1014"/>
+  <dimension ref="A1:AP1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1136,11 +1136,11 @@
     </row>
     <row r="5">
       <c r="A5" s="100" t="n">
-        <v>45959</v>
+        <v>45981</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1149,21 +1149,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>365.55</v>
+        <v>351.355</v>
       </c>
       <c r="F5" t="n">
-        <v>5510.7</v>
+        <v>3531.15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>27.45</v>
+        <v>17.6</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" s="100" t="n">
-        <v>46062</v>
+        <v>45979</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1188,21 +1188,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>326.95</v>
+        <v>359.15</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3292.61</v>
+        <v>3609.5</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>3.27</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>19.84</v>
+        <v>18</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1210,8 +1207,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="99" t="n">
-        <v>46057</v>
+      <c r="A7" s="100" t="n">
+        <v>45959</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1224,29 +1221,30 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>334.35</v>
+        <v>365.55</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>673.4299999999999</v>
+        <v>5510.7</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0.67</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>4.06</v>
+        <v>27.45</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="99" t="n">
-        <v>46057</v>
+      <c r="A8" s="100" t="n">
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1259,24 +1257,28 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>334.4</v>
+        <v>326.95</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1010.29</v>
+        <v>3292.61</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>3.27</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>6.09</v>
+        <v>19.84</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>334.4</v>
+        <v>334.35</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1683.82</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1308,15 +1310,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>10.15</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="99" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1329,13 +1331,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>332.6</v>
+        <v>334.4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3349.54</v>
+        <v>1010.29</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1343,15 +1345,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.33</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>20.21</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="99" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1364,13 +1366,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>340.65</v>
+        <v>334.4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1372.22</v>
+        <v>1683.82</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1378,15 +1380,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>8.26</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="99" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1399,13 +1401,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>340.65</v>
+        <v>332.6</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2058.39</v>
+        <v>3349.54</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1413,15 +1415,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.06</v>
+        <v>3.33</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>12.43</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="99" t="n">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1434,13 +1436,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>377.5</v>
+        <v>340.65</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3801.8</v>
+        <v>1372.22</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1448,19 +1450,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.79</v>
+        <v>1.36</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>23.01</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="99" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1469,13 +1471,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>358.2</v>
+        <v>340.65</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3607.38</v>
+        <v>2058.39</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1483,15 +1485,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.56</v>
+        <v>2.06</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>21.82</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="99" t="n">
-        <v>46008</v>
+        <v>46017</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1507,10 +1509,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>326.5</v>
+        <v>377.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3288.12</v>
+        <v>3801.8</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1518,19 +1520,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.29</v>
+        <v>3.79</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>19.83</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="99" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1542,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>332.8</v>
+        <v>358.2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3351.53</v>
+        <v>3607.38</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1553,15 +1555,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>20.21</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="99" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1577,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>328.3</v>
+        <v>326.5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3306.25</v>
+        <v>3288.12</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1591,12 +1593,12 @@
         <v>3.29</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.96</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="99" t="n">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1612,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>332.2</v>
+        <v>332.8</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3345.52</v>
+        <v>3351.53</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1623,7 +1625,7 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>20.21</v>
@@ -1631,7 +1633,7 @@
     </row>
     <row r="19">
       <c r="A19" s="99" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1647,10 +1649,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>345.6</v>
+        <v>328.3</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3480.52</v>
+        <v>3306.25</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1658,19 +1660,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.46</v>
+        <v>3.29</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>21.06</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="99" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1679,13 +1681,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>351.25</v>
+        <v>332.2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1061.24</v>
+        <v>3345.52</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1693,19 +1695,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.04</v>
+        <v>3.31</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>6.45</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="99" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1714,13 +1716,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>351.4</v>
+        <v>345.6</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2477.27</v>
+        <v>3480.52</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1728,19 +1730,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>2.44</v>
+        <v>3.46</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>15.03</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="99" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1752,10 +1754,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>359.15</v>
+        <v>351.25</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1085.1</v>
+        <v>1061.24</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1763,19 +1765,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>6.57</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="99" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1784,13 +1786,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>359.15</v>
+        <v>351.4</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>361.69</v>
+        <v>2477.27</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1798,10 +1800,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.36</v>
+        <v>2.44</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>2.18</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="24">
@@ -1819,13 +1821,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>361.69</v>
+        <v>1085.1</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1833,10 +1835,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.36</v>
+        <v>1.08</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>2.18</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="25">
@@ -1854,13 +1856,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1808.53</v>
+        <v>361.69</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1868,15 +1870,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.81</v>
+        <v>0.36</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>10.97</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="99" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1889,13 +1891,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>365.6</v>
+        <v>359.15</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>7363.88</v>
+        <v>361.69</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1903,19 +1905,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>7.34</v>
+        <v>0.36</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>44.54</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="99" t="n">
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1924,29 +1926,29 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>359.15</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>90</v>
+        <v>1808.53</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="99" t="n">
-        <v>45959</v>
+        <v>45978</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1959,13 +1961,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>365.55</v>
+        <v>365.6</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3681.41</v>
+        <v>7363.88</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1973,19 +1975,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.64</v>
+        <v>7.34</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>22.27</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="99" t="n">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -1994,29 +1996,29 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>365.55</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1840.72</v>
+        <v>90</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>11.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="99" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2032,10 +2034,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>367.45</v>
+        <v>365.55</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3700.58</v>
+        <v>3681.41</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2043,15 +2045,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>22.4</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="99" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2064,13 +2066,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>369.25</v>
+        <v>365.55</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3718.71</v>
+        <v>1840.72</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2078,15 +2080,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3.69</v>
+        <v>1.83</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>22.52</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="99" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2102,10 +2104,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>371</v>
+        <v>367.45</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3736.33</v>
+        <v>3700.58</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2113,19 +2115,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>22.63</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="99" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2134,13 +2136,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>366.25</v>
+        <v>369.25</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>7376.93</v>
+        <v>3718.71</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2148,15 +2150,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>7.32</v>
+        <v>3.69</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>44.61</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="99" t="n">
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2172,10 +2174,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>340.2</v>
+        <v>371</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3426.12</v>
+        <v>3736.33</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2183,218 +2185,89 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>20.72</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="38" t="n">
+      <c r="A35" s="99" t="n">
         <v>45950</v>
       </c>
-      <c r="B35" s="39" t="inlineStr">
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>366.25</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>7376.93</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="99" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C35" s="39" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F35" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G35" s="39" t="inlineStr">
+      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>3426.12</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" s="40" t="n"/>
-      <c r="I35" s="40" t="n"/>
-      <c r="J35" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="47" t="n"/>
-      <c r="X35" s="47" t="n"/>
-      <c r="Y35" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="47" t="n"/>
-      <c r="AA35" s="47" t="n"/>
-      <c r="AB35" s="48" t="n"/>
-      <c r="AC35" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="50" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="38" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B36" s="39" t="inlineStr">
+      <c r="H36" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="38" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B37" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
-        </is>
-      </c>
-      <c r="C36" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D36" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F36" s="41" t="n">
-        <v>3426.12</v>
-      </c>
-      <c r="G36" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H36" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I36" s="40" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="J36" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S36" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="47" t="n"/>
-      <c r="X36" s="47" t="n"/>
-      <c r="Y36" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="47" t="n"/>
-      <c r="AA36" s="47" t="n"/>
-      <c r="AB36" s="48" t="n"/>
-      <c r="AC36" s="49">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="50" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="38" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B37" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2403,95 +2276,92 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F37" s="41" t="n">
-        <v>12.75</v>
+        <v>368.85</v>
+      </c>
+      <c r="F37" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H37" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H37" s="40" t="n"/>
+      <c r="I37" s="40" t="n"/>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD37" s="50" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45820</v>
+        <v>45897</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -2500,17 +2370,17 @@
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>459.93</v>
+        <v>342.61</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>22996.63</v>
+        <v>3426.12</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -2518,175 +2388,175 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>23.13</v>
+        <v>3.4</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>137.74</v>
+        <v>20.72</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD38" s="50" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>459.94</v>
+        <v>0.85</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>459.94</v>
+        <v>12.75</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD39" s="50" t="n"/>
@@ -2706,13 +2576,13 @@
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>459.93</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>24836.35</v>
+        <v>22996.63</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2720,81 +2590,81 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>24.97</v>
+        <v>23.13</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>148.78</v>
+        <v>137.74</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD40" s="50" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -2803,17 +2673,17 @@
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>402.64</v>
+        <v>459.94</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>6039.54</v>
+        <v>459.94</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -2821,182 +2691,182 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>6</v>
+        <v>0.46</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>36.54</v>
+        <v>2.75</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD41" s="50" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45749</v>
+        <v>45820</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D42" s="40" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>1</v>
+        <v>459.93</v>
       </c>
       <c r="F42" s="41" t="n">
-        <v>105</v>
+        <v>24836.35</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H42" s="40" t="n">
-        <v>0</v>
+        <v>24.97</v>
       </c>
       <c r="I42" s="40" t="n">
-        <v>0</v>
+        <v>148.78</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD42" s="50" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45734</v>
+        <v>45811</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
@@ -3009,120 +2879,99 @@
         </is>
       </c>
       <c r="D43" s="40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F43" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+        <v>402.64</v>
+      </c>
+      <c r="F43" s="41" t="n">
+        <v>6039.54</v>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="40" t="n"/>
+      <c r="H43" s="40" t="n">
+        <v>6</v>
+      </c>
       <c r="I43" s="40" t="n">
-        <v>2</v>
+        <v>36.54</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X43" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y43" s="54">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="55">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
-        <v/>
-      </c>
-      <c r="AA43" s="55">
-        <f>((E13*D13)+Z13)</f>
-        <v/>
-      </c>
-      <c r="AB43" s="56">
-        <f>D13</f>
-        <v/>
-      </c>
-      <c r="AC43" s="49" t="n"/>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="47" t="n"/>
+      <c r="X43" s="47" t="n"/>
+      <c r="Y43" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="47" t="n"/>
+      <c r="AA43" s="47" t="n"/>
+      <c r="AB43" s="48" t="n"/>
+      <c r="AC43" s="49">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
       <c r="AD43" s="50" t="n"/>
-      <c r="AE43" s="57" t="n"/>
-      <c r="AF43" s="57" t="n"/>
-      <c r="AG43" s="57" t="n"/>
-      <c r="AH43" s="57" t="n"/>
-      <c r="AI43" s="57" t="n"/>
-      <c r="AJ43" s="57" t="n"/>
-      <c r="AK43" s="57" t="n"/>
-      <c r="AL43" s="57" t="n"/>
-      <c r="AM43" s="57" t="n"/>
-      <c r="AN43" s="57" t="n"/>
-      <c r="AO43" s="57" t="n"/>
-      <c r="AP43" s="57" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45734</v>
+        <v>45749</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C44" s="39" t="inlineStr">
@@ -3131,116 +2980,95 @@
         </is>
       </c>
       <c r="D44" s="40" t="n">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F44" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="41" t="n">
+        <v>105</v>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
-      <c r="H44" s="40" t="n"/>
+      <c r="H44" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" s="40" t="n">
-        <v>7.99</v>
+        <v>0</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X44" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y44" s="54">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="55">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
-        <v/>
-      </c>
-      <c r="AA44" s="55">
-        <f>((E14*D14)+Z14)</f>
-        <v/>
-      </c>
-      <c r="AB44" s="56">
-        <f>D14</f>
-        <v/>
-      </c>
-      <c r="AC44" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W44" s="47" t="n"/>
+      <c r="X44" s="47" t="n"/>
+      <c r="Y44" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="47" t="n"/>
+      <c r="AA44" s="47" t="n"/>
+      <c r="AB44" s="48" t="n"/>
+      <c r="AC44" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD44" s="50" t="n"/>
-      <c r="AE44" s="57" t="n"/>
-      <c r="AF44" s="57" t="n"/>
-      <c r="AG44" s="57" t="n"/>
-      <c r="AH44" s="57" t="n"/>
-      <c r="AI44" s="57" t="n"/>
-      <c r="AJ44" s="57" t="n"/>
-      <c r="AK44" s="57" t="n"/>
-      <c r="AL44" s="57" t="n"/>
-      <c r="AM44" s="57" t="n"/>
-      <c r="AN44" s="57" t="n"/>
-      <c r="AO44" s="57" t="n"/>
-      <c r="AP44" s="57" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -3253,75 +3081,74 @@
         </is>
       </c>
       <c r="D45" s="40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>297.1</v>
-      </c>
-      <c r="F45" s="41" t="n">
-        <v>2970.96</v>
+        <v>283</v>
+      </c>
+      <c r="F45" s="51">
+        <f>E13*D13 + sum(H13:I13)</f>
+        <v/>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H45" s="40" t="n">
-        <v>2.96</v>
-      </c>
+      <c r="H45" s="40" t="n"/>
       <c r="I45" s="40" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W45" s="52" t="n">
@@ -3331,19 +3158,19 @@
         <v>45820</v>
       </c>
       <c r="Y45" s="54">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z45" s="55">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA45" s="55">
-        <f>((E15*D15)+Z15)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB45" s="56">
-        <f>D15</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC45" s="49" t="n"/>
@@ -3363,7 +3190,7 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
@@ -3376,75 +3203,74 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>312.45</v>
-      </c>
-      <c r="F46" s="41" t="n">
-        <v>3124.48</v>
+        <v>283</v>
+      </c>
+      <c r="F46" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H46" s="40" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="H46" s="40" t="n"/>
       <c r="I46" s="40" t="n">
-        <v>18.89</v>
+        <v>7.99</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W46" s="52" t="n">
@@ -3454,19 +3280,19 @@
         <v>45820</v>
       </c>
       <c r="Y46" s="54">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z46" s="55">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA46" s="55">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB46" s="56">
-        <f>D16</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC46" s="49" t="n"/>
@@ -3486,7 +3312,7 @@
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
@@ -3499,13 +3325,13 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>299.31</v>
+        <v>297.1</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>11972.42</v>
+        <v>2970.96</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
@@ -3513,61 +3339,61 @@
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>11.88</v>
+        <v>2.96</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>18</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W47" s="52" t="n">
@@ -3577,19 +3403,19 @@
         <v>45820</v>
       </c>
       <c r="Y47" s="54">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z47" s="55">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA47" s="55">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB47" s="56">
-        <f>D17</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC47" s="49" t="n"/>
@@ -3609,7 +3435,7 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
@@ -3622,13 +3448,13 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>299.36</v>
+        <v>312.45</v>
       </c>
       <c r="F48" s="41" t="n">
-        <v>5987.21</v>
+        <v>3124.48</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
@@ -3636,61 +3462,61 @@
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>5.93</v>
+        <v>3.09</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>36.28</v>
+        <v>18.89</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W48" s="52" t="n">
@@ -3700,19 +3526,19 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="54">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z48" s="55">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA48" s="55">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB48" s="56">
-        <f>D18</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC48" s="49" t="n"/>
@@ -3732,7 +3558,7 @@
     </row>
     <row r="49">
       <c r="A49" s="38" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
@@ -3745,13 +3571,13 @@
         </is>
       </c>
       <c r="D49" s="40" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>333.8</v>
+        <v>299.31</v>
       </c>
       <c r="F49" s="41" t="n">
-        <v>3338</v>
+        <v>11972.42</v>
       </c>
       <c r="G49" s="39" t="inlineStr">
         <is>
@@ -3759,61 +3585,61 @@
         </is>
       </c>
       <c r="H49" s="40" t="n">
-        <v>3.31</v>
+        <v>11.88</v>
       </c>
       <c r="I49" s="40" t="n">
-        <v>20.19</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W49" s="52" t="n">
@@ -3823,19 +3649,19 @@
         <v>45820</v>
       </c>
       <c r="Y49" s="54">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z49" s="55">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA49" s="55">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB49" s="56">
-        <f>D19</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC49" s="49" t="n"/>
@@ -3855,7 +3681,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -3868,13 +3694,13 @@
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>361.6</v>
+        <v>299.36</v>
       </c>
       <c r="F50" s="41" t="n">
-        <v>3615.99</v>
+        <v>5987.21</v>
       </c>
       <c r="G50" s="39" t="inlineStr">
         <is>
@@ -3882,61 +3708,61 @@
         </is>
       </c>
       <c r="H50" s="40" t="n">
-        <v>3.58</v>
+        <v>5.93</v>
       </c>
       <c r="I50" s="40" t="n">
-        <v>21.91</v>
+        <v>36.28</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W50" s="52" t="n">
@@ -3946,19 +3772,19 @@
         <v>45820</v>
       </c>
       <c r="Y50" s="54">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z50" s="55">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA50" s="55">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB50" s="56">
-        <f>D20</f>
+        <f>D18</f>
         <v/>
       </c>
       <c r="AC50" s="49" t="n"/>
@@ -3978,7 +3804,7 @@
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45282</v>
+        <v>45699</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
@@ -3987,17 +3813,17 @@
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D51" s="40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>293.2</v>
+        <v>333.8</v>
       </c>
       <c r="F51" s="41" t="n">
-        <v>13193.82</v>
+        <v>3338</v>
       </c>
       <c r="G51" s="39" t="inlineStr">
         <is>
@@ -4005,81 +3831,103 @@
         </is>
       </c>
       <c r="H51" s="40" t="n">
-        <v>13.31</v>
+        <v>3.31</v>
       </c>
       <c r="I51" s="40" t="n">
-        <v>79.12</v>
+        <v>20.19</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="58" t="n"/>
-      <c r="X51" s="58" t="n"/>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W51" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X51" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y51" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="58" t="n"/>
-      <c r="AA51" s="58" t="n"/>
-      <c r="AB51" s="59" t="n"/>
-      <c r="AC51" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z51" s="55">
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <v/>
+      </c>
+      <c r="AA51" s="55">
+        <f>((E19*D19)+Z19)</f>
+        <v/>
+      </c>
+      <c r="AB51" s="56">
+        <f>D19</f>
+        <v/>
+      </c>
+      <c r="AC51" s="49" t="n"/>
       <c r="AD51" s="50" t="n"/>
+      <c r="AE51" s="57" t="n"/>
+      <c r="AF51" s="57" t="n"/>
+      <c r="AG51" s="57" t="n"/>
+      <c r="AH51" s="57" t="n"/>
+      <c r="AI51" s="57" t="n"/>
+      <c r="AJ51" s="57" t="n"/>
+      <c r="AK51" s="57" t="n"/>
+      <c r="AL51" s="57" t="n"/>
+      <c r="AM51" s="57" t="n"/>
+      <c r="AN51" s="57" t="n"/>
+      <c r="AO51" s="57" t="n"/>
+      <c r="AP51" s="57" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="38" t="n">
-        <v>45258</v>
+        <v>45694</v>
       </c>
       <c r="B52" s="39" t="inlineStr">
         <is>
@@ -4088,17 +3936,17 @@
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D52" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E52" s="41" t="n">
-        <v>287.99</v>
+        <v>361.6</v>
       </c>
       <c r="F52" s="41" t="n">
-        <v>28798.67</v>
+        <v>3615.99</v>
       </c>
       <c r="G52" s="39" t="inlineStr">
         <is>
@@ -4106,182 +3954,204 @@
         </is>
       </c>
       <c r="H52" s="40" t="n">
-        <v>29.05</v>
+        <v>3.58</v>
       </c>
       <c r="I52" s="40" t="n">
-        <v>172.28</v>
+        <v>21.91</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="58" t="n"/>
-      <c r="X52" s="58" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X52" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y52" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="58" t="n"/>
-      <c r="AA52" s="58" t="n"/>
-      <c r="AB52" s="59" t="n"/>
-      <c r="AC52" s="49">
-        <f>if(B22="DIV", F22,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="55">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA52" s="55">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB52" s="56">
+        <f>D20</f>
+        <v/>
+      </c>
+      <c r="AC52" s="49" t="n"/>
       <c r="AD52" s="50" t="n"/>
+      <c r="AE52" s="57" t="n"/>
+      <c r="AF52" s="57" t="n"/>
+      <c r="AG52" s="57" t="n"/>
+      <c r="AH52" s="57" t="n"/>
+      <c r="AI52" s="57" t="n"/>
+      <c r="AJ52" s="57" t="n"/>
+      <c r="AK52" s="57" t="n"/>
+      <c r="AL52" s="57" t="n"/>
+      <c r="AM52" s="57" t="n"/>
+      <c r="AN52" s="57" t="n"/>
+      <c r="AO52" s="57" t="n"/>
+      <c r="AP52" s="57" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="38" t="n">
-        <v>45233</v>
+        <v>45282</v>
       </c>
       <c r="B53" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D53" s="40" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E53" s="41" t="n">
-        <v>1</v>
+        <v>293.2</v>
       </c>
       <c r="F53" s="41" t="n">
-        <v>145</v>
+        <v>13193.82</v>
       </c>
       <c r="G53" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H53" s="40" t="n">
-        <v>0</v>
+        <v>13.31</v>
       </c>
       <c r="I53" s="40" t="n">
-        <v>0</v>
+        <v>79.12</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W53" s="58" t="n"/>
       <c r="X53" s="58" t="n"/>
       <c r="Y53" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z53" s="58" t="n"/>
       <c r="AA53" s="58" t="n"/>
       <c r="AB53" s="59" t="n"/>
       <c r="AC53" s="49">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD53" s="50" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="38" t="n">
-        <v>45225</v>
+        <v>45258</v>
       </c>
       <c r="B54" s="39" t="inlineStr">
         <is>
@@ -4290,17 +4160,17 @@
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D54" s="40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E54" s="41" t="n">
-        <v>207.12</v>
+        <v>287.99</v>
       </c>
       <c r="F54" s="41" t="n">
-        <v>2071.16</v>
+        <v>28798.67</v>
       </c>
       <c r="G54" s="39" t="inlineStr">
         <is>
@@ -4308,71 +4178,85 @@
         </is>
       </c>
       <c r="H54" s="40" t="n">
-        <v>2.08</v>
+        <v>29.05</v>
       </c>
       <c r="I54" s="40" t="n">
-        <v>12.58</v>
+        <v>172.28</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K54" s="58" t="n"/>
-      <c r="L54" s="58" t="n"/>
-      <c r="M54" s="60" t="n"/>
-      <c r="N54" s="61" t="n"/>
-      <c r="O54" s="60" t="n"/>
-      <c r="P54" s="58" t="n"/>
-      <c r="Q54" s="60" t="n"/>
-      <c r="R54" s="60" t="n"/>
-      <c r="S54" s="60" t="n"/>
-      <c r="T54" s="60" t="n"/>
-      <c r="U54" s="60" t="n"/>
-      <c r="V54" s="60" t="n"/>
-      <c r="W54" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X54" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K54" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R54" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S54" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T54" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U54" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V54" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="58" t="n"/>
+      <c r="X54" s="58" t="n"/>
       <c r="Y54" s="54">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="55">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
-        <v/>
-      </c>
-      <c r="AA54" s="55">
-        <f>((E24*D24)+Z24)</f>
-        <v/>
-      </c>
-      <c r="AB54" s="56">
-        <f>D24</f>
-        <v/>
-      </c>
-      <c r="AC54" s="49" t="n"/>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="58" t="n"/>
+      <c r="AA54" s="58" t="n"/>
+      <c r="AB54" s="59" t="n"/>
+      <c r="AC54" s="49">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
       <c r="AD54" s="50" t="n"/>
-      <c r="AE54" s="57" t="n"/>
-      <c r="AF54" s="57" t="n"/>
-      <c r="AG54" s="57" t="n"/>
-      <c r="AH54" s="57" t="n"/>
-      <c r="AI54" s="57" t="n"/>
-      <c r="AJ54" s="57" t="n"/>
-      <c r="AK54" s="57" t="n"/>
-      <c r="AL54" s="57" t="n"/>
-      <c r="AM54" s="57" t="n"/>
-      <c r="AN54" s="57" t="n"/>
-      <c r="AO54" s="57" t="n"/>
-      <c r="AP54" s="57" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="38" t="n">
-        <v>45204</v>
+        <v>45233</v>
       </c>
       <c r="B55" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C55" s="39" t="inlineStr">
@@ -4381,81 +4265,95 @@
         </is>
       </c>
       <c r="D55" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E55" s="41" t="n">
-        <v>215.42</v>
+        <v>1</v>
       </c>
       <c r="F55" s="41" t="n">
-        <v>2154.2</v>
+        <v>145</v>
       </c>
       <c r="G55" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H55" s="40" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="I55" s="40" t="n">
-        <v>13.09</v>
+        <v>0</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K55" s="58" t="n"/>
-      <c r="L55" s="58" t="n"/>
-      <c r="M55" s="60" t="n"/>
-      <c r="N55" s="61" t="n"/>
-      <c r="O55" s="60" t="n"/>
-      <c r="P55" s="58" t="n"/>
-      <c r="Q55" s="60" t="n"/>
-      <c r="R55" s="60" t="n"/>
-      <c r="S55" s="60" t="n"/>
-      <c r="T55" s="60" t="n"/>
-      <c r="U55" s="60" t="n"/>
-      <c r="V55" s="60" t="n"/>
-      <c r="W55" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X55" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K55" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L55" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M55" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N55" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O55" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P55" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q55" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R55" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S55" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T55" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U55" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V55" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="58" t="n"/>
+      <c r="X55" s="58" t="n"/>
       <c r="Y55" s="54">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="55">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
-        <v/>
-      </c>
-      <c r="AA55" s="55">
-        <f>((E25*D25)+Z25)</f>
-        <v/>
-      </c>
-      <c r="AB55" s="56">
-        <f>D25</f>
-        <v/>
-      </c>
-      <c r="AC55" s="49" t="n"/>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="58" t="n"/>
+      <c r="AA55" s="58" t="n"/>
+      <c r="AB55" s="59" t="n"/>
+      <c r="AC55" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD55" s="50" t="n"/>
-      <c r="AE55" s="57" t="n"/>
-      <c r="AF55" s="57" t="n"/>
-      <c r="AG55" s="57" t="n"/>
-      <c r="AH55" s="57" t="n"/>
-      <c r="AI55" s="57" t="n"/>
-      <c r="AJ55" s="57" t="n"/>
-      <c r="AK55" s="57" t="n"/>
-      <c r="AL55" s="57" t="n"/>
-      <c r="AM55" s="57" t="n"/>
-      <c r="AN55" s="57" t="n"/>
-      <c r="AO55" s="57" t="n"/>
-      <c r="AP55" s="57" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="38" t="n">
-        <v>45191</v>
+        <v>45225</v>
       </c>
       <c r="B56" s="39" t="inlineStr">
         <is>
@@ -4471,10 +4369,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="41" t="n">
-        <v>215.62</v>
+        <v>207.12</v>
       </c>
       <c r="F56" s="41" t="n">
-        <v>2156.25</v>
+        <v>2071.16</v>
       </c>
       <c r="G56" s="39" t="inlineStr">
         <is>
@@ -4482,10 +4380,10 @@
         </is>
       </c>
       <c r="H56" s="40" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="I56" s="40" t="n">
-        <v>13.07</v>
+        <v>12.58</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4510,19 +4408,19 @@
         <v>45282</v>
       </c>
       <c r="Y56" s="54">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z56" s="55">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA56" s="55">
-        <f>((E26*D26)+Z26)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB56" s="56">
-        <f>D26</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC56" s="49" t="n"/>
@@ -4542,7 +4440,7 @@
     </row>
     <row r="57">
       <c r="A57" s="38" t="n">
-        <v>45184</v>
+        <v>45204</v>
       </c>
       <c r="B57" s="39" t="inlineStr">
         <is>
@@ -4558,10 +4456,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="41" t="n">
-        <v>223.93</v>
+        <v>215.42</v>
       </c>
       <c r="F57" s="41" t="n">
-        <v>2239.3</v>
+        <v>2154.2</v>
       </c>
       <c r="G57" s="39" t="inlineStr">
         <is>
@@ -4569,10 +4467,10 @@
         </is>
       </c>
       <c r="H57" s="40" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="I57" s="40" t="n">
-        <v>13.56</v>
+        <v>13.09</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4597,19 +4495,19 @@
         <v>45282</v>
       </c>
       <c r="Y57" s="54">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z57" s="55">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
         <v/>
       </c>
       <c r="AA57" s="55">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E25*D25)+Z25)</f>
         <v/>
       </c>
       <c r="AB57" s="56">
-        <f>D27</f>
+        <f>D25</f>
         <v/>
       </c>
       <c r="AC57" s="49" t="n"/>
@@ -4629,7 +4527,7 @@
     </row>
     <row r="58">
       <c r="A58" s="38" t="n">
-        <v>45181</v>
+        <v>45191</v>
       </c>
       <c r="B58" s="39" t="inlineStr">
         <is>
@@ -4642,13 +4540,13 @@
         </is>
       </c>
       <c r="D58" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58" s="41" t="n">
-        <v>231.33</v>
+        <v>215.62</v>
       </c>
       <c r="F58" s="41" t="n">
-        <v>1156.64</v>
+        <v>2156.25</v>
       </c>
       <c r="G58" s="39" t="inlineStr">
         <is>
@@ -4656,10 +4554,10 @@
         </is>
       </c>
       <c r="H58" s="40" t="n">
-        <v>1.15</v>
+        <v>2.18</v>
       </c>
       <c r="I58" s="40" t="n">
-        <v>6.99</v>
+        <v>13.07</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4684,19 +4582,19 @@
         <v>45282</v>
       </c>
       <c r="Y58" s="54">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z58" s="55">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA58" s="55">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB58" s="56">
-        <f>D28</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC58" s="49" t="n"/>
@@ -4716,7 +4614,7 @@
     </row>
     <row r="59">
       <c r="A59" s="38" t="n">
-        <v>45162</v>
+        <v>45184</v>
       </c>
       <c r="B59" s="39" t="inlineStr">
         <is>
@@ -4729,13 +4627,13 @@
         </is>
       </c>
       <c r="D59" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E59" s="41" t="n">
-        <v>171.76</v>
+        <v>223.93</v>
       </c>
       <c r="F59" s="41" t="n">
-        <v>6870.22</v>
+        <v>2239.3</v>
       </c>
       <c r="G59" s="39" t="inlineStr">
         <is>
@@ -4743,10 +4641,10 @@
         </is>
       </c>
       <c r="H59" s="40" t="n">
-        <v>6.76</v>
+        <v>2.24</v>
       </c>
       <c r="I59" s="40" t="n">
-        <v>41.46</v>
+        <v>13.56</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4765,25 +4663,25 @@
       <c r="U59" s="60" t="n"/>
       <c r="V59" s="60" t="n"/>
       <c r="W59" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X59" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y59" s="54">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z59" s="55">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA59" s="55">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB59" s="56">
-        <f>D29</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC59" s="49" t="n"/>
@@ -4803,11 +4701,11 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B60" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C60" s="39" t="inlineStr">
@@ -4816,86 +4714,81 @@
         </is>
       </c>
       <c r="D60" s="40" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E60" s="41" t="n">
-        <v>1.05</v>
+        <v>231.33</v>
       </c>
       <c r="F60" s="41" t="n">
-        <v>63</v>
+        <v>1156.64</v>
       </c>
       <c r="G60" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H60" s="40" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I60" s="40" t="n">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K60" s="47" t="n"/>
-      <c r="L60" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N60" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O60" s="62" t="n"/>
-      <c r="P60" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S60" s="62" t="n"/>
-      <c r="T60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V60" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W60" s="58" t="n"/>
-      <c r="X60" s="58" t="n"/>
+      <c r="K60" s="58" t="n"/>
+      <c r="L60" s="58" t="n"/>
+      <c r="M60" s="60" t="n"/>
+      <c r="N60" s="61" t="n"/>
+      <c r="O60" s="60" t="n"/>
+      <c r="P60" s="58" t="n"/>
+      <c r="Q60" s="60" t="n"/>
+      <c r="R60" s="60" t="n"/>
+      <c r="S60" s="60" t="n"/>
+      <c r="T60" s="60" t="n"/>
+      <c r="U60" s="60" t="n"/>
+      <c r="V60" s="60" t="n"/>
+      <c r="W60" s="52" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="X60" s="53" t="n">
+        <v>45282</v>
+      </c>
       <c r="Y60" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z60" s="58" t="n"/>
-      <c r="AA60" s="58" t="n"/>
-      <c r="AB60" s="59" t="n"/>
-      <c r="AC60" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="55">
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <v/>
+      </c>
+      <c r="AA60" s="55">
+        <f>((E28*D28)+Z28)</f>
+        <v/>
+      </c>
+      <c r="AB60" s="56">
+        <f>D28</f>
+        <v/>
+      </c>
+      <c r="AC60" s="49" t="n"/>
       <c r="AD60" s="50" t="n"/>
+      <c r="AE60" s="57" t="n"/>
+      <c r="AF60" s="57" t="n"/>
+      <c r="AG60" s="57" t="n"/>
+      <c r="AH60" s="57" t="n"/>
+      <c r="AI60" s="57" t="n"/>
+      <c r="AJ60" s="57" t="n"/>
+      <c r="AK60" s="57" t="n"/>
+      <c r="AL60" s="57" t="n"/>
+      <c r="AM60" s="57" t="n"/>
+      <c r="AN60" s="57" t="n"/>
+      <c r="AO60" s="57" t="n"/>
+      <c r="AP60" s="57" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="38" t="n">
-        <v>45140</v>
+        <v>45162</v>
       </c>
       <c r="B61" s="39" t="inlineStr">
         <is>
@@ -4908,13 +4801,13 @@
         </is>
       </c>
       <c r="D61" s="40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E61" s="41" t="n">
-        <v>177.1</v>
+        <v>171.76</v>
       </c>
       <c r="F61" s="41" t="n">
-        <v>10625.89</v>
+        <v>6870.22</v>
       </c>
       <c r="G61" s="39" t="inlineStr">
         <is>
@@ -4922,10 +4815,10 @@
         </is>
       </c>
       <c r="H61" s="40" t="n">
-        <v>10.58</v>
+        <v>6.76</v>
       </c>
       <c r="I61" s="40" t="n">
-        <v>64.31</v>
+        <v>41.46</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4950,19 +4843,19 @@
         <v>45258</v>
       </c>
       <c r="Y61" s="54">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z61" s="55">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
         <v/>
       </c>
       <c r="AA61" s="55">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E29*D29)+Z29)</f>
         <v/>
       </c>
       <c r="AB61" s="56">
-        <f>D31</f>
+        <f>D29</f>
         <v/>
       </c>
       <c r="AC61" s="49" t="n"/>
@@ -4981,36 +4874,183 @@
       <c r="AP61" s="57" t="n"/>
     </row>
     <row r="62">
-      <c r="E62" s="64" t="n"/>
-      <c r="F62" s="64" t="n"/>
-      <c r="G62" s="65" t="n"/>
-      <c r="J62" s="64" t="n"/>
-      <c r="K62" s="64" t="n"/>
-      <c r="L62" s="64" t="n"/>
-      <c r="M62" s="67" t="n"/>
-      <c r="W62" s="64" t="n"/>
-      <c r="X62" s="64" t="n"/>
-      <c r="Y62" s="64" t="n"/>
-      <c r="Z62" s="64" t="n"/>
-      <c r="AA62" s="64" t="n"/>
-      <c r="AB62" s="64" t="n"/>
-      <c r="AC62" s="64" t="n"/>
+      <c r="A62" s="38" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B62" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C62" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F62" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G62" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H62" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K62" s="47" t="n"/>
+      <c r="L62" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N62" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O62" s="62" t="n"/>
+      <c r="P62" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R62" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S62" s="62" t="n"/>
+      <c r="T62" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U62" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V62" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="58" t="n"/>
+      <c r="X62" s="58" t="n"/>
+      <c r="Y62" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="58" t="n"/>
+      <c r="AA62" s="58" t="n"/>
+      <c r="AB62" s="59" t="n"/>
+      <c r="AC62" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="50" t="n"/>
     </row>
     <row r="63">
-      <c r="E63" s="64" t="n"/>
-      <c r="F63" s="64" t="n"/>
-      <c r="G63" s="65" t="n"/>
-      <c r="J63" s="64" t="n"/>
-      <c r="K63" s="64" t="n"/>
-      <c r="L63" s="64" t="n"/>
-      <c r="M63" s="67" t="n"/>
-      <c r="W63" s="64" t="n"/>
-      <c r="X63" s="64" t="n"/>
-      <c r="Y63" s="64" t="n"/>
-      <c r="Z63" s="64" t="n"/>
-      <c r="AA63" s="64" t="n"/>
-      <c r="AB63" s="64" t="n"/>
-      <c r="AC63" s="64" t="n"/>
+      <c r="A63" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B63" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C63" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D63" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E63" s="41" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F63" s="41" t="n">
+        <v>10625.89</v>
+      </c>
+      <c r="G63" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" s="40" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I63" s="40" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="J63" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K63" s="58" t="n"/>
+      <c r="L63" s="58" t="n"/>
+      <c r="M63" s="60" t="n"/>
+      <c r="N63" s="61" t="n"/>
+      <c r="O63" s="60" t="n"/>
+      <c r="P63" s="58" t="n"/>
+      <c r="Q63" s="60" t="n"/>
+      <c r="R63" s="60" t="n"/>
+      <c r="S63" s="60" t="n"/>
+      <c r="T63" s="60" t="n"/>
+      <c r="U63" s="60" t="n"/>
+      <c r="V63" s="60" t="n"/>
+      <c r="W63" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X63" s="53" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Y63" s="54">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="55">
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <v/>
+      </c>
+      <c r="AA63" s="55">
+        <f>((E31*D31)+Z31)</f>
+        <v/>
+      </c>
+      <c r="AB63" s="56">
+        <f>D31</f>
+        <v/>
+      </c>
+      <c r="AC63" s="49" t="n"/>
+      <c r="AD63" s="50" t="n"/>
+      <c r="AE63" s="57" t="n"/>
+      <c r="AF63" s="57" t="n"/>
+      <c r="AG63" s="57" t="n"/>
+      <c r="AH63" s="57" t="n"/>
+      <c r="AI63" s="57" t="n"/>
+      <c r="AJ63" s="57" t="n"/>
+      <c r="AK63" s="57" t="n"/>
+      <c r="AL63" s="57" t="n"/>
+      <c r="AM63" s="57" t="n"/>
+      <c r="AN63" s="57" t="n"/>
+      <c r="AO63" s="57" t="n"/>
+      <c r="AP63" s="57" t="n"/>
     </row>
     <row r="64">
       <c r="E64" s="64" t="n"/>
@@ -19963,6 +20003,7 @@
       <c r="J998" s="64" t="n"/>
       <c r="K998" s="64" t="n"/>
       <c r="L998" s="64" t="n"/>
+      <c r="M998" s="67" t="n"/>
       <c r="W998" s="64" t="n"/>
       <c r="X998" s="64" t="n"/>
       <c r="Y998" s="64" t="n"/>
@@ -19978,6 +20019,7 @@
       <c r="J999" s="64" t="n"/>
       <c r="K999" s="64" t="n"/>
       <c r="L999" s="64" t="n"/>
+      <c r="M999" s="67" t="n"/>
       <c r="W999" s="64" t="n"/>
       <c r="X999" s="64" t="n"/>
       <c r="Y999" s="64" t="n"/>
@@ -20210,6 +20252,36 @@
       <c r="AA1014" s="64" t="n"/>
       <c r="AB1014" s="64" t="n"/>
       <c r="AC1014" s="64" t="n"/>
+    </row>
+    <row r="1015">
+      <c r="E1015" s="64" t="n"/>
+      <c r="F1015" s="64" t="n"/>
+      <c r="G1015" s="65" t="n"/>
+      <c r="J1015" s="64" t="n"/>
+      <c r="K1015" s="64" t="n"/>
+      <c r="L1015" s="64" t="n"/>
+      <c r="W1015" s="64" t="n"/>
+      <c r="X1015" s="64" t="n"/>
+      <c r="Y1015" s="64" t="n"/>
+      <c r="Z1015" s="64" t="n"/>
+      <c r="AA1015" s="64" t="n"/>
+      <c r="AB1015" s="64" t="n"/>
+      <c r="AC1015" s="64" t="n"/>
+    </row>
+    <row r="1016">
+      <c r="E1016" s="64" t="n"/>
+      <c r="F1016" s="64" t="n"/>
+      <c r="G1016" s="65" t="n"/>
+      <c r="J1016" s="64" t="n"/>
+      <c r="K1016" s="64" t="n"/>
+      <c r="L1016" s="64" t="n"/>
+      <c r="W1016" s="64" t="n"/>
+      <c r="X1016" s="64" t="n"/>
+      <c r="Y1016" s="64" t="n"/>
+      <c r="Z1016" s="64" t="n"/>
+      <c r="AA1016" s="64" t="n"/>
+      <c r="AB1016" s="64" t="n"/>
+      <c r="AC1016" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>

--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1016"/>
+  <dimension ref="A1:AP1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1136,11 +1136,11 @@
     </row>
     <row r="5">
       <c r="A5" s="100" t="n">
-        <v>45981</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1152,18 +1152,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>351.355</v>
+        <v>323.25</v>
       </c>
       <c r="F5" t="n">
-        <v>3531.15</v>
+        <v>3248.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17.6</v>
+        <v>16.2</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" s="100" t="n">
-        <v>45979</v>
+        <v>46057</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1188,18 +1188,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>359.15</v>
+        <v>334.39</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3609.5</v>
+        <v>3360.6</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>18</v>
+        <v>16.7</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="7">
       <c r="A7" s="100" t="n">
-        <v>45959</v>
+        <v>46034</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1221,21 +1221,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>365.55</v>
+        <v>340.65</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5510.7</v>
+        <v>3423.5</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>27.45</v>
+        <v>17</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1244,11 +1244,11 @@
     </row>
     <row r="8">
       <c r="A8" s="100" t="n">
-        <v>46062</v>
+        <v>45981</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1260,21 +1260,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>326.95</v>
+        <v>351.355</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3292.61</v>
+        <v>3531.15</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>3.27</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>19.84</v>
+        <v>17.6</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1282,8 +1279,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="99" t="n">
-        <v>46057</v>
+      <c r="A9" s="100" t="n">
+        <v>45979</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1296,29 +1293,30 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>334.35</v>
+        <v>359.15</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>673.4299999999999</v>
+        <v>3609.5</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0.67</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>4.06</v>
+        <v>18</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="99" t="n">
-        <v>46057</v>
+      <c r="A10" s="100" t="n">
+        <v>45959</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1331,29 +1329,30 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>334.4</v>
+        <v>365.55</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1010.29</v>
+        <v>5510.7</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="0" t="n">
-        <v>6.09</v>
+        <v>27.45</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="99" t="n">
-        <v>46057</v>
+      <c r="A11" s="100" t="n">
+        <v>46062</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1366,29 +1365,33 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>334.4</v>
+        <v>326.95</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1683.82</v>
+        <v>3292.61</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.67</v>
+        <v>3.27</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10.15</v>
+        <v>19.84</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="99" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1401,13 +1404,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>332.6</v>
+        <v>334.35</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3349.54</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1415,15 +1418,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.33</v>
+        <v>0.67</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>20.21</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="99" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1436,13 +1439,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>340.65</v>
+        <v>334.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1372.22</v>
+        <v>1010.29</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1450,15 +1453,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>8.26</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="99" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1471,13 +1474,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>340.65</v>
+        <v>334.4</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2058.39</v>
+        <v>1683.82</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1485,15 +1488,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>12.43</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="99" t="n">
-        <v>46017</v>
+        <v>46049</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1509,10 +1512,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>377.5</v>
+        <v>332.6</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3801.8</v>
+        <v>3349.54</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1520,19 +1523,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.79</v>
+        <v>3.33</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>23.01</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="99" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1541,13 +1544,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>358.2</v>
+        <v>340.65</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3607.38</v>
+        <v>1372.22</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1555,15 +1558,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.56</v>
+        <v>1.36</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>21.82</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="99" t="n">
-        <v>46008</v>
+        <v>46034</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1576,13 +1579,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>326.5</v>
+        <v>340.65</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3288.12</v>
+        <v>2058.39</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1590,15 +1593,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.29</v>
+        <v>2.06</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.83</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="99" t="n">
-        <v>46007</v>
+        <v>46017</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1614,10 +1617,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>332.8</v>
+        <v>377.5</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3351.53</v>
+        <v>3801.8</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1625,19 +1628,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.32</v>
+        <v>3.79</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>20.21</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="99" t="n">
-        <v>46002</v>
+        <v>46015</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1649,10 +1652,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>328.3</v>
+        <v>358.2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3306.25</v>
+        <v>3607.38</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1660,15 +1663,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>19.96</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="99" t="n">
-        <v>45996</v>
+        <v>46008</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1684,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>332.2</v>
+        <v>326.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3345.52</v>
+        <v>3288.12</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1695,15 +1698,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>20.21</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="99" t="n">
-        <v>45982</v>
+        <v>46007</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1719,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>345.6</v>
+        <v>332.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3480.52</v>
+        <v>3351.53</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1730,19 +1733,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>21.06</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="99" t="n">
-        <v>45981</v>
+        <v>46002</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1751,13 +1754,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>351.25</v>
+        <v>328.3</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1061.24</v>
+        <v>3306.25</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1765,19 +1768,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.04</v>
+        <v>3.29</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>6.45</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="99" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1786,13 +1789,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>351.4</v>
+        <v>332.2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2477.27</v>
+        <v>3345.52</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1800,15 +1803,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2.44</v>
+        <v>3.31</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>15.03</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="99" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1821,13 +1824,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>359.15</v>
+        <v>345.6</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1085.1</v>
+        <v>3480.52</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1835,19 +1838,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.08</v>
+        <v>3.46</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>6.57</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="99" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1856,13 +1859,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>359.15</v>
+        <v>351.25</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>361.69</v>
+        <v>1061.24</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1870,19 +1873,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.36</v>
+        <v>1.04</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>2.18</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="99" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1891,13 +1894,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>359.15</v>
+        <v>351.4</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>361.69</v>
+        <v>2477.27</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1905,10 +1908,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.36</v>
+        <v>2.44</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>2.18</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="27">
@@ -1926,13 +1929,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>359.15</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1808.53</v>
+        <v>1085.1</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1940,15 +1943,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.81</v>
+        <v>1.08</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>10.97</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="99" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1961,13 +1964,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>365.6</v>
+        <v>359.15</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>7363.88</v>
+        <v>361.69</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1975,19 +1978,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>7.34</v>
+        <v>0.36</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>44.54</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="99" t="n">
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -1996,29 +1999,29 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>359.15</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>90</v>
+        <v>361.69</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="99" t="n">
-        <v>45959</v>
+        <v>45979</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2031,13 +2034,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>365.55</v>
+        <v>359.15</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3681.41</v>
+        <v>1808.53</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2045,15 +2048,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.64</v>
+        <v>1.81</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>22.27</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="99" t="n">
-        <v>45959</v>
+        <v>45978</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2066,13 +2069,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>365.55</v>
+        <v>365.6</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1840.72</v>
+        <v>7363.88</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2080,19 +2083,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.83</v>
+        <v>7.34</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>11.14</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="99" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2101,29 +2104,29 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>367.45</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3700.58</v>
+        <v>90</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025  Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 04-NOV-2025</t>
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3.68</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="99" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2139,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>369.25</v>
+        <v>365.55</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3718.71</v>
+        <v>3681.41</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2150,15 +2153,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>22.52</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="99" t="n">
-        <v>45953</v>
+        <v>45959</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2171,13 +2174,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>371</v>
+        <v>365.55</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3736.33</v>
+        <v>1840.72</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2185,19 +2188,19 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>22.63</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="99" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -2206,13 +2209,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>366.25</v>
+        <v>367.45</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>7376.93</v>
+        <v>3700.58</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2220,15 +2223,15 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>7.32</v>
+        <v>3.68</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>44.61</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="99" t="n">
-        <v>45897</v>
+        <v>45954</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
@@ -2244,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>340.2</v>
+        <v>369.25</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3426.12</v>
+        <v>3718.71</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2255,315 +2258,120 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>3.4</v>
+        <v>3.69</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>20.72</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B37" s="39" t="inlineStr">
+      <c r="A37" s="99" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C37" s="39" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F37" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G37" s="39" t="inlineStr">
+      <c r="D37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3736.33</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="40" t="n"/>
-      <c r="I37" s="40" t="n"/>
-      <c r="J37" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K37" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S37" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="47" t="n"/>
-      <c r="X37" s="47" t="n"/>
-      <c r="Y37" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="47" t="n"/>
-      <c r="AA37" s="47" t="n"/>
-      <c r="AB37" s="48" t="n"/>
-      <c r="AC37" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="50" t="n"/>
+      <c r="H37" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>22.63</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="n">
+      <c r="A38" s="99" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>366.25</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>7376.93</v>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="99" t="n">
         <v>45897</v>
       </c>
-      <c r="B38" s="39" t="inlineStr">
+      <c r="B39" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C38" s="39" t="inlineStr">
+      <c r="C39" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="40" t="n">
+      <c r="D39" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E38" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F38" s="41" t="n">
+      <c r="E39" s="0" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="F39" s="0" t="n">
         <v>3426.12</v>
       </c>
-      <c r="G38" s="39" t="inlineStr">
+      <c r="G39" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="40" t="n">
+      <c r="H39" s="0" t="n">
         <v>3.4</v>
       </c>
-      <c r="I38" s="40" t="n">
+      <c r="I39" s="0" t="n">
         <v>20.72</v>
       </c>
-      <c r="J38" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K38" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="47" t="n"/>
-      <c r="X38" s="47" t="n"/>
-      <c r="Y38" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="47" t="n"/>
-      <c r="AA38" s="47" t="n"/>
-      <c r="AB38" s="48" t="n"/>
-      <c r="AC38" s="49">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="50" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="38" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B39" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C39" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D39" s="40" t="n">
-        <v>15</v>
-      </c>
-      <c r="E39" s="41" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F39" s="41" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="G39" s="39" t="inlineStr">
-        <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H39" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K39" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="47" t="n"/>
-      <c r="X39" s="47" t="n"/>
-      <c r="Y39" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="47" t="n"/>
-      <c r="AA39" s="47" t="n"/>
-      <c r="AB39" s="48" t="n"/>
-      <c r="AC39" s="49">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="50" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45820</v>
+        <v>45950</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2572,99 +2380,96 @@
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="F40" s="41" t="n">
-        <v>22996.63</v>
+        <v>368.85</v>
+      </c>
+      <c r="F40" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="40" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="I40" s="40" t="n">
-        <v>137.74</v>
-      </c>
+      <c r="H40" s="40" t="n"/>
+      <c r="I40" s="40" t="n"/>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD40" s="50" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45820</v>
+        <v>45897</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -2673,17 +2478,17 @@
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>459.94</v>
+        <v>342.61</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>459.94</v>
+        <v>3426.12</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -2691,182 +2496,182 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>0.46</v>
+        <v>3.4</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>2.75</v>
+        <v>20.72</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD41" s="50" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D42" s="40" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>459.93</v>
+        <v>0.85</v>
       </c>
       <c r="F42" s="41" t="n">
-        <v>24836.35</v>
+        <v>12.75</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H42" s="40" t="n">
-        <v>24.97</v>
+        <v>0</v>
       </c>
       <c r="I42" s="40" t="n">
-        <v>148.78</v>
+        <v>0</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD42" s="50" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
@@ -2875,17 +2680,17 @@
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D43" s="40" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>402.64</v>
+        <v>459.93</v>
       </c>
       <c r="F43" s="41" t="n">
-        <v>6039.54</v>
+        <v>22996.63</v>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
@@ -2893,182 +2698,182 @@
         </is>
       </c>
       <c r="H43" s="40" t="n">
-        <v>6</v>
+        <v>23.13</v>
       </c>
       <c r="I43" s="40" t="n">
-        <v>36.54</v>
+        <v>137.74</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD43" s="50" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45749</v>
+        <v>45820</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D44" s="40" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>1</v>
+        <v>459.94</v>
       </c>
       <c r="F44" s="41" t="n">
-        <v>105</v>
+        <v>459.94</v>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H44" s="40" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I44" s="40" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD44" s="50" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45734</v>
+        <v>45820</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -3077,120 +2882,99 @@
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D45" s="40" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F45" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+        <v>459.93</v>
+      </c>
+      <c r="F45" s="41" t="n">
+        <v>24836.35</v>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H45" s="40" t="n"/>
+      <c r="H45" s="40" t="n">
+        <v>24.97</v>
+      </c>
       <c r="I45" s="40" t="n">
-        <v>2</v>
+        <v>148.78</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X45" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y45" s="54">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="55">
-        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
-        <v/>
-      </c>
-      <c r="AA45" s="55">
-        <f>((E13*D13)+Z13)</f>
-        <v/>
-      </c>
-      <c r="AB45" s="56">
-        <f>D13</f>
-        <v/>
-      </c>
-      <c r="AC45" s="49" t="n"/>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="47" t="n"/>
+      <c r="X45" s="47" t="n"/>
+      <c r="Y45" s="46">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="47" t="n"/>
+      <c r="AA45" s="47" t="n"/>
+      <c r="AB45" s="48" t="n"/>
+      <c r="AC45" s="49">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
       <c r="AD45" s="50" t="n"/>
-      <c r="AE45" s="57" t="n"/>
-      <c r="AF45" s="57" t="n"/>
-      <c r="AG45" s="57" t="n"/>
-      <c r="AH45" s="57" t="n"/>
-      <c r="AI45" s="57" t="n"/>
-      <c r="AJ45" s="57" t="n"/>
-      <c r="AK45" s="57" t="n"/>
-      <c r="AL45" s="57" t="n"/>
-      <c r="AM45" s="57" t="n"/>
-      <c r="AN45" s="57" t="n"/>
-      <c r="AO45" s="57" t="n"/>
-      <c r="AP45" s="57" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45734</v>
+        <v>45811</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
@@ -3203,120 +2987,99 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F46" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
-        <v/>
+        <v>402.64</v>
+      </c>
+      <c r="F46" s="41" t="n">
+        <v>6039.54</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H46" s="40" t="n"/>
+      <c r="H46" s="40" t="n">
+        <v>6</v>
+      </c>
       <c r="I46" s="40" t="n">
-        <v>7.99</v>
+        <v>36.54</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X46" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y46" s="54">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="55">
-        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
-        <v/>
-      </c>
-      <c r="AA46" s="55">
-        <f>((E14*D14)+Z14)</f>
-        <v/>
-      </c>
-      <c r="AB46" s="56">
-        <f>D14</f>
-        <v/>
-      </c>
-      <c r="AC46" s="49" t="n"/>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W46" s="47" t="n"/>
+      <c r="X46" s="47" t="n"/>
+      <c r="Y46" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z46" s="47" t="n"/>
+      <c r="AA46" s="47" t="n"/>
+      <c r="AB46" s="48" t="n"/>
+      <c r="AC46" s="49">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
       <c r="AD46" s="50" t="n"/>
-      <c r="AE46" s="57" t="n"/>
-      <c r="AF46" s="57" t="n"/>
-      <c r="AG46" s="57" t="n"/>
-      <c r="AH46" s="57" t="n"/>
-      <c r="AI46" s="57" t="n"/>
-      <c r="AJ46" s="57" t="n"/>
-      <c r="AK46" s="57" t="n"/>
-      <c r="AL46" s="57" t="n"/>
-      <c r="AM46" s="57" t="n"/>
-      <c r="AN46" s="57" t="n"/>
-      <c r="AO46" s="57" t="n"/>
-      <c r="AP46" s="57" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45722</v>
+        <v>45749</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
@@ -3325,117 +3088,95 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>297.1</v>
+        <v>1</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>2970.96</v>
+        <v>105</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X47" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y47" s="54">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="55">
-        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
-        <v/>
-      </c>
-      <c r="AA47" s="55">
-        <f>((E15*D15)+Z15)</f>
-        <v/>
-      </c>
-      <c r="AB47" s="56">
-        <f>D15</f>
-        <v/>
-      </c>
-      <c r="AC47" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="47" t="n"/>
+      <c r="X47" s="47" t="n"/>
+      <c r="Y47" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="47" t="n"/>
+      <c r="AA47" s="47" t="n"/>
+      <c r="AB47" s="48" t="n"/>
+      <c r="AC47" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD47" s="50" t="n"/>
-      <c r="AE47" s="57" t="n"/>
-      <c r="AF47" s="57" t="n"/>
-      <c r="AG47" s="57" t="n"/>
-      <c r="AH47" s="57" t="n"/>
-      <c r="AI47" s="57" t="n"/>
-      <c r="AJ47" s="57" t="n"/>
-      <c r="AK47" s="57" t="n"/>
-      <c r="AL47" s="57" t="n"/>
-      <c r="AM47" s="57" t="n"/>
-      <c r="AN47" s="57" t="n"/>
-      <c r="AO47" s="57" t="n"/>
-      <c r="AP47" s="57" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
@@ -3448,75 +3189,74 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>312.45</v>
-      </c>
-      <c r="F48" s="41" t="n">
-        <v>3124.48</v>
+        <v>283</v>
+      </c>
+      <c r="F48" s="51">
+        <f>E13*D13 + sum(H13:I13)</f>
+        <v/>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H48" s="40" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="H48" s="40" t="n"/>
       <c r="I48" s="40" t="n">
-        <v>18.89</v>
+        <v>2</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W48" s="52" t="n">
@@ -3526,19 +3266,19 @@
         <v>45820</v>
       </c>
       <c r="Y48" s="54">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z48" s="55">
-        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
+        <f>(1-Index!$F$2*2)*((W13*D13)-(E13*D13))</f>
         <v/>
       </c>
       <c r="AA48" s="55">
-        <f>((E16*D16)+Z16)</f>
+        <f>((E13*D13)+Z13)</f>
         <v/>
       </c>
       <c r="AB48" s="56">
-        <f>D16</f>
+        <f>D13</f>
         <v/>
       </c>
       <c r="AC48" s="49" t="n"/>
@@ -3558,7 +3298,7 @@
     </row>
     <row r="49">
       <c r="A49" s="38" t="n">
-        <v>45705</v>
+        <v>45734</v>
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
@@ -3571,75 +3311,74 @@
         </is>
       </c>
       <c r="D49" s="40" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>299.31</v>
-      </c>
-      <c r="F49" s="41" t="n">
-        <v>11972.42</v>
+        <v>283</v>
+      </c>
+      <c r="F49" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G49" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H49" s="40" t="n">
-        <v>11.88</v>
-      </c>
+      <c r="H49" s="40" t="n"/>
       <c r="I49" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W49" s="52" t="n">
@@ -3649,19 +3388,19 @@
         <v>45820</v>
       </c>
       <c r="Y49" s="54">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z49" s="55">
-        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
+        <f>(1-Index!$F$2*2)*((W14*D14)-(E14*D14))</f>
         <v/>
       </c>
       <c r="AA49" s="55">
-        <f>((E17*D17)+Z17)</f>
+        <f>((E14*D14)+Z14)</f>
         <v/>
       </c>
       <c r="AB49" s="56">
-        <f>D17</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="AC49" s="49" t="n"/>
@@ -3681,7 +3420,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -3694,13 +3433,13 @@
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>299.36</v>
+        <v>297.1</v>
       </c>
       <c r="F50" s="41" t="n">
-        <v>5987.21</v>
+        <v>2970.96</v>
       </c>
       <c r="G50" s="39" t="inlineStr">
         <is>
@@ -3708,61 +3447,61 @@
         </is>
       </c>
       <c r="H50" s="40" t="n">
-        <v>5.93</v>
+        <v>2.96</v>
       </c>
       <c r="I50" s="40" t="n">
-        <v>36.28</v>
+        <v>18</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W50" s="52" t="n">
@@ -3772,19 +3511,19 @@
         <v>45820</v>
       </c>
       <c r="Y50" s="54">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z50" s="55">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <f>(1-Index!$F$2*2)*((W15*D15)-(E15*D15))</f>
         <v/>
       </c>
       <c r="AA50" s="55">
-        <f>((E18*D18)+Z18)</f>
+        <f>((E15*D15)+Z15)</f>
         <v/>
       </c>
       <c r="AB50" s="56">
-        <f>D18</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="AC50" s="49" t="n"/>
@@ -3804,7 +3543,7 @@
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45699</v>
+        <v>45712</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
@@ -3820,10 +3559,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>333.8</v>
+        <v>312.45</v>
       </c>
       <c r="F51" s="41" t="n">
-        <v>3338</v>
+        <v>3124.48</v>
       </c>
       <c r="G51" s="39" t="inlineStr">
         <is>
@@ -3831,61 +3570,61 @@
         </is>
       </c>
       <c r="H51" s="40" t="n">
-        <v>3.31</v>
+        <v>3.09</v>
       </c>
       <c r="I51" s="40" t="n">
-        <v>20.19</v>
+        <v>18.89</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W51" s="52" t="n">
@@ -3895,19 +3634,19 @@
         <v>45820</v>
       </c>
       <c r="Y51" s="54">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z51" s="55">
-        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <f>(1-Index!$F$2*2)*((W16*D16)-(E16*D16))</f>
         <v/>
       </c>
       <c r="AA51" s="55">
-        <f>((E19*D19)+Z19)</f>
+        <f>((E16*D16)+Z16)</f>
         <v/>
       </c>
       <c r="AB51" s="56">
-        <f>D19</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="AC51" s="49" t="n"/>
@@ -3927,7 +3666,7 @@
     </row>
     <row r="52">
       <c r="A52" s="38" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B52" s="39" t="inlineStr">
         <is>
@@ -3940,13 +3679,13 @@
         </is>
       </c>
       <c r="D52" s="40" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E52" s="41" t="n">
-        <v>361.6</v>
+        <v>299.31</v>
       </c>
       <c r="F52" s="41" t="n">
-        <v>3615.99</v>
+        <v>11972.42</v>
       </c>
       <c r="G52" s="39" t="inlineStr">
         <is>
@@ -3954,61 +3693,61 @@
         </is>
       </c>
       <c r="H52" s="40" t="n">
-        <v>3.58</v>
+        <v>11.88</v>
       </c>
       <c r="I52" s="40" t="n">
-        <v>21.91</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W52" s="52" t="n">
@@ -4018,19 +3757,19 @@
         <v>45820</v>
       </c>
       <c r="Y52" s="54">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z52" s="55">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <f>(1-Index!$F$2*2)*((W17*D17)-(E17*D17))</f>
         <v/>
       </c>
       <c r="AA52" s="55">
-        <f>((E20*D20)+Z20)</f>
+        <f>((E17*D17)+Z17)</f>
         <v/>
       </c>
       <c r="AB52" s="56">
-        <f>D20</f>
+        <f>D17</f>
         <v/>
       </c>
       <c r="AC52" s="49" t="n"/>
@@ -4050,7 +3789,7 @@
     </row>
     <row r="53">
       <c r="A53" s="38" t="n">
-        <v>45282</v>
+        <v>45705</v>
       </c>
       <c r="B53" s="39" t="inlineStr">
         <is>
@@ -4059,17 +3798,17 @@
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D53" s="40" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E53" s="41" t="n">
-        <v>293.2</v>
+        <v>299.36</v>
       </c>
       <c r="F53" s="41" t="n">
-        <v>13193.82</v>
+        <v>5987.21</v>
       </c>
       <c r="G53" s="39" t="inlineStr">
         <is>
@@ -4077,81 +3816,103 @@
         </is>
       </c>
       <c r="H53" s="40" t="n">
-        <v>13.31</v>
+        <v>5.93</v>
       </c>
       <c r="I53" s="40" t="n">
-        <v>79.12</v>
+        <v>36.28</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="58" t="n"/>
-      <c r="X53" s="58" t="n"/>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X53" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y53" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="58" t="n"/>
-      <c r="AA53" s="58" t="n"/>
-      <c r="AB53" s="59" t="n"/>
-      <c r="AC53" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="55">
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <v/>
+      </c>
+      <c r="AA53" s="55">
+        <f>((E18*D18)+Z18)</f>
+        <v/>
+      </c>
+      <c r="AB53" s="56">
+        <f>D18</f>
+        <v/>
+      </c>
+      <c r="AC53" s="49" t="n"/>
       <c r="AD53" s="50" t="n"/>
+      <c r="AE53" s="57" t="n"/>
+      <c r="AF53" s="57" t="n"/>
+      <c r="AG53" s="57" t="n"/>
+      <c r="AH53" s="57" t="n"/>
+      <c r="AI53" s="57" t="n"/>
+      <c r="AJ53" s="57" t="n"/>
+      <c r="AK53" s="57" t="n"/>
+      <c r="AL53" s="57" t="n"/>
+      <c r="AM53" s="57" t="n"/>
+      <c r="AN53" s="57" t="n"/>
+      <c r="AO53" s="57" t="n"/>
+      <c r="AP53" s="57" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="38" t="n">
-        <v>45258</v>
+        <v>45699</v>
       </c>
       <c r="B54" s="39" t="inlineStr">
         <is>
@@ -4160,17 +3921,17 @@
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D54" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E54" s="41" t="n">
-        <v>287.99</v>
+        <v>333.8</v>
       </c>
       <c r="F54" s="41" t="n">
-        <v>28798.67</v>
+        <v>3338</v>
       </c>
       <c r="G54" s="39" t="inlineStr">
         <is>
@@ -4178,85 +3939,107 @@
         </is>
       </c>
       <c r="H54" s="40" t="n">
-        <v>29.05</v>
+        <v>3.31</v>
       </c>
       <c r="I54" s="40" t="n">
-        <v>172.28</v>
+        <v>20.19</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W54" s="58" t="n"/>
-      <c r="X54" s="58" t="n"/>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X54" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y54" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="58" t="n"/>
-      <c r="AA54" s="58" t="n"/>
-      <c r="AB54" s="59" t="n"/>
-      <c r="AC54" s="49">
-        <f>if(B22="DIV", F22,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="55">
+        <f>(1-Index!$F$2*2)*((W19*D19)-(E19*D19))</f>
+        <v/>
+      </c>
+      <c r="AA54" s="55">
+        <f>((E19*D19)+Z19)</f>
+        <v/>
+      </c>
+      <c r="AB54" s="56">
+        <f>D19</f>
+        <v/>
+      </c>
+      <c r="AC54" s="49" t="n"/>
       <c r="AD54" s="50" t="n"/>
+      <c r="AE54" s="57" t="n"/>
+      <c r="AF54" s="57" t="n"/>
+      <c r="AG54" s="57" t="n"/>
+      <c r="AH54" s="57" t="n"/>
+      <c r="AI54" s="57" t="n"/>
+      <c r="AJ54" s="57" t="n"/>
+      <c r="AK54" s="57" t="n"/>
+      <c r="AL54" s="57" t="n"/>
+      <c r="AM54" s="57" t="n"/>
+      <c r="AN54" s="57" t="n"/>
+      <c r="AO54" s="57" t="n"/>
+      <c r="AP54" s="57" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="38" t="n">
-        <v>45233</v>
+        <v>45694</v>
       </c>
       <c r="B55" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C55" s="39" t="inlineStr">
@@ -4265,95 +4048,117 @@
         </is>
       </c>
       <c r="D55" s="40" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E55" s="41" t="n">
-        <v>1</v>
+        <v>361.6</v>
       </c>
       <c r="F55" s="41" t="n">
-        <v>145</v>
+        <v>3615.99</v>
       </c>
       <c r="G55" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H55" s="40" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="I55" s="40" t="n">
-        <v>0</v>
+        <v>21.91</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W55" s="58" t="n"/>
-      <c r="X55" s="58" t="n"/>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X55" s="53" t="n">
+        <v>45820</v>
+      </c>
       <c r="Y55" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="58" t="n"/>
-      <c r="AA55" s="58" t="n"/>
-      <c r="AB55" s="59" t="n"/>
-      <c r="AC55" s="49">
-        <f>if(B23="DIV", F23,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="55">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA55" s="55">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB55" s="56">
+        <f>D20</f>
+        <v/>
+      </c>
+      <c r="AC55" s="49" t="n"/>
       <c r="AD55" s="50" t="n"/>
+      <c r="AE55" s="57" t="n"/>
+      <c r="AF55" s="57" t="n"/>
+      <c r="AG55" s="57" t="n"/>
+      <c r="AH55" s="57" t="n"/>
+      <c r="AI55" s="57" t="n"/>
+      <c r="AJ55" s="57" t="n"/>
+      <c r="AK55" s="57" t="n"/>
+      <c r="AL55" s="57" t="n"/>
+      <c r="AM55" s="57" t="n"/>
+      <c r="AN55" s="57" t="n"/>
+      <c r="AO55" s="57" t="n"/>
+      <c r="AP55" s="57" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="38" t="n">
-        <v>45225</v>
+        <v>45282</v>
       </c>
       <c r="B56" s="39" t="inlineStr">
         <is>
@@ -4362,17 +4167,17 @@
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D56" s="40" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E56" s="41" t="n">
-        <v>207.12</v>
+        <v>293.2</v>
       </c>
       <c r="F56" s="41" t="n">
-        <v>2071.16</v>
+        <v>13193.82</v>
       </c>
       <c r="G56" s="39" t="inlineStr">
         <is>
@@ -4380,67 +4185,81 @@
         </is>
       </c>
       <c r="H56" s="40" t="n">
-        <v>2.08</v>
+        <v>13.31</v>
       </c>
       <c r="I56" s="40" t="n">
-        <v>12.58</v>
+        <v>79.12</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K56" s="58" t="n"/>
-      <c r="L56" s="58" t="n"/>
-      <c r="M56" s="60" t="n"/>
-      <c r="N56" s="61" t="n"/>
-      <c r="O56" s="60" t="n"/>
-      <c r="P56" s="58" t="n"/>
-      <c r="Q56" s="60" t="n"/>
-      <c r="R56" s="60" t="n"/>
-      <c r="S56" s="60" t="n"/>
-      <c r="T56" s="60" t="n"/>
-      <c r="U56" s="60" t="n"/>
-      <c r="V56" s="60" t="n"/>
-      <c r="W56" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X56" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K56" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="45">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="43">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="44">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="46">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="47">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="58" t="n"/>
+      <c r="X56" s="58" t="n"/>
       <c r="Y56" s="54">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="55">
-        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
-        <v/>
-      </c>
-      <c r="AA56" s="55">
-        <f>((E24*D24)+Z24)</f>
-        <v/>
-      </c>
-      <c r="AB56" s="56">
-        <f>D24</f>
-        <v/>
-      </c>
-      <c r="AC56" s="49" t="n"/>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="58" t="n"/>
+      <c r="AA56" s="58" t="n"/>
+      <c r="AB56" s="59" t="n"/>
+      <c r="AC56" s="49">
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
       <c r="AD56" s="50" t="n"/>
-      <c r="AE56" s="57" t="n"/>
-      <c r="AF56" s="57" t="n"/>
-      <c r="AG56" s="57" t="n"/>
-      <c r="AH56" s="57" t="n"/>
-      <c r="AI56" s="57" t="n"/>
-      <c r="AJ56" s="57" t="n"/>
-      <c r="AK56" s="57" t="n"/>
-      <c r="AL56" s="57" t="n"/>
-      <c r="AM56" s="57" t="n"/>
-      <c r="AN56" s="57" t="n"/>
-      <c r="AO56" s="57" t="n"/>
-      <c r="AP56" s="57" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="38" t="n">
-        <v>45204</v>
+        <v>45258</v>
       </c>
       <c r="B57" s="39" t="inlineStr">
         <is>
@@ -4449,17 +4268,17 @@
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D57" s="40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E57" s="41" t="n">
-        <v>215.42</v>
+        <v>287.99</v>
       </c>
       <c r="F57" s="41" t="n">
-        <v>2154.2</v>
+        <v>28798.67</v>
       </c>
       <c r="G57" s="39" t="inlineStr">
         <is>
@@ -4467,71 +4286,85 @@
         </is>
       </c>
       <c r="H57" s="40" t="n">
-        <v>2.11</v>
+        <v>29.05</v>
       </c>
       <c r="I57" s="40" t="n">
-        <v>13.09</v>
+        <v>172.28</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K57" s="58" t="n"/>
-      <c r="L57" s="58" t="n"/>
-      <c r="M57" s="60" t="n"/>
-      <c r="N57" s="61" t="n"/>
-      <c r="O57" s="60" t="n"/>
-      <c r="P57" s="58" t="n"/>
-      <c r="Q57" s="60" t="n"/>
-      <c r="R57" s="60" t="n"/>
-      <c r="S57" s="60" t="n"/>
-      <c r="T57" s="60" t="n"/>
-      <c r="U57" s="60" t="n"/>
-      <c r="V57" s="60" t="n"/>
-      <c r="W57" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X57" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K57" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="58" t="n"/>
+      <c r="X57" s="58" t="n"/>
       <c r="Y57" s="54">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="55">
-        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
-        <v/>
-      </c>
-      <c r="AA57" s="55">
-        <f>((E25*D25)+Z25)</f>
-        <v/>
-      </c>
-      <c r="AB57" s="56">
-        <f>D25</f>
-        <v/>
-      </c>
-      <c r="AC57" s="49" t="n"/>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="58" t="n"/>
+      <c r="AA57" s="58" t="n"/>
+      <c r="AB57" s="59" t="n"/>
+      <c r="AC57" s="49">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
       <c r="AD57" s="50" t="n"/>
-      <c r="AE57" s="57" t="n"/>
-      <c r="AF57" s="57" t="n"/>
-      <c r="AG57" s="57" t="n"/>
-      <c r="AH57" s="57" t="n"/>
-      <c r="AI57" s="57" t="n"/>
-      <c r="AJ57" s="57" t="n"/>
-      <c r="AK57" s="57" t="n"/>
-      <c r="AL57" s="57" t="n"/>
-      <c r="AM57" s="57" t="n"/>
-      <c r="AN57" s="57" t="n"/>
-      <c r="AO57" s="57" t="n"/>
-      <c r="AP57" s="57" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="38" t="n">
-        <v>45191</v>
+        <v>45233</v>
       </c>
       <c r="B58" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C58" s="39" t="inlineStr">
@@ -4540,81 +4373,95 @@
         </is>
       </c>
       <c r="D58" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E58" s="41" t="n">
-        <v>215.62</v>
+        <v>1</v>
       </c>
       <c r="F58" s="41" t="n">
-        <v>2156.25</v>
+        <v>145</v>
       </c>
       <c r="G58" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H58" s="40" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="I58" s="40" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K58" s="58" t="n"/>
-      <c r="L58" s="58" t="n"/>
-      <c r="M58" s="60" t="n"/>
-      <c r="N58" s="61" t="n"/>
-      <c r="O58" s="60" t="n"/>
-      <c r="P58" s="58" t="n"/>
-      <c r="Q58" s="60" t="n"/>
-      <c r="R58" s="60" t="n"/>
-      <c r="S58" s="60" t="n"/>
-      <c r="T58" s="60" t="n"/>
-      <c r="U58" s="60" t="n"/>
-      <c r="V58" s="60" t="n"/>
-      <c r="W58" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X58" s="53" t="n">
-        <v>45282</v>
-      </c>
+      <c r="K58" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="58" t="n"/>
+      <c r="X58" s="58" t="n"/>
       <c r="Y58" s="54">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="55">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="55">
-        <f>((E26*D26)+Z26)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="56">
-        <f>D26</f>
-        <v/>
-      </c>
-      <c r="AC58" s="49" t="n"/>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="58" t="n"/>
+      <c r="AA58" s="58" t="n"/>
+      <c r="AB58" s="59" t="n"/>
+      <c r="AC58" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD58" s="50" t="n"/>
-      <c r="AE58" s="57" t="n"/>
-      <c r="AF58" s="57" t="n"/>
-      <c r="AG58" s="57" t="n"/>
-      <c r="AH58" s="57" t="n"/>
-      <c r="AI58" s="57" t="n"/>
-      <c r="AJ58" s="57" t="n"/>
-      <c r="AK58" s="57" t="n"/>
-      <c r="AL58" s="57" t="n"/>
-      <c r="AM58" s="57" t="n"/>
-      <c r="AN58" s="57" t="n"/>
-      <c r="AO58" s="57" t="n"/>
-      <c r="AP58" s="57" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="38" t="n">
-        <v>45184</v>
+        <v>45225</v>
       </c>
       <c r="B59" s="39" t="inlineStr">
         <is>
@@ -4630,10 +4477,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="41" t="n">
-        <v>223.93</v>
+        <v>207.12</v>
       </c>
       <c r="F59" s="41" t="n">
-        <v>2239.3</v>
+        <v>2071.16</v>
       </c>
       <c r="G59" s="39" t="inlineStr">
         <is>
@@ -4641,10 +4488,10 @@
         </is>
       </c>
       <c r="H59" s="40" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="I59" s="40" t="n">
-        <v>13.56</v>
+        <v>12.58</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4669,19 +4516,19 @@
         <v>45282</v>
       </c>
       <c r="Y59" s="54">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z59" s="55">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W24*D24)-(E24*D24))</f>
         <v/>
       </c>
       <c r="AA59" s="55">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E24*D24)+Z24)</f>
         <v/>
       </c>
       <c r="AB59" s="56">
-        <f>D27</f>
+        <f>D24</f>
         <v/>
       </c>
       <c r="AC59" s="49" t="n"/>
@@ -4701,7 +4548,7 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="n">
-        <v>45181</v>
+        <v>45204</v>
       </c>
       <c r="B60" s="39" t="inlineStr">
         <is>
@@ -4714,13 +4561,13 @@
         </is>
       </c>
       <c r="D60" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E60" s="41" t="n">
-        <v>231.33</v>
+        <v>215.42</v>
       </c>
       <c r="F60" s="41" t="n">
-        <v>1156.64</v>
+        <v>2154.2</v>
       </c>
       <c r="G60" s="39" t="inlineStr">
         <is>
@@ -4728,10 +4575,10 @@
         </is>
       </c>
       <c r="H60" s="40" t="n">
-        <v>1.15</v>
+        <v>2.11</v>
       </c>
       <c r="I60" s="40" t="n">
-        <v>6.99</v>
+        <v>13.09</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4756,19 +4603,19 @@
         <v>45282</v>
       </c>
       <c r="Y60" s="54">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z60" s="55">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W25*D25)-(E25*D25))</f>
         <v/>
       </c>
       <c r="AA60" s="55">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E25*D25)+Z25)</f>
         <v/>
       </c>
       <c r="AB60" s="56">
-        <f>D28</f>
+        <f>D25</f>
         <v/>
       </c>
       <c r="AC60" s="49" t="n"/>
@@ -4788,7 +4635,7 @@
     </row>
     <row r="61">
       <c r="A61" s="38" t="n">
-        <v>45162</v>
+        <v>45191</v>
       </c>
       <c r="B61" s="39" t="inlineStr">
         <is>
@@ -4801,13 +4648,13 @@
         </is>
       </c>
       <c r="D61" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E61" s="41" t="n">
-        <v>171.76</v>
+        <v>215.62</v>
       </c>
       <c r="F61" s="41" t="n">
-        <v>6870.22</v>
+        <v>2156.25</v>
       </c>
       <c r="G61" s="39" t="inlineStr">
         <is>
@@ -4815,10 +4662,10 @@
         </is>
       </c>
       <c r="H61" s="40" t="n">
-        <v>6.76</v>
+        <v>2.18</v>
       </c>
       <c r="I61" s="40" t="n">
-        <v>41.46</v>
+        <v>13.07</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4837,25 +4684,25 @@
       <c r="U61" s="60" t="n"/>
       <c r="V61" s="60" t="n"/>
       <c r="W61" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X61" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y61" s="54">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z61" s="55">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA61" s="55">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB61" s="56">
-        <f>D29</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC61" s="49" t="n"/>
@@ -4875,11 +4722,11 @@
     </row>
     <row r="62">
       <c r="A62" s="38" t="n">
-        <v>45162</v>
+        <v>45184</v>
       </c>
       <c r="B62" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C62" s="39" t="inlineStr">
@@ -4888,86 +4735,81 @@
         </is>
       </c>
       <c r="D62" s="40" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E62" s="41" t="n">
-        <v>1.05</v>
+        <v>223.93</v>
       </c>
       <c r="F62" s="41" t="n">
-        <v>63</v>
+        <v>2239.3</v>
       </c>
       <c r="G62" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H62" s="40" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I62" s="40" t="n">
-        <v>0</v>
+        <v>13.56</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K62" s="47" t="n"/>
-      <c r="L62" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N62" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O62" s="62" t="n"/>
-      <c r="P62" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S62" s="62" t="n"/>
-      <c r="T62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V62" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="58" t="n"/>
-      <c r="X62" s="58" t="n"/>
+      <c r="K62" s="58" t="n"/>
+      <c r="L62" s="58" t="n"/>
+      <c r="M62" s="60" t="n"/>
+      <c r="N62" s="61" t="n"/>
+      <c r="O62" s="60" t="n"/>
+      <c r="P62" s="58" t="n"/>
+      <c r="Q62" s="60" t="n"/>
+      <c r="R62" s="60" t="n"/>
+      <c r="S62" s="60" t="n"/>
+      <c r="T62" s="60" t="n"/>
+      <c r="U62" s="60" t="n"/>
+      <c r="V62" s="60" t="n"/>
+      <c r="W62" s="52" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="X62" s="53" t="n">
+        <v>45282</v>
+      </c>
       <c r="Y62" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="58" t="n"/>
-      <c r="AA62" s="58" t="n"/>
-      <c r="AB62" s="59" t="n"/>
-      <c r="AC62" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="55">
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <v/>
+      </c>
+      <c r="AA62" s="55">
+        <f>((E27*D27)+Z27)</f>
+        <v/>
+      </c>
+      <c r="AB62" s="56">
+        <f>D27</f>
+        <v/>
+      </c>
+      <c r="AC62" s="49" t="n"/>
       <c r="AD62" s="50" t="n"/>
+      <c r="AE62" s="57" t="n"/>
+      <c r="AF62" s="57" t="n"/>
+      <c r="AG62" s="57" t="n"/>
+      <c r="AH62" s="57" t="n"/>
+      <c r="AI62" s="57" t="n"/>
+      <c r="AJ62" s="57" t="n"/>
+      <c r="AK62" s="57" t="n"/>
+      <c r="AL62" s="57" t="n"/>
+      <c r="AM62" s="57" t="n"/>
+      <c r="AN62" s="57" t="n"/>
+      <c r="AO62" s="57" t="n"/>
+      <c r="AP62" s="57" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="38" t="n">
-        <v>45140</v>
+        <v>45181</v>
       </c>
       <c r="B63" s="39" t="inlineStr">
         <is>
@@ -4980,13 +4822,13 @@
         </is>
       </c>
       <c r="D63" s="40" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E63" s="41" t="n">
-        <v>177.1</v>
+        <v>231.33</v>
       </c>
       <c r="F63" s="41" t="n">
-        <v>10625.89</v>
+        <v>1156.64</v>
       </c>
       <c r="G63" s="39" t="inlineStr">
         <is>
@@ -4994,10 +4836,10 @@
         </is>
       </c>
       <c r="H63" s="40" t="n">
-        <v>10.58</v>
+        <v>1.15</v>
       </c>
       <c r="I63" s="40" t="n">
-        <v>64.31</v>
+        <v>6.99</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -5016,25 +4858,25 @@
       <c r="U63" s="60" t="n"/>
       <c r="V63" s="60" t="n"/>
       <c r="W63" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X63" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y63" s="54">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z63" s="55">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA63" s="55">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB63" s="56">
-        <f>D31</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC63" s="49" t="n"/>
@@ -5053,52 +4895,270 @@
       <c r="AP63" s="57" t="n"/>
     </row>
     <row r="64">
-      <c r="E64" s="64" t="n"/>
-      <c r="F64" s="64" t="n"/>
-      <c r="G64" s="65" t="n"/>
-      <c r="J64" s="64" t="n"/>
-      <c r="K64" s="64" t="n"/>
-      <c r="L64" s="64" t="n"/>
-      <c r="M64" s="67" t="n"/>
-      <c r="W64" s="64" t="n"/>
-      <c r="X64" s="64" t="n"/>
-      <c r="Y64" s="64" t="n"/>
-      <c r="Z64" s="64" t="n"/>
-      <c r="AA64" s="64" t="n"/>
-      <c r="AB64" s="64" t="n"/>
-      <c r="AC64" s="64" t="n"/>
+      <c r="A64" s="38" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B64" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C64" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" s="40" t="n">
+        <v>40</v>
+      </c>
+      <c r="E64" s="41" t="n">
+        <v>171.76</v>
+      </c>
+      <c r="F64" s="41" t="n">
+        <v>6870.22</v>
+      </c>
+      <c r="G64" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" s="40" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="I64" s="40" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="J64" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K64" s="58" t="n"/>
+      <c r="L64" s="58" t="n"/>
+      <c r="M64" s="60" t="n"/>
+      <c r="N64" s="61" t="n"/>
+      <c r="O64" s="60" t="n"/>
+      <c r="P64" s="58" t="n"/>
+      <c r="Q64" s="60" t="n"/>
+      <c r="R64" s="60" t="n"/>
+      <c r="S64" s="60" t="n"/>
+      <c r="T64" s="60" t="n"/>
+      <c r="U64" s="60" t="n"/>
+      <c r="V64" s="60" t="n"/>
+      <c r="W64" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X64" s="53" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Y64" s="54">
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="55">
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <v/>
+      </c>
+      <c r="AA64" s="55">
+        <f>((E29*D29)+Z29)</f>
+        <v/>
+      </c>
+      <c r="AB64" s="56">
+        <f>D29</f>
+        <v/>
+      </c>
+      <c r="AC64" s="49" t="n"/>
+      <c r="AD64" s="50" t="n"/>
+      <c r="AE64" s="57" t="n"/>
+      <c r="AF64" s="57" t="n"/>
+      <c r="AG64" s="57" t="n"/>
+      <c r="AH64" s="57" t="n"/>
+      <c r="AI64" s="57" t="n"/>
+      <c r="AJ64" s="57" t="n"/>
+      <c r="AK64" s="57" t="n"/>
+      <c r="AL64" s="57" t="n"/>
+      <c r="AM64" s="57" t="n"/>
+      <c r="AN64" s="57" t="n"/>
+      <c r="AO64" s="57" t="n"/>
+      <c r="AP64" s="57" t="n"/>
     </row>
     <row r="65">
-      <c r="E65" s="64" t="n"/>
-      <c r="F65" s="64" t="n"/>
-      <c r="G65" s="65" t="n"/>
-      <c r="J65" s="64" t="n"/>
-      <c r="K65" s="64" t="n"/>
-      <c r="L65" s="64" t="n"/>
-      <c r="M65" s="67" t="n"/>
-      <c r="W65" s="64" t="n"/>
-      <c r="X65" s="64" t="n"/>
-      <c r="Y65" s="64" t="n"/>
-      <c r="Z65" s="64" t="n"/>
-      <c r="AA65" s="64" t="n"/>
-      <c r="AB65" s="64" t="n"/>
-      <c r="AC65" s="64" t="n"/>
+      <c r="A65" s="38" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B65" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C65" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D65" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E65" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F65" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G65" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H65" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K65" s="47" t="n"/>
+      <c r="L65" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N65" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O65" s="62" t="n"/>
+      <c r="P65" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q65" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R65" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S65" s="62" t="n"/>
+      <c r="T65" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U65" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V65" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="58" t="n"/>
+      <c r="X65" s="58" t="n"/>
+      <c r="Y65" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="58" t="n"/>
+      <c r="AA65" s="58" t="n"/>
+      <c r="AB65" s="59" t="n"/>
+      <c r="AC65" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD65" s="50" t="n"/>
     </row>
     <row r="66">
-      <c r="E66" s="64" t="n"/>
-      <c r="F66" s="64" t="n"/>
-      <c r="G66" s="65" t="n"/>
-      <c r="J66" s="64" t="n"/>
-      <c r="K66" s="64" t="n"/>
-      <c r="L66" s="64" t="n"/>
-      <c r="M66" s="67" t="n"/>
-      <c r="W66" s="64" t="n"/>
-      <c r="X66" s="64" t="n"/>
-      <c r="Y66" s="64" t="n"/>
-      <c r="Z66" s="64" t="n"/>
-      <c r="AA66" s="64" t="n"/>
-      <c r="AB66" s="64" t="n"/>
-      <c r="AC66" s="64" t="n"/>
+      <c r="A66" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B66" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C66" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E66" s="41" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F66" s="41" t="n">
+        <v>10625.89</v>
+      </c>
+      <c r="G66" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H66" s="40" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I66" s="40" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="J66" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K66" s="58" t="n"/>
+      <c r="L66" s="58" t="n"/>
+      <c r="M66" s="60" t="n"/>
+      <c r="N66" s="61" t="n"/>
+      <c r="O66" s="60" t="n"/>
+      <c r="P66" s="58" t="n"/>
+      <c r="Q66" s="60" t="n"/>
+      <c r="R66" s="60" t="n"/>
+      <c r="S66" s="60" t="n"/>
+      <c r="T66" s="60" t="n"/>
+      <c r="U66" s="60" t="n"/>
+      <c r="V66" s="60" t="n"/>
+      <c r="W66" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X66" s="53" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Y66" s="54">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" s="55">
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <v/>
+      </c>
+      <c r="AA66" s="55">
+        <f>((E31*D31)+Z31)</f>
+        <v/>
+      </c>
+      <c r="AB66" s="56">
+        <f>D31</f>
+        <v/>
+      </c>
+      <c r="AC66" s="49" t="n"/>
+      <c r="AD66" s="50" t="n"/>
+      <c r="AE66" s="57" t="n"/>
+      <c r="AF66" s="57" t="n"/>
+      <c r="AG66" s="57" t="n"/>
+      <c r="AH66" s="57" t="n"/>
+      <c r="AI66" s="57" t="n"/>
+      <c r="AJ66" s="57" t="n"/>
+      <c r="AK66" s="57" t="n"/>
+      <c r="AL66" s="57" t="n"/>
+      <c r="AM66" s="57" t="n"/>
+      <c r="AN66" s="57" t="n"/>
+      <c r="AO66" s="57" t="n"/>
+      <c r="AP66" s="57" t="n"/>
     </row>
     <row r="67">
       <c r="E67" s="64" t="n"/>
@@ -20035,6 +20095,7 @@
       <c r="J1000" s="64" t="n"/>
       <c r="K1000" s="64" t="n"/>
       <c r="L1000" s="64" t="n"/>
+      <c r="M1000" s="67" t="n"/>
       <c r="W1000" s="64" t="n"/>
       <c r="X1000" s="64" t="n"/>
       <c r="Y1000" s="64" t="n"/>
@@ -20050,6 +20111,7 @@
       <c r="J1001" s="64" t="n"/>
       <c r="K1001" s="64" t="n"/>
       <c r="L1001" s="64" t="n"/>
+      <c r="M1001" s="67" t="n"/>
       <c r="W1001" s="64" t="n"/>
       <c r="X1001" s="64" t="n"/>
       <c r="Y1001" s="64" t="n"/>
@@ -20065,6 +20127,7 @@
       <c r="J1002" s="64" t="n"/>
       <c r="K1002" s="64" t="n"/>
       <c r="L1002" s="64" t="n"/>
+      <c r="M1002" s="67" t="n"/>
       <c r="W1002" s="64" t="n"/>
       <c r="X1002" s="64" t="n"/>
       <c r="Y1002" s="64" t="n"/>
@@ -20282,6 +20345,51 @@
       <c r="AA1016" s="64" t="n"/>
       <c r="AB1016" s="64" t="n"/>
       <c r="AC1016" s="64" t="n"/>
+    </row>
+    <row r="1017">
+      <c r="E1017" s="64" t="n"/>
+      <c r="F1017" s="64" t="n"/>
+      <c r="G1017" s="65" t="n"/>
+      <c r="J1017" s="64" t="n"/>
+      <c r="K1017" s="64" t="n"/>
+      <c r="L1017" s="64" t="n"/>
+      <c r="W1017" s="64" t="n"/>
+      <c r="X1017" s="64" t="n"/>
+      <c r="Y1017" s="64" t="n"/>
+      <c r="Z1017" s="64" t="n"/>
+      <c r="AA1017" s="64" t="n"/>
+      <c r="AB1017" s="64" t="n"/>
+      <c r="AC1017" s="64" t="n"/>
+    </row>
+    <row r="1018">
+      <c r="E1018" s="64" t="n"/>
+      <c r="F1018" s="64" t="n"/>
+      <c r="G1018" s="65" t="n"/>
+      <c r="J1018" s="64" t="n"/>
+      <c r="K1018" s="64" t="n"/>
+      <c r="L1018" s="64" t="n"/>
+      <c r="W1018" s="64" t="n"/>
+      <c r="X1018" s="64" t="n"/>
+      <c r="Y1018" s="64" t="n"/>
+      <c r="Z1018" s="64" t="n"/>
+      <c r="AA1018" s="64" t="n"/>
+      <c r="AB1018" s="64" t="n"/>
+      <c r="AC1018" s="64" t="n"/>
+    </row>
+    <row r="1019">
+      <c r="E1019" s="64" t="n"/>
+      <c r="F1019" s="64" t="n"/>
+      <c r="G1019" s="65" t="n"/>
+      <c r="J1019" s="64" t="n"/>
+      <c r="K1019" s="64" t="n"/>
+      <c r="L1019" s="64" t="n"/>
+      <c r="W1019" s="64" t="n"/>
+      <c r="X1019" s="64" t="n"/>
+      <c r="Y1019" s="64" t="n"/>
+      <c r="Z1019" s="64" t="n"/>
+      <c r="AA1019" s="64" t="n"/>
+      <c r="AB1019" s="64" t="n"/>
+      <c r="AC1019" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>

--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1000"/>
+  <dimension ref="A1:AP1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="98" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>323.25</v>
+        <v>326.95</v>
       </c>
       <c r="F5" t="n">
-        <v>3248.7</v>
+        <v>3285.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" s="98" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1185,18 +1185,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>334.39</v>
+        <v>323.25</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3360.6</v>
+        <v>3248.7</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="7">
       <c r="A7" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1221,18 +1221,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>332.6</v>
+        <v>334.39</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3342.6</v>
+        <v>3360.6</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1257,18 +1257,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>340.65</v>
+        <v>332.6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3423.5</v>
+        <v>3342.6</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1293,18 +1293,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>377.5</v>
+        <v>340.65</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3793.9</v>
+        <v>3423.5</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>18.9</v>
+        <v>17</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1313,11 +1313,11 @@
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1329,18 +1329,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>358.2</v>
+        <v>377.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3599.9</v>
+        <v>3793.9</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>17.9</v>
+        <v>18.9</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1349,11 +1349,11 @@
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1365,18 +1365,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>326.5</v>
+        <v>358.2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3281.3</v>
+        <v>3599.9</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16.3</v>
+        <v>17.9</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1401,18 +1401,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>332.8</v>
+        <v>326.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3344.6</v>
+        <v>3281.3</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1437,18 +1437,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>328.3</v>
+        <v>332.8</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3299.4</v>
+        <v>3344.6</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1473,18 +1473,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>332.2</v>
+        <v>328.3</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3338.6</v>
+        <v>3299.4</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1509,18 +1509,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>345.6</v>
+        <v>332.2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3473.3</v>
+        <v>3338.6</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>17.3</v>
+        <v>16.6</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1529,11 +1529,11 @@
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1545,18 +1545,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>351.355</v>
+        <v>345.6</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3531.15</v>
+        <v>3473.3</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1565,11 +1565,11 @@
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1581,18 +1581,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>359.15</v>
+        <v>351.355</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3609.5</v>
+        <v>3531.15</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1614,21 +1614,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>365.6</v>
+        <v>359.15</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>7348.6</v>
+        <v>3609.5</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>36.6</v>
+        <v>18</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45959</v>
+        <v>45978</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1650,21 +1650,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>365.55</v>
+        <v>365.6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>5510.7</v>
+        <v>7348.6</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>27.45</v>
+        <v>36.6</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1686,128 +1686,66 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>365.55</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5510.7</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="J20" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="98" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>367.45</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>3692.9</v>
       </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="G21" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>18.4</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J21" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B21" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C21" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D21" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F21" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G21" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H21" s="40" t="n"/>
-      <c r="I21" s="40" t="n"/>
-      <c r="J21" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K21" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N21" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O21" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R21" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S21" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T21" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U21" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V21" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W21" s="47" t="n"/>
-      <c r="X21" s="47" t="n"/>
-      <c r="Y21" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="47" t="n"/>
-      <c r="AA21" s="47" t="n"/>
-      <c r="AB21" s="48" t="n"/>
-      <c r="AC21" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD21" s="50" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="38" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B22" s="39" t="inlineStr">
         <is>
@@ -1820,99 +1758,96 @@
         </is>
       </c>
       <c r="D22" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F22" s="41" t="n">
-        <v>3426.12</v>
+        <v>368.85</v>
+      </c>
+      <c r="F22" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G22" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H22" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I22" s="40" t="n">
-        <v>20.72</v>
-      </c>
+      <c r="H22" s="40" t="n"/>
+      <c r="I22" s="40" t="n"/>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N22" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R22" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S22" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T22" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U22" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V22" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W22" s="47" t="n"/>
       <c r="X22" s="47" t="n"/>
       <c r="Y22" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z22" s="47" t="n"/>
       <c r="AA22" s="47" t="n"/>
       <c r="AB22" s="48" t="n"/>
       <c r="AC22" s="49">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD22" s="50" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="38" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
       <c r="B23" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -1921,189 +1856,189 @@
         </is>
       </c>
       <c r="D23" s="40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="41" t="n">
-        <v>0.85</v>
+        <v>342.61</v>
       </c>
       <c r="F23" s="41" t="n">
-        <v>12.75</v>
+        <v>3426.12</v>
       </c>
       <c r="G23" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H23" s="40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I23" s="40" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD23" s="50" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D24" s="40" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>459.93</v>
+        <v>0.85</v>
       </c>
       <c r="F24" s="41" t="n">
-        <v>22996.63</v>
+        <v>12.75</v>
       </c>
       <c r="G24" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H24" s="40" t="n">
-        <v>23.13</v>
+        <v>0</v>
       </c>
       <c r="I24" s="40" t="n">
-        <v>137.74</v>
+        <v>0</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD24" s="50" t="n"/>
@@ -2123,13 +2058,13 @@
         </is>
       </c>
       <c r="D25" s="40" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>459.94</v>
+        <v>459.93</v>
       </c>
       <c r="F25" s="41" t="n">
-        <v>459.94</v>
+        <v>22996.63</v>
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
@@ -2137,74 +2072,74 @@
         </is>
       </c>
       <c r="H25" s="40" t="n">
-        <v>0.46</v>
+        <v>23.13</v>
       </c>
       <c r="I25" s="40" t="n">
-        <v>2.75</v>
+        <v>137.74</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD25" s="50" t="n"/>
@@ -2224,13 +2159,13 @@
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>459.93</v>
+        <v>459.94</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>24836.35</v>
+        <v>459.94</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
@@ -2238,81 +2173,81 @@
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>24.97</v>
+        <v>0.46</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>148.78</v>
+        <v>2.75</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD26" s="50" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
@@ -2321,17 +2256,17 @@
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>402.64</v>
+        <v>459.93</v>
       </c>
       <c r="F27" s="41" t="n">
-        <v>6039.54</v>
+        <v>24836.35</v>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
@@ -2339,85 +2274,85 @@
         </is>
       </c>
       <c r="H27" s="40" t="n">
-        <v>6</v>
+        <v>24.97</v>
       </c>
       <c r="I27" s="40" t="n">
-        <v>36.54</v>
+        <v>148.78</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD27" s="50" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45749</v>
+        <v>45811</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C28" s="39" t="inlineStr">
@@ -2426,99 +2361,99 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>1</v>
+        <v>402.64</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>105</v>
+        <v>6039.54</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>0</v>
+        <v>36.54</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD28" s="50" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45734</v>
+        <v>45749</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -2527,108 +2462,91 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
+        <v>105</v>
+      </c>
+      <c r="E29" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F29" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+      <c r="F29" s="41" t="n">
+        <v>105</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
-      <c r="H29" s="40" t="n"/>
+      <c r="H29" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W29" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X29" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y29" s="54" t="n">
-        <v>0.6078501045</v>
-      </c>
-      <c r="Z29" s="55" t="n">
-        <v>174.45298</v>
-      </c>
-      <c r="AA29" s="55" t="n">
-        <v>457.45298</v>
-      </c>
-      <c r="AB29" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W29" s="47" t="n"/>
+      <c r="X29" s="47" t="n"/>
+      <c r="Y29" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="47" t="n"/>
+      <c r="AA29" s="47" t="n"/>
+      <c r="AB29" s="48" t="n"/>
+      <c r="AC29" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD29" s="50" t="n"/>
-      <c r="AE29" s="57" t="n"/>
-      <c r="AF29" s="57" t="n"/>
-      <c r="AG29" s="57" t="n"/>
-      <c r="AH29" s="57" t="n"/>
-      <c r="AI29" s="57" t="n"/>
-      <c r="AJ29" s="57" t="n"/>
-      <c r="AK29" s="57" t="n"/>
-      <c r="AL29" s="57" t="n"/>
-      <c r="AM29" s="57" t="n"/>
-      <c r="AN29" s="57" t="n"/>
-      <c r="AO29" s="57" t="n"/>
-      <c r="AP29" s="57" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
@@ -2645,13 +2563,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>283</v>
       </c>
       <c r="F30" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
+        <f>E13*D13 + sum(H13:I13)</f>
         <v/>
       </c>
       <c r="G30" s="39" t="inlineStr">
@@ -2661,58 +2579,58 @@
       </c>
       <c r="H30" s="40" t="n"/>
       <c r="I30" s="40" t="n">
-        <v>7.99</v>
+        <v>2</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W30" s="52" t="n">
@@ -2722,16 +2640,16 @@
         <v>45820</v>
       </c>
       <c r="Y30" s="54" t="n">
-        <v>0.6078606944</v>
+        <v>0.6078501045</v>
       </c>
       <c r="Z30" s="55" t="n">
-        <v>697.81192</v>
+        <v>174.45298</v>
       </c>
       <c r="AA30" s="55" t="n">
-        <v>1829.81192</v>
+        <v>457.45298</v>
       </c>
       <c r="AB30" s="56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="49" t="n"/>
       <c r="AD30" s="50" t="n"/>
@@ -2750,7 +2668,7 @@
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2763,75 +2681,74 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>297.1</v>
-      </c>
-      <c r="F31" s="41" t="n">
-        <v>2970.96</v>
+        <v>283</v>
+      </c>
+      <c r="F31" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H31" s="40" t="n">
-        <v>2.96</v>
-      </c>
+      <c r="H31" s="40" t="n"/>
       <c r="I31" s="40" t="n">
-        <v>18</v>
+        <v>7.99</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W31" s="52" t="n">
@@ -2841,16 +2758,16 @@
         <v>45820</v>
       </c>
       <c r="Y31" s="54" t="n">
-        <v>0.5366132116</v>
+        <v>0.6078606944</v>
       </c>
       <c r="Z31" s="55" t="n">
-        <v>1605.5038</v>
+        <v>697.81192</v>
       </c>
       <c r="AA31" s="55" t="n">
-        <v>4576.5038</v>
+        <v>1829.81192</v>
       </c>
       <c r="AB31" s="56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC31" s="49" t="n"/>
       <c r="AD31" s="50" t="n"/>
@@ -2869,7 +2786,7 @@
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2885,10 +2802,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>312.45</v>
+        <v>297.1</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>3124.48</v>
+        <v>2970.96</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2896,61 +2813,61 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>18.89</v>
+        <v>18</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W32" s="52" t="n">
@@ -2960,13 +2877,13 @@
         <v>45820</v>
       </c>
       <c r="Y32" s="54" t="n">
-        <v>0.4621551839</v>
+        <v>0.5366132116</v>
       </c>
       <c r="Z32" s="55" t="n">
-        <v>1454.1528</v>
+        <v>1605.5038</v>
       </c>
       <c r="AA32" s="55" t="n">
-        <v>4578.6528</v>
+        <v>4576.5038</v>
       </c>
       <c r="AB32" s="56" t="n">
         <v>10</v>
@@ -2988,7 +2905,7 @@
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -3001,13 +2918,13 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>299.31</v>
+        <v>312.45</v>
       </c>
       <c r="F33" s="41" t="n">
-        <v>11972.42</v>
+        <v>3124.48</v>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
@@ -3015,61 +2932,61 @@
         </is>
       </c>
       <c r="H33" s="40" t="n">
-        <v>11.88</v>
+        <v>3.09</v>
       </c>
       <c r="I33" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W33" s="52" t="n">
@@ -3079,16 +2996,16 @@
         <v>45820</v>
       </c>
       <c r="Y33" s="54" t="n">
-        <v>0.5254156811</v>
+        <v>0.4621551839</v>
       </c>
       <c r="Z33" s="55" t="n">
-        <v>6334.8528</v>
+        <v>1454.1528</v>
       </c>
       <c r="AA33" s="55" t="n">
-        <v>18307.2528</v>
+        <v>4578.6528</v>
       </c>
       <c r="AB33" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AC33" s="49" t="n"/>
       <c r="AD33" s="50" t="n"/>
@@ -3120,13 +3037,13 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>299.36</v>
+        <v>299.31</v>
       </c>
       <c r="F34" s="41" t="n">
-        <v>5987.21</v>
+        <v>11972.42</v>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
@@ -3134,61 +3051,61 @@
         </is>
       </c>
       <c r="H34" s="40" t="n">
-        <v>5.93</v>
+        <v>11.88</v>
       </c>
       <c r="I34" s="40" t="n">
-        <v>36.28</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W34" s="52" t="n">
@@ -3198,16 +3115,16 @@
         <v>45820</v>
       </c>
       <c r="Y34" s="54" t="n">
-        <v>0.5251650076</v>
+        <v>0.5254156811</v>
       </c>
       <c r="Z34" s="55" t="n">
-        <v>3166.4404</v>
+        <v>6334.8528</v>
       </c>
       <c r="AA34" s="55" t="n">
-        <v>9153.6404</v>
+        <v>18307.2528</v>
       </c>
       <c r="AB34" s="56" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AC34" s="49" t="n"/>
       <c r="AD34" s="50" t="n"/>
@@ -3226,7 +3143,7 @@
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -3239,13 +3156,13 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>333.8</v>
+        <v>299.36</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>3338</v>
+        <v>5987.21</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
@@ -3253,61 +3170,61 @@
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>3.31</v>
+        <v>5.93</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>20.19</v>
+        <v>36.28</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W35" s="52" t="n">
@@ -3317,16 +3234,16 @@
         <v>45820</v>
       </c>
       <c r="Y35" s="54" t="n">
-        <v>0.3699663246</v>
+        <v>0.5251650076</v>
       </c>
       <c r="Z35" s="55" t="n">
-        <v>1243.6418</v>
+        <v>3166.4404</v>
       </c>
       <c r="AA35" s="55" t="n">
-        <v>4581.6418</v>
+        <v>9153.6404</v>
       </c>
       <c r="AB35" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC35" s="49" t="n"/>
       <c r="AD35" s="50" t="n"/>
@@ -3345,7 +3262,7 @@
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -3361,10 +3278,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>361.6</v>
+        <v>333.8</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>3615.99</v>
+        <v>3338</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -3372,61 +3289,61 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>21.91</v>
+        <v>20.19</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W36" s="52" t="n">
@@ -3436,13 +3353,13 @@
         <v>45820</v>
       </c>
       <c r="Y36" s="54" t="n">
-        <v>0.2662471852</v>
+        <v>0.3699663246</v>
       </c>
       <c r="Z36" s="55" t="n">
-        <v>969.5338</v>
+        <v>1243.6418</v>
       </c>
       <c r="AA36" s="55" t="n">
-        <v>4585.5338</v>
+        <v>4581.6418</v>
       </c>
       <c r="AB36" s="56" t="n">
         <v>10</v>
@@ -3464,7 +3381,7 @@
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
@@ -3473,17 +3390,17 @@
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>293.2</v>
+        <v>361.6</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>13193.82</v>
+        <v>3615.99</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -3491,81 +3408,99 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>13.31</v>
+        <v>3.58</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>79.12</v>
+        <v>21.91</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="58" t="n"/>
-      <c r="X37" s="58" t="n"/>
-      <c r="Y37" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="58" t="n"/>
-      <c r="AA37" s="58" t="n"/>
-      <c r="AB37" s="59" t="n"/>
-      <c r="AC37" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W37" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X37" s="53" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y37" s="54" t="n">
+        <v>0.2662471852</v>
+      </c>
+      <c r="Z37" s="55" t="n">
+        <v>969.5338</v>
+      </c>
+      <c r="AA37" s="55" t="n">
+        <v>4585.5338</v>
+      </c>
+      <c r="AB37" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="49" t="n"/>
       <c r="AD37" s="50" t="n"/>
+      <c r="AE37" s="57" t="n"/>
+      <c r="AF37" s="57" t="n"/>
+      <c r="AG37" s="57" t="n"/>
+      <c r="AH37" s="57" t="n"/>
+      <c r="AI37" s="57" t="n"/>
+      <c r="AJ37" s="57" t="n"/>
+      <c r="AK37" s="57" t="n"/>
+      <c r="AL37" s="57" t="n"/>
+      <c r="AM37" s="57" t="n"/>
+      <c r="AN37" s="57" t="n"/>
+      <c r="AO37" s="57" t="n"/>
+      <c r="AP37" s="57" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -3578,13 +3513,13 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>28798.67</v>
+        <v>13193.82</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -3592,186 +3527,186 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>29.05</v>
+        <v>13.31</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>172.28</v>
+        <v>79.12</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W38" s="58" t="n"/>
       <c r="X38" s="58" t="n"/>
       <c r="Y38" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z38" s="58" t="n"/>
       <c r="AA38" s="58" t="n"/>
       <c r="AB38" s="59" t="n"/>
       <c r="AC38" s="49">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD38" s="50" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45233</v>
+        <v>45258</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>1</v>
+        <v>287.99</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>145</v>
+        <v>28798.67</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>0</v>
+        <v>29.05</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W39" s="58" t="n"/>
       <c r="X39" s="58" t="n"/>
       <c r="Y39" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z39" s="58" t="n"/>
       <c r="AA39" s="58" t="n"/>
       <c r="AB39" s="59" t="n"/>
       <c r="AC39" s="49">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD39" s="50" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45225</v>
+        <v>45233</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
@@ -3780,77 +3715,95 @@
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>207.12</v>
+        <v>1</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>2071.16</v>
+        <v>145</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K40" s="58" t="n"/>
-      <c r="L40" s="58" t="n"/>
-      <c r="M40" s="60" t="n"/>
-      <c r="N40" s="61" t="n"/>
-      <c r="O40" s="60" t="n"/>
-      <c r="P40" s="58" t="n"/>
-      <c r="Q40" s="60" t="n"/>
-      <c r="R40" s="60" t="n"/>
-      <c r="S40" s="60" t="n"/>
-      <c r="T40" s="60" t="n"/>
-      <c r="U40" s="60" t="n"/>
-      <c r="V40" s="60" t="n"/>
-      <c r="W40" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X40" s="53" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y40" s="54" t="n">
-        <v>0.4069137318</v>
-      </c>
-      <c r="Z40" s="55" t="n">
-        <v>848.7488</v>
-      </c>
-      <c r="AA40" s="55" t="n">
-        <v>2919.9488</v>
-      </c>
-      <c r="AB40" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC40" s="49" t="n"/>
+      <c r="K40" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L40" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M40" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N40" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O40" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P40" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R40" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S40" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T40" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U40" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V40" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="58" t="n"/>
+      <c r="X40" s="58" t="n"/>
+      <c r="Y40" s="54">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="58" t="n"/>
+      <c r="AA40" s="58" t="n"/>
+      <c r="AB40" s="59" t="n"/>
+      <c r="AC40" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD40" s="50" t="n"/>
-      <c r="AE40" s="57" t="n"/>
-      <c r="AF40" s="57" t="n"/>
-      <c r="AG40" s="57" t="n"/>
-      <c r="AH40" s="57" t="n"/>
-      <c r="AI40" s="57" t="n"/>
-      <c r="AJ40" s="57" t="n"/>
-      <c r="AK40" s="57" t="n"/>
-      <c r="AL40" s="57" t="n"/>
-      <c r="AM40" s="57" t="n"/>
-      <c r="AN40" s="57" t="n"/>
-      <c r="AO40" s="57" t="n"/>
-      <c r="AP40" s="57" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -3866,10 +3819,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>215.42</v>
+        <v>207.12</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>2154.2</v>
+        <v>2071.16</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -3877,10 +3830,10 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>13.09</v>
+        <v>12.58</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
@@ -3905,13 +3858,13 @@
         <v>45282</v>
       </c>
       <c r="Y41" s="54" t="n">
-        <v>0.3535128607</v>
+        <v>0.4069137318</v>
       </c>
       <c r="Z41" s="55" t="n">
-        <v>766.9108</v>
+        <v>848.7488</v>
       </c>
       <c r="AA41" s="55" t="n">
-        <v>2921.1108</v>
+        <v>2919.9488</v>
       </c>
       <c r="AB41" s="56" t="n">
         <v>10</v>
@@ -3933,7 +3886,7 @@
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45191</v>
+        <v>45204</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
@@ -3949,10 +3902,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>215.62</v>
+        <v>215.42</v>
       </c>
       <c r="F42" s="41" t="n">
-        <v>2156.25</v>
+        <v>2154.2</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
@@ -3960,10 +3913,10 @@
         </is>
       </c>
       <c r="H42" s="40" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="I42" s="40" t="n">
-        <v>13.07</v>
+        <v>13.09</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
@@ -3988,13 +3941,13 @@
         <v>45282</v>
       </c>
       <c r="Y42" s="54" t="n">
-        <v>0.3522628598</v>
+        <v>0.3535128607</v>
       </c>
       <c r="Z42" s="55" t="n">
-        <v>764.9388</v>
+        <v>766.9108</v>
       </c>
       <c r="AA42" s="55" t="n">
-        <v>2921.1388</v>
+        <v>2921.1108</v>
       </c>
       <c r="AB42" s="56" t="n">
         <v>10</v>
@@ -4016,7 +3969,7 @@
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
@@ -4032,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>223.93</v>
+        <v>215.62</v>
       </c>
       <c r="F43" s="41" t="n">
-        <v>2239.3</v>
+        <v>2156.25</v>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
@@ -4043,10 +3996,10 @@
         </is>
       </c>
       <c r="H43" s="40" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I43" s="40" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
@@ -4071,13 +4024,13 @@
         <v>45282</v>
       </c>
       <c r="Y43" s="54" t="n">
-        <v>0.3028700279</v>
+        <v>0.3522628598</v>
       </c>
       <c r="Z43" s="55" t="n">
-        <v>683.0022</v>
+        <v>764.9388</v>
       </c>
       <c r="AA43" s="55" t="n">
-        <v>2922.3022</v>
+        <v>2921.1388</v>
       </c>
       <c r="AB43" s="56" t="n">
         <v>10</v>
@@ -4099,7 +4052,7 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45181</v>
+        <v>45184</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
@@ -4112,13 +4065,13 @@
         </is>
       </c>
       <c r="D44" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>231.33</v>
+        <v>223.93</v>
       </c>
       <c r="F44" s="41" t="n">
-        <v>1156.64</v>
+        <v>2239.3</v>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
@@ -4126,10 +4079,10 @@
         </is>
       </c>
       <c r="H44" s="40" t="n">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="I44" s="40" t="n">
-        <v>6.99</v>
+        <v>13.56</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
@@ -4154,16 +4107,16 @@
         <v>45282</v>
       </c>
       <c r="Y44" s="54" t="n">
-        <v>0.2618684215</v>
+        <v>0.3028700279</v>
       </c>
       <c r="Z44" s="55" t="n">
-        <v>305.0191</v>
+        <v>683.0022</v>
       </c>
       <c r="AA44" s="55" t="n">
-        <v>1461.6691</v>
+        <v>2922.3022</v>
       </c>
       <c r="AB44" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC44" s="49" t="n"/>
       <c r="AD44" s="50" t="n"/>
@@ -4182,7 +4135,7 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -4195,13 +4148,13 @@
         </is>
       </c>
       <c r="D45" s="40" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>171.76</v>
+        <v>231.33</v>
       </c>
       <c r="F45" s="41" t="n">
-        <v>6870.22</v>
+        <v>1156.64</v>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
@@ -4209,10 +4162,10 @@
         </is>
       </c>
       <c r="H45" s="40" t="n">
-        <v>6.76</v>
+        <v>1.15</v>
       </c>
       <c r="I45" s="40" t="n">
-        <v>41.46</v>
+        <v>6.99</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
@@ -4231,22 +4184,22 @@
       <c r="U45" s="60" t="n"/>
       <c r="V45" s="60" t="n"/>
       <c r="W45" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X45" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y45" s="54" t="n">
-        <v>0.6625931857</v>
+        <v>0.2618684215</v>
       </c>
       <c r="Z45" s="55" t="n">
-        <v>4584.1112</v>
+        <v>305.0191</v>
       </c>
       <c r="AA45" s="55" t="n">
-        <v>11454.5112</v>
+        <v>1461.6691</v>
       </c>
       <c r="AB45" s="56" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AC45" s="49" t="n"/>
       <c r="AD45" s="50" t="n"/>
@@ -4269,7 +4222,7 @@
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C46" s="39" t="inlineStr">
@@ -4278,90 +4231,81 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>1.05</v>
+        <v>171.76</v>
       </c>
       <c r="F46" s="41" t="n">
-        <v>63</v>
+        <v>6870.22</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H46" s="40" t="n">
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="I46" s="40" t="n">
-        <v>0</v>
+        <v>41.46</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K46" s="47" t="n"/>
-      <c r="L46" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N46" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O46" s="62" t="n"/>
-      <c r="P46" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S46" s="62" t="n"/>
-      <c r="T46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V46" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="58" t="n"/>
-      <c r="X46" s="58" t="n"/>
-      <c r="Y46" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="58" t="n"/>
-      <c r="AA46" s="58" t="n"/>
-      <c r="AB46" s="59" t="n"/>
-      <c r="AC46" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+      <c r="K46" s="58" t="n"/>
+      <c r="L46" s="58" t="n"/>
+      <c r="M46" s="60" t="n"/>
+      <c r="N46" s="61" t="n"/>
+      <c r="O46" s="60" t="n"/>
+      <c r="P46" s="58" t="n"/>
+      <c r="Q46" s="60" t="n"/>
+      <c r="R46" s="60" t="n"/>
+      <c r="S46" s="60" t="n"/>
+      <c r="T46" s="60" t="n"/>
+      <c r="U46" s="60" t="n"/>
+      <c r="V46" s="60" t="n"/>
+      <c r="W46" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X46" s="53" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Y46" s="54" t="n">
+        <v>0.6625931857</v>
+      </c>
+      <c r="Z46" s="55" t="n">
+        <v>4584.1112</v>
+      </c>
+      <c r="AA46" s="55" t="n">
+        <v>11454.5112</v>
+      </c>
+      <c r="AB46" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC46" s="49" t="n"/>
       <c r="AD46" s="50" t="n"/>
+      <c r="AE46" s="57" t="n"/>
+      <c r="AF46" s="57" t="n"/>
+      <c r="AG46" s="57" t="n"/>
+      <c r="AH46" s="57" t="n"/>
+      <c r="AI46" s="57" t="n"/>
+      <c r="AJ46" s="57" t="n"/>
+      <c r="AK46" s="57" t="n"/>
+      <c r="AL46" s="57" t="n"/>
+      <c r="AM46" s="57" t="n"/>
+      <c r="AN46" s="57" t="n"/>
+      <c r="AO46" s="57" t="n"/>
+      <c r="AP46" s="57" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45140</v>
+        <v>45162</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
@@ -4373,86 +4317,162 @@
         <v>60</v>
       </c>
       <c r="E47" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F47" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G47" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H47" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K47" s="47" t="n"/>
+      <c r="L47" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N47" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O47" s="62" t="n"/>
+      <c r="P47" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R47" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S47" s="62" t="n"/>
+      <c r="T47" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U47" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V47" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="58" t="n"/>
+      <c r="X47" s="58" t="n"/>
+      <c r="Y47" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="58" t="n"/>
+      <c r="AA47" s="58" t="n"/>
+      <c r="AB47" s="59" t="n"/>
+      <c r="AC47" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD47" s="50" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B48" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C48" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D48" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E48" s="41" t="n">
         <v>177.1</v>
       </c>
-      <c r="F47" s="41" t="n">
+      <c r="F48" s="41" t="n">
         <v>10625.89</v>
       </c>
-      <c r="G47" s="39" t="inlineStr">
+      <c r="G48" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H47" s="40" t="n">
+      <c r="H48" s="40" t="n">
         <v>10.58</v>
       </c>
-      <c r="I47" s="40" t="n">
+      <c r="I48" s="40" t="n">
         <v>64.31</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K47" s="58" t="n"/>
-      <c r="L47" s="58" t="n"/>
-      <c r="M47" s="60" t="n"/>
-      <c r="N47" s="61" t="n"/>
-      <c r="O47" s="60" t="n"/>
-      <c r="P47" s="58" t="n"/>
-      <c r="Q47" s="60" t="n"/>
-      <c r="R47" s="60" t="n"/>
-      <c r="S47" s="60" t="n"/>
-      <c r="T47" s="60" t="n"/>
-      <c r="U47" s="60" t="n"/>
-      <c r="V47" s="60" t="n"/>
-      <c r="W47" s="52" t="n">
+      <c r="K48" s="58" t="n"/>
+      <c r="L48" s="58" t="n"/>
+      <c r="M48" s="60" t="n"/>
+      <c r="N48" s="61" t="n"/>
+      <c r="O48" s="60" t="n"/>
+      <c r="P48" s="58" t="n"/>
+      <c r="Q48" s="60" t="n"/>
+      <c r="R48" s="60" t="n"/>
+      <c r="S48" s="60" t="n"/>
+      <c r="T48" s="60" t="n"/>
+      <c r="U48" s="60" t="n"/>
+      <c r="V48" s="60" t="n"/>
+      <c r="W48" s="52" t="n">
         <v>287.99</v>
       </c>
-      <c r="X47" s="53" t="n">
+      <c r="X48" s="53" t="n">
         <v>45258</v>
       </c>
-      <c r="Y47" s="54" t="n">
+      <c r="Y48" s="54" t="n">
         <v>0.6130630104</v>
       </c>
-      <c r="Z47" s="55" t="n">
+      <c r="Z48" s="55" t="n">
         <v>6560.2524</v>
       </c>
-      <c r="AA47" s="55" t="n">
+      <c r="AA48" s="55" t="n">
         <v>17186.2524</v>
       </c>
-      <c r="AB47" s="56" t="n">
+      <c r="AB48" s="56" t="n">
         <v>60</v>
       </c>
-      <c r="AC47" s="49" t="n"/>
-      <c r="AD47" s="50" t="n"/>
-      <c r="AE47" s="57" t="n"/>
-      <c r="AF47" s="57" t="n"/>
-      <c r="AG47" s="57" t="n"/>
-      <c r="AH47" s="57" t="n"/>
-      <c r="AI47" s="57" t="n"/>
-      <c r="AJ47" s="57" t="n"/>
-      <c r="AK47" s="57" t="n"/>
-      <c r="AL47" s="57" t="n"/>
-      <c r="AM47" s="57" t="n"/>
-      <c r="AN47" s="57" t="n"/>
-      <c r="AO47" s="57" t="n"/>
-      <c r="AP47" s="57" t="n"/>
-    </row>
-    <row r="48">
-      <c r="E48" s="64" t="n"/>
-      <c r="F48" s="64" t="n"/>
-      <c r="G48" s="65" t="n"/>
-      <c r="J48" s="64" t="n"/>
-      <c r="K48" s="64" t="n"/>
-      <c r="L48" s="64" t="n"/>
-      <c r="M48" s="67" t="n"/>
-      <c r="W48" s="64" t="n"/>
-      <c r="X48" s="64" t="n"/>
-      <c r="Y48" s="64" t="n"/>
-      <c r="Z48" s="64" t="n"/>
-      <c r="AA48" s="64" t="n"/>
-      <c r="AB48" s="64" t="n"/>
-      <c r="AC48" s="64" t="n"/>
+      <c r="AC48" s="49" t="n"/>
+      <c r="AD48" s="50" t="n"/>
+      <c r="AE48" s="57" t="n"/>
+      <c r="AF48" s="57" t="n"/>
+      <c r="AG48" s="57" t="n"/>
+      <c r="AH48" s="57" t="n"/>
+      <c r="AI48" s="57" t="n"/>
+      <c r="AJ48" s="57" t="n"/>
+      <c r="AK48" s="57" t="n"/>
+      <c r="AL48" s="57" t="n"/>
+      <c r="AM48" s="57" t="n"/>
+      <c r="AN48" s="57" t="n"/>
+      <c r="AO48" s="57" t="n"/>
+      <c r="AP48" s="57" t="n"/>
     </row>
     <row r="49">
       <c r="E49" s="64" t="n"/>
@@ -19421,6 +19441,7 @@
       <c r="J984" s="64" t="n"/>
       <c r="K984" s="64" t="n"/>
       <c r="L984" s="64" t="n"/>
+      <c r="M984" s="67" t="n"/>
       <c r="W984" s="64" t="n"/>
       <c r="X984" s="64" t="n"/>
       <c r="Y984" s="64" t="n"/>
@@ -19668,6 +19689,21 @@
       <c r="AA1000" s="64" t="n"/>
       <c r="AB1000" s="64" t="n"/>
       <c r="AC1000" s="64" t="n"/>
+    </row>
+    <row r="1001">
+      <c r="E1001" s="64" t="n"/>
+      <c r="F1001" s="64" t="n"/>
+      <c r="G1001" s="65" t="n"/>
+      <c r="J1001" s="64" t="n"/>
+      <c r="K1001" s="64" t="n"/>
+      <c r="L1001" s="64" t="n"/>
+      <c r="W1001" s="64" t="n"/>
+      <c r="X1001" s="64" t="n"/>
+      <c r="Y1001" s="64" t="n"/>
+      <c r="Z1001" s="64" t="n"/>
+      <c r="AA1001" s="64" t="n"/>
+      <c r="AB1001" s="64" t="n"/>
+      <c r="AC1001" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>

--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1001"/>
+  <dimension ref="A1:AP1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="98" t="n">
-        <v>46062</v>
+        <v>45954</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1149,18 +1149,15 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>326.95</v>
+        <v>371.87</v>
       </c>
       <c r="F5" t="n">
-        <v>3285.8</v>
+        <v>3718.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>16.3</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="6">
       <c r="A6" s="98" t="n">
-        <v>46059</v>
+        <v>45953</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1185,18 +1182,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>323.25</v>
+        <v>373.63</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3248.7</v>
+        <v>3736.3</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>16.2</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1205,7 +1199,7 @@
     </row>
     <row r="7">
       <c r="A7" s="98" t="n">
-        <v>46057</v>
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1221,18 +1215,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>334.39</v>
+        <v>326.95</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3360.6</v>
+        <v>3285.8</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1241,7 +1235,7 @@
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1257,18 +1251,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>332.6</v>
+        <v>323.25</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3342.6</v>
+        <v>3248.7</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1277,7 +1271,7 @@
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1293,18 +1287,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>340.65</v>
+        <v>334.39</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3423.5</v>
+        <v>3360.6</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1313,7 +1307,7 @@
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46017</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1329,18 +1323,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>377.5</v>
+        <v>332.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3793.9</v>
+        <v>3342.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.9</v>
+        <v>16.6</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1349,11 +1343,11 @@
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1365,18 +1359,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>358.2</v>
+        <v>340.65</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3599.9</v>
+        <v>3423.5</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>17.9</v>
+        <v>17</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1385,7 +1379,7 @@
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46008</v>
+        <v>46017</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1401,18 +1395,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>326.5</v>
+        <v>377.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3281.3</v>
+        <v>3793.9</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.3</v>
+        <v>18.9</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1421,11 +1415,11 @@
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46007</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1437,18 +1431,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>332.8</v>
+        <v>358.2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3344.6</v>
+        <v>3599.9</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>16.6</v>
+        <v>17.9</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1457,7 +1451,7 @@
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1473,18 +1467,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>328.3</v>
+        <v>326.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3299.4</v>
+        <v>3281.3</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1493,7 +1487,7 @@
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1509,14 +1503,14 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>332.2</v>
+        <v>332.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3338.6</v>
+        <v>3344.6</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
@@ -1529,7 +1523,7 @@
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1545,18 +1539,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>345.6</v>
+        <v>328.3</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3473.3</v>
+        <v>3299.4</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>17.3</v>
+        <v>16.4</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1565,11 +1559,11 @@
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1581,18 +1575,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>351.355</v>
+        <v>332.2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3531.15</v>
+        <v>3338.6</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>17.6</v>
+        <v>16.6</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1617,18 +1611,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>359.15</v>
+        <v>345.6</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3609.5</v>
+        <v>3473.3</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1637,11 +1631,11 @@
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1650,21 +1644,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>365.6</v>
+        <v>351.355</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7348.6</v>
+        <v>3531.15</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>36.6</v>
+        <v>17.6</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1673,7 +1667,7 @@
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45959</v>
+        <v>45979</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1686,21 +1680,21 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>365.55</v>
+        <v>359.15</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5510.7</v>
+        <v>3609.5</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>27.45</v>
+        <v>18</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1709,7 +1703,7 @@
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45957</v>
+        <v>45978</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1722,233 +1716,106 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>365.6</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7348.6</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608260909</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J21" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="98" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>365.55</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>5510.7</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="J22" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="98" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>367.45</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>3692.9</v>
       </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>18.4</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J23" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="38" t="n">
+    <row r="24">
+      <c r="A24" s="38" t="n">
         <v>45950</v>
       </c>
-      <c r="B22" s="39" t="inlineStr">
+      <c r="B24" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
-        </is>
-      </c>
-      <c r="C22" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D22" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F22" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G22" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H22" s="40" t="n"/>
-      <c r="I22" s="40" t="n"/>
-      <c r="J22" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K22" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N22" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O22" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S22" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W22" s="47" t="n"/>
-      <c r="X22" s="47" t="n"/>
-      <c r="Y22" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="47" t="n"/>
-      <c r="AA22" s="47" t="n"/>
-      <c r="AB22" s="48" t="n"/>
-      <c r="AC22" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD22" s="50" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B23" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C23" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D23" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F23" s="41" t="n">
-        <v>3426.12</v>
-      </c>
-      <c r="G23" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H23" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I23" s="40" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="J23" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K23" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N23" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O23" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S23" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W23" s="47" t="n"/>
-      <c r="X23" s="47" t="n"/>
-      <c r="Y23" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="47" t="n"/>
-      <c r="AA23" s="47" t="n"/>
-      <c r="AB23" s="48" t="n"/>
-      <c r="AC23" s="49">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD23" s="50" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="38" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B24" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
         </is>
       </c>
       <c r="C24" s="39" t="inlineStr">
@@ -1957,95 +1824,92 @@
         </is>
       </c>
       <c r="D24" s="40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F24" s="41" t="n">
-        <v>12.75</v>
+        <v>368.85</v>
+      </c>
+      <c r="F24" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G24" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H24" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H24" s="40" t="n"/>
+      <c r="I24" s="40" t="n"/>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD24" s="50" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45820</v>
+        <v>45897</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -2054,17 +1918,17 @@
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D25" s="40" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>459.93</v>
+        <v>342.61</v>
       </c>
       <c r="F25" s="41" t="n">
-        <v>22996.63</v>
+        <v>3426.12</v>
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
@@ -2072,175 +1936,175 @@
         </is>
       </c>
       <c r="H25" s="40" t="n">
-        <v>23.13</v>
+        <v>3.4</v>
       </c>
       <c r="I25" s="40" t="n">
-        <v>137.74</v>
+        <v>20.72</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD25" s="50" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>459.94</v>
+        <v>0.85</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>459.94</v>
+        <v>12.75</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD26" s="50" t="n"/>
@@ -2260,13 +2124,13 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E27" s="41" t="n">
         <v>459.93</v>
       </c>
       <c r="F27" s="41" t="n">
-        <v>24836.35</v>
+        <v>22996.63</v>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
@@ -2274,81 +2138,81 @@
         </is>
       </c>
       <c r="H27" s="40" t="n">
-        <v>24.97</v>
+        <v>23.13</v>
       </c>
       <c r="I27" s="40" t="n">
-        <v>148.78</v>
+        <v>137.74</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD27" s="50" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -2357,17 +2221,17 @@
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>402.64</v>
+        <v>459.94</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>6039.54</v>
+        <v>459.94</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
@@ -2375,182 +2239,182 @@
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>6</v>
+        <v>0.46</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>36.54</v>
+        <v>2.75</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD28" s="50" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45749</v>
+        <v>45820</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>1</v>
+        <v>459.93</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>105</v>
+        <v>24836.35</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>0</v>
+        <v>24.97</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>0</v>
+        <v>148.78</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD29" s="50" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45734</v>
+        <v>45811</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2563,116 +2427,99 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F30" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+        <v>402.64</v>
+      </c>
+      <c r="F30" s="41" t="n">
+        <v>6039.54</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H30" s="40" t="n"/>
+      <c r="H30" s="40" t="n">
+        <v>6</v>
+      </c>
       <c r="I30" s="40" t="n">
-        <v>2</v>
+        <v>36.54</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W30" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X30" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y30" s="54" t="n">
-        <v>0.6078501045</v>
-      </c>
-      <c r="Z30" s="55" t="n">
-        <v>174.45298</v>
-      </c>
-      <c r="AA30" s="55" t="n">
-        <v>457.45298</v>
-      </c>
-      <c r="AB30" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="49" t="n"/>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W30" s="47" t="n"/>
+      <c r="X30" s="47" t="n"/>
+      <c r="Y30" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z30" s="47" t="n"/>
+      <c r="AA30" s="47" t="n"/>
+      <c r="AB30" s="48" t="n"/>
+      <c r="AC30" s="49">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
       <c r="AD30" s="50" t="n"/>
-      <c r="AE30" s="57" t="n"/>
-      <c r="AF30" s="57" t="n"/>
-      <c r="AG30" s="57" t="n"/>
-      <c r="AH30" s="57" t="n"/>
-      <c r="AI30" s="57" t="n"/>
-      <c r="AJ30" s="57" t="n"/>
-      <c r="AK30" s="57" t="n"/>
-      <c r="AL30" s="57" t="n"/>
-      <c r="AM30" s="57" t="n"/>
-      <c r="AN30" s="57" t="n"/>
-      <c r="AO30" s="57" t="n"/>
-      <c r="AP30" s="57" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45734</v>
+        <v>45749</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -2681,112 +2528,95 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F31" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="41" t="n">
+        <v>105</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
-      <c r="H31" s="40" t="n"/>
+      <c r="H31" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="I31" s="40" t="n">
-        <v>7.99</v>
+        <v>0</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W31" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X31" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y31" s="54" t="n">
-        <v>0.6078606944</v>
-      </c>
-      <c r="Z31" s="55" t="n">
-        <v>697.81192</v>
-      </c>
-      <c r="AA31" s="55" t="n">
-        <v>1829.81192</v>
-      </c>
-      <c r="AB31" s="56" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC31" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W31" s="47" t="n"/>
+      <c r="X31" s="47" t="n"/>
+      <c r="Y31" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z31" s="47" t="n"/>
+      <c r="AA31" s="47" t="n"/>
+      <c r="AB31" s="48" t="n"/>
+      <c r="AC31" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD31" s="50" t="n"/>
-      <c r="AE31" s="57" t="n"/>
-      <c r="AF31" s="57" t="n"/>
-      <c r="AG31" s="57" t="n"/>
-      <c r="AH31" s="57" t="n"/>
-      <c r="AI31" s="57" t="n"/>
-      <c r="AJ31" s="57" t="n"/>
-      <c r="AK31" s="57" t="n"/>
-      <c r="AL31" s="57" t="n"/>
-      <c r="AM31" s="57" t="n"/>
-      <c r="AN31" s="57" t="n"/>
-      <c r="AO31" s="57" t="n"/>
-      <c r="AP31" s="57" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2799,75 +2629,74 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>297.1</v>
-      </c>
-      <c r="F32" s="41" t="n">
-        <v>2970.96</v>
+        <v>283</v>
+      </c>
+      <c r="F32" s="51">
+        <f>E13*D13 + sum(H13:I13)</f>
+        <v/>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H32" s="40" t="n">
-        <v>2.96</v>
-      </c>
+      <c r="H32" s="40" t="n"/>
       <c r="I32" s="40" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W32" s="52" t="n">
@@ -2877,16 +2706,16 @@
         <v>45820</v>
       </c>
       <c r="Y32" s="54" t="n">
-        <v>0.5366132116</v>
+        <v>0.6078501045</v>
       </c>
       <c r="Z32" s="55" t="n">
-        <v>1605.5038</v>
+        <v>174.45298</v>
       </c>
       <c r="AA32" s="55" t="n">
-        <v>4576.5038</v>
+        <v>457.45298</v>
       </c>
       <c r="AB32" s="56" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="49" t="n"/>
       <c r="AD32" s="50" t="n"/>
@@ -2905,7 +2734,7 @@
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2918,75 +2747,74 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>312.45</v>
-      </c>
-      <c r="F33" s="41" t="n">
-        <v>3124.48</v>
+        <v>283</v>
+      </c>
+      <c r="F33" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="40" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="H33" s="40" t="n"/>
       <c r="I33" s="40" t="n">
-        <v>18.89</v>
+        <v>7.99</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W33" s="52" t="n">
@@ -2996,16 +2824,16 @@
         <v>45820</v>
       </c>
       <c r="Y33" s="54" t="n">
-        <v>0.4621551839</v>
+        <v>0.6078606944</v>
       </c>
       <c r="Z33" s="55" t="n">
-        <v>1454.1528</v>
+        <v>697.81192</v>
       </c>
       <c r="AA33" s="55" t="n">
-        <v>4578.6528</v>
+        <v>1829.81192</v>
       </c>
       <c r="AB33" s="56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC33" s="49" t="n"/>
       <c r="AD33" s="50" t="n"/>
@@ -3024,7 +2852,7 @@
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
@@ -3037,13 +2865,13 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>299.31</v>
+        <v>297.1</v>
       </c>
       <c r="F34" s="41" t="n">
-        <v>11972.42</v>
+        <v>2970.96</v>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
@@ -3051,61 +2879,61 @@
         </is>
       </c>
       <c r="H34" s="40" t="n">
-        <v>11.88</v>
+        <v>2.96</v>
       </c>
       <c r="I34" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>18</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W34" s="52" t="n">
@@ -3115,16 +2943,16 @@
         <v>45820</v>
       </c>
       <c r="Y34" s="54" t="n">
-        <v>0.5254156811</v>
+        <v>0.5366132116</v>
       </c>
       <c r="Z34" s="55" t="n">
-        <v>6334.8528</v>
+        <v>1605.5038</v>
       </c>
       <c r="AA34" s="55" t="n">
-        <v>18307.2528</v>
+        <v>4576.5038</v>
       </c>
       <c r="AB34" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AC34" s="49" t="n"/>
       <c r="AD34" s="50" t="n"/>
@@ -3143,7 +2971,7 @@
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -3156,13 +2984,13 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>299.36</v>
+        <v>312.45</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>5987.21</v>
+        <v>3124.48</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
@@ -3170,61 +2998,61 @@
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>5.93</v>
+        <v>3.09</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>36.28</v>
+        <v>18.89</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W35" s="52" t="n">
@@ -3234,16 +3062,16 @@
         <v>45820</v>
       </c>
       <c r="Y35" s="54" t="n">
-        <v>0.5251650076</v>
+        <v>0.4621551839</v>
       </c>
       <c r="Z35" s="55" t="n">
-        <v>3166.4404</v>
+        <v>1454.1528</v>
       </c>
       <c r="AA35" s="55" t="n">
-        <v>9153.6404</v>
+        <v>4578.6528</v>
       </c>
       <c r="AB35" s="56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC35" s="49" t="n"/>
       <c r="AD35" s="50" t="n"/>
@@ -3262,7 +3090,7 @@
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -3275,13 +3103,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>333.8</v>
+        <v>299.31</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>3338</v>
+        <v>11972.42</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -3289,61 +3117,61 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>3.31</v>
+        <v>11.88</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>20.19</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W36" s="52" t="n">
@@ -3353,16 +3181,16 @@
         <v>45820</v>
       </c>
       <c r="Y36" s="54" t="n">
-        <v>0.3699663246</v>
+        <v>0.5254156811</v>
       </c>
       <c r="Z36" s="55" t="n">
-        <v>1243.6418</v>
+        <v>6334.8528</v>
       </c>
       <c r="AA36" s="55" t="n">
-        <v>4581.6418</v>
+        <v>18307.2528</v>
       </c>
       <c r="AB36" s="56" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AC36" s="49" t="n"/>
       <c r="AD36" s="50" t="n"/>
@@ -3381,7 +3209,7 @@
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
@@ -3394,13 +3222,13 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>361.6</v>
+        <v>299.36</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>3615.99</v>
+        <v>5987.21</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -3408,61 +3236,61 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>3.58</v>
+        <v>5.93</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>21.91</v>
+        <v>36.28</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W37" s="52" t="n">
@@ -3472,16 +3300,16 @@
         <v>45820</v>
       </c>
       <c r="Y37" s="54" t="n">
-        <v>0.2662471852</v>
+        <v>0.5251650076</v>
       </c>
       <c r="Z37" s="55" t="n">
-        <v>969.5338</v>
+        <v>3166.4404</v>
       </c>
       <c r="AA37" s="55" t="n">
-        <v>4585.5338</v>
+        <v>9153.6404</v>
       </c>
       <c r="AB37" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC37" s="49" t="n"/>
       <c r="AD37" s="50" t="n"/>
@@ -3500,7 +3328,7 @@
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45282</v>
+        <v>45699</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -3509,17 +3337,17 @@
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>293.2</v>
+        <v>333.8</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>13193.82</v>
+        <v>3338</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -3527,81 +3355,99 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>13.31</v>
+        <v>3.31</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>79.12</v>
+        <v>20.19</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="58" t="n"/>
-      <c r="X38" s="58" t="n"/>
-      <c r="Y38" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="58" t="n"/>
-      <c r="AA38" s="58" t="n"/>
-      <c r="AB38" s="59" t="n"/>
-      <c r="AC38" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W38" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X38" s="53" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y38" s="54" t="n">
+        <v>0.3699663246</v>
+      </c>
+      <c r="Z38" s="55" t="n">
+        <v>1243.6418</v>
+      </c>
+      <c r="AA38" s="55" t="n">
+        <v>4581.6418</v>
+      </c>
+      <c r="AB38" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="49" t="n"/>
       <c r="AD38" s="50" t="n"/>
+      <c r="AE38" s="57" t="n"/>
+      <c r="AF38" s="57" t="n"/>
+      <c r="AG38" s="57" t="n"/>
+      <c r="AH38" s="57" t="n"/>
+      <c r="AI38" s="57" t="n"/>
+      <c r="AJ38" s="57" t="n"/>
+      <c r="AK38" s="57" t="n"/>
+      <c r="AL38" s="57" t="n"/>
+      <c r="AM38" s="57" t="n"/>
+      <c r="AN38" s="57" t="n"/>
+      <c r="AO38" s="57" t="n"/>
+      <c r="AP38" s="57" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45258</v>
+        <v>45694</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -3610,17 +3456,17 @@
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>287.99</v>
+        <v>361.6</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>28798.67</v>
+        <v>3615.99</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -3628,182 +3474,200 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>29.05</v>
+        <v>3.58</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>172.28</v>
+        <v>21.91</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="58" t="n"/>
-      <c r="X39" s="58" t="n"/>
-      <c r="Y39" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="58" t="n"/>
-      <c r="AA39" s="58" t="n"/>
-      <c r="AB39" s="59" t="n"/>
-      <c r="AC39" s="49">
-        <f>if(B22="DIV", F22,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W39" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X39" s="53" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y39" s="54" t="n">
+        <v>0.2662471852</v>
+      </c>
+      <c r="Z39" s="55" t="n">
+        <v>969.5338</v>
+      </c>
+      <c r="AA39" s="55" t="n">
+        <v>4585.5338</v>
+      </c>
+      <c r="AB39" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="49" t="n"/>
       <c r="AD39" s="50" t="n"/>
+      <c r="AE39" s="57" t="n"/>
+      <c r="AF39" s="57" t="n"/>
+      <c r="AG39" s="57" t="n"/>
+      <c r="AH39" s="57" t="n"/>
+      <c r="AI39" s="57" t="n"/>
+      <c r="AJ39" s="57" t="n"/>
+      <c r="AK39" s="57" t="n"/>
+      <c r="AL39" s="57" t="n"/>
+      <c r="AM39" s="57" t="n"/>
+      <c r="AN39" s="57" t="n"/>
+      <c r="AO39" s="57" t="n"/>
+      <c r="AP39" s="57" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45233</v>
+        <v>45282</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>1</v>
+        <v>293.2</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>145</v>
+        <v>13193.82</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>0</v>
+        <v>13.31</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>0</v>
+        <v>79.12</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W40" s="58" t="n"/>
       <c r="X40" s="58" t="n"/>
       <c r="Y40" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z40" s="58" t="n"/>
       <c r="AA40" s="58" t="n"/>
       <c r="AB40" s="59" t="n"/>
       <c r="AC40" s="49">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD40" s="50" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45225</v>
+        <v>45258</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -3812,17 +3676,17 @@
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>207.12</v>
+        <v>287.99</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>2071.16</v>
+        <v>28798.67</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -3830,67 +3694,85 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>2.08</v>
+        <v>29.05</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>12.58</v>
+        <v>172.28</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K41" s="58" t="n"/>
-      <c r="L41" s="58" t="n"/>
-      <c r="M41" s="60" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="60" t="n"/>
-      <c r="P41" s="58" t="n"/>
-      <c r="Q41" s="60" t="n"/>
-      <c r="R41" s="60" t="n"/>
-      <c r="S41" s="60" t="n"/>
-      <c r="T41" s="60" t="n"/>
-      <c r="U41" s="60" t="n"/>
-      <c r="V41" s="60" t="n"/>
-      <c r="W41" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X41" s="53" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y41" s="54" t="n">
-        <v>0.4069137318</v>
-      </c>
-      <c r="Z41" s="55" t="n">
-        <v>848.7488</v>
-      </c>
-      <c r="AA41" s="55" t="n">
-        <v>2919.9488</v>
-      </c>
-      <c r="AB41" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC41" s="49" t="n"/>
+      <c r="K41" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L41" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M41" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N41" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O41" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P41" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R41" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S41" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T41" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U41" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V41" s="47">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="58" t="n"/>
+      <c r="X41" s="58" t="n"/>
+      <c r="Y41" s="54">
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="58" t="n"/>
+      <c r="AA41" s="58" t="n"/>
+      <c r="AB41" s="59" t="n"/>
+      <c r="AC41" s="49">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
       <c r="AD41" s="50" t="n"/>
-      <c r="AE41" s="57" t="n"/>
-      <c r="AF41" s="57" t="n"/>
-      <c r="AG41" s="57" t="n"/>
-      <c r="AH41" s="57" t="n"/>
-      <c r="AI41" s="57" t="n"/>
-      <c r="AJ41" s="57" t="n"/>
-      <c r="AK41" s="57" t="n"/>
-      <c r="AL41" s="57" t="n"/>
-      <c r="AM41" s="57" t="n"/>
-      <c r="AN41" s="57" t="n"/>
-      <c r="AO41" s="57" t="n"/>
-      <c r="AP41" s="57" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45204</v>
+        <v>45233</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
@@ -3899,77 +3781,95 @@
         </is>
       </c>
       <c r="D42" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>215.42</v>
+        <v>1</v>
       </c>
       <c r="F42" s="41" t="n">
-        <v>2154.2</v>
+        <v>145</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H42" s="40" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="I42" s="40" t="n">
-        <v>13.09</v>
+        <v>0</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K42" s="58" t="n"/>
-      <c r="L42" s="58" t="n"/>
-      <c r="M42" s="60" t="n"/>
-      <c r="N42" s="61" t="n"/>
-      <c r="O42" s="60" t="n"/>
-      <c r="P42" s="58" t="n"/>
-      <c r="Q42" s="60" t="n"/>
-      <c r="R42" s="60" t="n"/>
-      <c r="S42" s="60" t="n"/>
-      <c r="T42" s="60" t="n"/>
-      <c r="U42" s="60" t="n"/>
-      <c r="V42" s="60" t="n"/>
-      <c r="W42" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X42" s="53" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y42" s="54" t="n">
-        <v>0.3535128607</v>
-      </c>
-      <c r="Z42" s="55" t="n">
-        <v>766.9108</v>
-      </c>
-      <c r="AA42" s="55" t="n">
-        <v>2921.1108</v>
-      </c>
-      <c r="AB42" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC42" s="49" t="n"/>
+      <c r="K42" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L42" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N42" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P42" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R42" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S42" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T42" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U42" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V42" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="58" t="n"/>
+      <c r="X42" s="58" t="n"/>
+      <c r="Y42" s="54">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="58" t="n"/>
+      <c r="AA42" s="58" t="n"/>
+      <c r="AB42" s="59" t="n"/>
+      <c r="AC42" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD42" s="50" t="n"/>
-      <c r="AE42" s="57" t="n"/>
-      <c r="AF42" s="57" t="n"/>
-      <c r="AG42" s="57" t="n"/>
-      <c r="AH42" s="57" t="n"/>
-      <c r="AI42" s="57" t="n"/>
-      <c r="AJ42" s="57" t="n"/>
-      <c r="AK42" s="57" t="n"/>
-      <c r="AL42" s="57" t="n"/>
-      <c r="AM42" s="57" t="n"/>
-      <c r="AN42" s="57" t="n"/>
-      <c r="AO42" s="57" t="n"/>
-      <c r="AP42" s="57" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45191</v>
+        <v>45225</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
@@ -3985,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>215.62</v>
+        <v>207.12</v>
       </c>
       <c r="F43" s="41" t="n">
-        <v>2156.25</v>
+        <v>2071.16</v>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
@@ -3996,10 +3896,10 @@
         </is>
       </c>
       <c r="H43" s="40" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="I43" s="40" t="n">
-        <v>13.07</v>
+        <v>12.58</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
@@ -4024,13 +3924,13 @@
         <v>45282</v>
       </c>
       <c r="Y43" s="54" t="n">
-        <v>0.3522628598</v>
+        <v>0.4069137318</v>
       </c>
       <c r="Z43" s="55" t="n">
-        <v>764.9388</v>
+        <v>848.7488</v>
       </c>
       <c r="AA43" s="55" t="n">
-        <v>2921.1388</v>
+        <v>2919.9488</v>
       </c>
       <c r="AB43" s="56" t="n">
         <v>10</v>
@@ -4052,7 +3952,7 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45184</v>
+        <v>45204</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
@@ -4068,10 +3968,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>223.93</v>
+        <v>215.42</v>
       </c>
       <c r="F44" s="41" t="n">
-        <v>2239.3</v>
+        <v>2154.2</v>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
@@ -4079,10 +3979,10 @@
         </is>
       </c>
       <c r="H44" s="40" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="I44" s="40" t="n">
-        <v>13.56</v>
+        <v>13.09</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
@@ -4107,13 +4007,13 @@
         <v>45282</v>
       </c>
       <c r="Y44" s="54" t="n">
-        <v>0.3028700279</v>
+        <v>0.3535128607</v>
       </c>
       <c r="Z44" s="55" t="n">
-        <v>683.0022</v>
+        <v>766.9108</v>
       </c>
       <c r="AA44" s="55" t="n">
-        <v>2922.3022</v>
+        <v>2921.1108</v>
       </c>
       <c r="AB44" s="56" t="n">
         <v>10</v>
@@ -4135,7 +4035,7 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45181</v>
+        <v>45191</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -4148,13 +4048,13 @@
         </is>
       </c>
       <c r="D45" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>231.33</v>
+        <v>215.62</v>
       </c>
       <c r="F45" s="41" t="n">
-        <v>1156.64</v>
+        <v>2156.25</v>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
@@ -4162,10 +4062,10 @@
         </is>
       </c>
       <c r="H45" s="40" t="n">
-        <v>1.15</v>
+        <v>2.18</v>
       </c>
       <c r="I45" s="40" t="n">
-        <v>6.99</v>
+        <v>13.07</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
@@ -4190,16 +4090,16 @@
         <v>45282</v>
       </c>
       <c r="Y45" s="54" t="n">
-        <v>0.2618684215</v>
+        <v>0.3522628598</v>
       </c>
       <c r="Z45" s="55" t="n">
-        <v>305.0191</v>
+        <v>764.9388</v>
       </c>
       <c r="AA45" s="55" t="n">
-        <v>1461.6691</v>
+        <v>2921.1388</v>
       </c>
       <c r="AB45" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC45" s="49" t="n"/>
       <c r="AD45" s="50" t="n"/>
@@ -4218,7 +4118,7 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45162</v>
+        <v>45184</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
@@ -4231,13 +4131,13 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>171.76</v>
+        <v>223.93</v>
       </c>
       <c r="F46" s="41" t="n">
-        <v>6870.22</v>
+        <v>2239.3</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
@@ -4245,10 +4145,10 @@
         </is>
       </c>
       <c r="H46" s="40" t="n">
-        <v>6.76</v>
+        <v>2.24</v>
       </c>
       <c r="I46" s="40" t="n">
-        <v>41.46</v>
+        <v>13.56</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
@@ -4267,22 +4167,22 @@
       <c r="U46" s="60" t="n"/>
       <c r="V46" s="60" t="n"/>
       <c r="W46" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X46" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y46" s="54" t="n">
-        <v>0.6625931857</v>
+        <v>0.3028700279</v>
       </c>
       <c r="Z46" s="55" t="n">
-        <v>4584.1112</v>
+        <v>683.0022</v>
       </c>
       <c r="AA46" s="55" t="n">
-        <v>11454.5112</v>
+        <v>2922.3022</v>
       </c>
       <c r="AB46" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AC46" s="49" t="n"/>
       <c r="AD46" s="50" t="n"/>
@@ -4301,11 +4201,11 @@
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
@@ -4314,86 +4214,77 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>1.05</v>
+        <v>231.33</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>63</v>
+        <v>1156.64</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K47" s="47" t="n"/>
-      <c r="L47" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="62" t="n"/>
-      <c r="P47" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S47" s="62" t="n"/>
-      <c r="T47" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U47" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V47" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="58" t="n"/>
-      <c r="X47" s="58" t="n"/>
-      <c r="Y47" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="58" t="n"/>
-      <c r="AA47" s="58" t="n"/>
-      <c r="AB47" s="59" t="n"/>
-      <c r="AC47" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+      <c r="K47" s="58" t="n"/>
+      <c r="L47" s="58" t="n"/>
+      <c r="M47" s="60" t="n"/>
+      <c r="N47" s="61" t="n"/>
+      <c r="O47" s="60" t="n"/>
+      <c r="P47" s="58" t="n"/>
+      <c r="Q47" s="60" t="n"/>
+      <c r="R47" s="60" t="n"/>
+      <c r="S47" s="60" t="n"/>
+      <c r="T47" s="60" t="n"/>
+      <c r="U47" s="60" t="n"/>
+      <c r="V47" s="60" t="n"/>
+      <c r="W47" s="52" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="X47" s="53" t="n">
+        <v>45282</v>
+      </c>
+      <c r="Y47" s="54" t="n">
+        <v>0.2618684215</v>
+      </c>
+      <c r="Z47" s="55" t="n">
+        <v>305.0191</v>
+      </c>
+      <c r="AA47" s="55" t="n">
+        <v>1461.6691</v>
+      </c>
+      <c r="AB47" s="56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="49" t="n"/>
       <c r="AD47" s="50" t="n"/>
+      <c r="AE47" s="57" t="n"/>
+      <c r="AF47" s="57" t="n"/>
+      <c r="AG47" s="57" t="n"/>
+      <c r="AH47" s="57" t="n"/>
+      <c r="AI47" s="57" t="n"/>
+      <c r="AJ47" s="57" t="n"/>
+      <c r="AK47" s="57" t="n"/>
+      <c r="AL47" s="57" t="n"/>
+      <c r="AM47" s="57" t="n"/>
+      <c r="AN47" s="57" t="n"/>
+      <c r="AO47" s="57" t="n"/>
+      <c r="AP47" s="57" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45140</v>
+        <v>45162</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
@@ -4406,13 +4297,13 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>177.1</v>
+        <v>171.76</v>
       </c>
       <c r="F48" s="41" t="n">
-        <v>10625.89</v>
+        <v>6870.22</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
@@ -4420,10 +4311,10 @@
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>10.58</v>
+        <v>6.76</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>64.31</v>
+        <v>41.46</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
@@ -4448,16 +4339,16 @@
         <v>45258</v>
       </c>
       <c r="Y48" s="54" t="n">
-        <v>0.6130630104</v>
+        <v>0.6625931857</v>
       </c>
       <c r="Z48" s="55" t="n">
-        <v>6560.2524</v>
+        <v>4584.1112</v>
       </c>
       <c r="AA48" s="55" t="n">
-        <v>17186.2524</v>
+        <v>11454.5112</v>
       </c>
       <c r="AB48" s="56" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC48" s="49" t="n"/>
       <c r="AD48" s="50" t="n"/>
@@ -4475,36 +4366,179 @@
       <c r="AP48" s="57" t="n"/>
     </row>
     <row r="49">
-      <c r="E49" s="64" t="n"/>
-      <c r="F49" s="64" t="n"/>
-      <c r="G49" s="65" t="n"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
-      <c r="L49" s="64" t="n"/>
-      <c r="M49" s="67" t="n"/>
-      <c r="W49" s="64" t="n"/>
-      <c r="X49" s="64" t="n"/>
-      <c r="Y49" s="64" t="n"/>
-      <c r="Z49" s="64" t="n"/>
-      <c r="AA49" s="64" t="n"/>
-      <c r="AB49" s="64" t="n"/>
-      <c r="AC49" s="64" t="n"/>
+      <c r="A49" s="38" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B49" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C49" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D49" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E49" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F49" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G49" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H49" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K49" s="47" t="n"/>
+      <c r="L49" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M49" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N49" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O49" s="62" t="n"/>
+      <c r="P49" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q49" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R49" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S49" s="62" t="n"/>
+      <c r="T49" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U49" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V49" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W49" s="58" t="n"/>
+      <c r="X49" s="58" t="n"/>
+      <c r="Y49" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z49" s="58" t="n"/>
+      <c r="AA49" s="58" t="n"/>
+      <c r="AB49" s="59" t="n"/>
+      <c r="AC49" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD49" s="50" t="n"/>
     </row>
     <row r="50">
-      <c r="E50" s="64" t="n"/>
-      <c r="F50" s="64" t="n"/>
-      <c r="G50" s="65" t="n"/>
-      <c r="J50" s="64" t="n"/>
-      <c r="K50" s="64" t="n"/>
-      <c r="L50" s="64" t="n"/>
-      <c r="M50" s="67" t="n"/>
-      <c r="W50" s="64" t="n"/>
-      <c r="X50" s="64" t="n"/>
-      <c r="Y50" s="64" t="n"/>
-      <c r="Z50" s="64" t="n"/>
-      <c r="AA50" s="64" t="n"/>
-      <c r="AB50" s="64" t="n"/>
-      <c r="AC50" s="64" t="n"/>
+      <c r="A50" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B50" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C50" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E50" s="41" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F50" s="41" t="n">
+        <v>10625.89</v>
+      </c>
+      <c r="G50" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H50" s="40" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I50" s="40" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="J50" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K50" s="58" t="n"/>
+      <c r="L50" s="58" t="n"/>
+      <c r="M50" s="60" t="n"/>
+      <c r="N50" s="61" t="n"/>
+      <c r="O50" s="60" t="n"/>
+      <c r="P50" s="58" t="n"/>
+      <c r="Q50" s="60" t="n"/>
+      <c r="R50" s="60" t="n"/>
+      <c r="S50" s="60" t="n"/>
+      <c r="T50" s="60" t="n"/>
+      <c r="U50" s="60" t="n"/>
+      <c r="V50" s="60" t="n"/>
+      <c r="W50" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X50" s="53" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Y50" s="54" t="n">
+        <v>0.6130630104</v>
+      </c>
+      <c r="Z50" s="55" t="n">
+        <v>6560.2524</v>
+      </c>
+      <c r="AA50" s="55" t="n">
+        <v>17186.2524</v>
+      </c>
+      <c r="AB50" s="56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC50" s="49" t="n"/>
+      <c r="AD50" s="50" t="n"/>
+      <c r="AE50" s="57" t="n"/>
+      <c r="AF50" s="57" t="n"/>
+      <c r="AG50" s="57" t="n"/>
+      <c r="AH50" s="57" t="n"/>
+      <c r="AI50" s="57" t="n"/>
+      <c r="AJ50" s="57" t="n"/>
+      <c r="AK50" s="57" t="n"/>
+      <c r="AL50" s="57" t="n"/>
+      <c r="AM50" s="57" t="n"/>
+      <c r="AN50" s="57" t="n"/>
+      <c r="AO50" s="57" t="n"/>
+      <c r="AP50" s="57" t="n"/>
     </row>
     <row r="51">
       <c r="E51" s="64" t="n"/>
@@ -19457,6 +19491,7 @@
       <c r="J985" s="64" t="n"/>
       <c r="K985" s="64" t="n"/>
       <c r="L985" s="64" t="n"/>
+      <c r="M985" s="67" t="n"/>
       <c r="W985" s="64" t="n"/>
       <c r="X985" s="64" t="n"/>
       <c r="Y985" s="64" t="n"/>
@@ -19472,6 +19507,7 @@
       <c r="J986" s="64" t="n"/>
       <c r="K986" s="64" t="n"/>
       <c r="L986" s="64" t="n"/>
+      <c r="M986" s="67" t="n"/>
       <c r="W986" s="64" t="n"/>
       <c r="X986" s="64" t="n"/>
       <c r="Y986" s="64" t="n"/>
@@ -19704,6 +19740,36 @@
       <c r="AA1001" s="64" t="n"/>
       <c r="AB1001" s="64" t="n"/>
       <c r="AC1001" s="64" t="n"/>
+    </row>
+    <row r="1002">
+      <c r="E1002" s="64" t="n"/>
+      <c r="F1002" s="64" t="n"/>
+      <c r="G1002" s="65" t="n"/>
+      <c r="J1002" s="64" t="n"/>
+      <c r="K1002" s="64" t="n"/>
+      <c r="L1002" s="64" t="n"/>
+      <c r="W1002" s="64" t="n"/>
+      <c r="X1002" s="64" t="n"/>
+      <c r="Y1002" s="64" t="n"/>
+      <c r="Z1002" s="64" t="n"/>
+      <c r="AA1002" s="64" t="n"/>
+      <c r="AB1002" s="64" t="n"/>
+      <c r="AC1002" s="64" t="n"/>
+    </row>
+    <row r="1003">
+      <c r="E1003" s="64" t="n"/>
+      <c r="F1003" s="64" t="n"/>
+      <c r="G1003" s="65" t="n"/>
+      <c r="J1003" s="64" t="n"/>
+      <c r="K1003" s="64" t="n"/>
+      <c r="L1003" s="64" t="n"/>
+      <c r="W1003" s="64" t="n"/>
+      <c r="X1003" s="64" t="n"/>
+      <c r="Y1003" s="64" t="n"/>
+      <c r="Z1003" s="64" t="n"/>
+      <c r="AA1003" s="64" t="n"/>
+      <c r="AB1003" s="64" t="n"/>
+      <c r="AC1003" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>

--- a/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
+++ b/dumps/Stocks/Railtel Corporation of India Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1003"/>
+  <dimension ref="A1:AP1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,11 +1133,11 @@
     </row>
     <row r="5">
       <c r="A5" s="98" t="n">
-        <v>45954</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1149,15 +1149,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>371.87</v>
+        <v>330.55</v>
       </c>
       <c r="F5" t="n">
-        <v>3718.7</v>
+        <v>3328.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611972212</t>
         </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3256</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.9745</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1182,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>373.63</v>
+        <v>371.87</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3736.3</v>
+        <v>3718.7</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1199,7 +1205,7 @@
     </row>
     <row r="7">
       <c r="A7" s="98" t="n">
-        <v>46062</v>
+        <v>45953</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1215,18 +1221,15 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>326.95</v>
+        <v>373.63</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3285.8</v>
+        <v>3736.3</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>16.3</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1235,7 +1238,7 @@
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1251,18 +1254,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>323.25</v>
+        <v>326.95</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3248.7</v>
+        <v>3285.8</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1287,18 +1290,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>334.39</v>
+        <v>323.25</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3360.6</v>
+        <v>3248.7</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1323,18 +1326,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>332.6</v>
+        <v>334.39</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3342.6</v>
+        <v>3360.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1359,18 +1362,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>340.65</v>
+        <v>332.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3423.5</v>
+        <v>3342.6</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1395,18 +1398,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>377.5</v>
+        <v>340.65</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3793.9</v>
+        <v>3423.5</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>18.9</v>
+        <v>17</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1415,11 +1418,11 @@
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1431,18 +1434,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>358.2</v>
+        <v>377.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3599.9</v>
+        <v>3793.9</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>17.9</v>
+        <v>18.9</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1451,11 +1454,11 @@
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1467,18 +1470,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>326.5</v>
+        <v>358.2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3281.3</v>
+        <v>3599.9</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.3</v>
+        <v>17.9</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1503,18 +1506,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>332.8</v>
+        <v>326.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3344.6</v>
+        <v>3281.3</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1539,18 +1542,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>328.3</v>
+        <v>332.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3299.4</v>
+        <v>3344.6</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1575,18 +1578,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>332.2</v>
+        <v>328.3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3338.6</v>
+        <v>3299.4</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1611,18 +1614,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>345.6</v>
+        <v>332.2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3473.3</v>
+        <v>3338.6</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>17.3</v>
+        <v>16.6</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1631,11 +1634,11 @@
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1647,18 +1650,18 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>351.355</v>
+        <v>345.6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3531.15</v>
+        <v>3473.3</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1667,11 +1670,11 @@
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1683,18 +1686,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>359.15</v>
+        <v>351.355</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3609.5</v>
+        <v>3531.15</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1716,21 +1719,21 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>365.6</v>
+        <v>359.15</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>7348.6</v>
+        <v>3609.5</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>36.6</v>
+        <v>18</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="22">
       <c r="A22" s="98" t="n">
-        <v>45959</v>
+        <v>45978</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1752,21 +1755,21 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>365.55</v>
+        <v>365.6</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>5510.7</v>
+        <v>7348.6</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>27.45</v>
+        <v>36.6</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1788,128 +1791,66 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>365.55</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>5510.7</v>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="J23" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="98" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>367.45</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>3692.9</v>
       </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="G24" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>18.4</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J24" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B24" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C24" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D24" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>368.85</v>
-      </c>
-      <c r="F24" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G24" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H24" s="40" t="n"/>
-      <c r="I24" s="40" t="n"/>
-      <c r="J24" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K24" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N24" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O24" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S24" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W24" s="47" t="n"/>
-      <c r="X24" s="47" t="n"/>
-      <c r="Y24" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="47" t="n"/>
-      <c r="AA24" s="47" t="n"/>
-      <c r="AB24" s="48" t="n"/>
-      <c r="AC24" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD24" s="50" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -1922,99 +1863,96 @@
         </is>
       </c>
       <c r="D25" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>342.61</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>3426.12</v>
+        <v>368.85</v>
+      </c>
+      <c r="F25" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H25" s="40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I25" s="40" t="n">
-        <v>20.72</v>
-      </c>
+      <c r="H25" s="40" t="n"/>
+      <c r="I25" s="40" t="n"/>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="49">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD25" s="50" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
@@ -2023,189 +1961,189 @@
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>0.85</v>
+        <v>342.61</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>12.75</v>
+        <v>3426.12</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD26" s="50" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45820</v>
+        <v>45882</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>459.93</v>
+        <v>0.85</v>
       </c>
       <c r="F27" s="41" t="n">
-        <v>22996.63</v>
+        <v>12.75</v>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.0.8500/- per share on Ex-Date: 13-AUG-2025</t>
         </is>
       </c>
       <c r="H27" s="40" t="n">
-        <v>23.13</v>
+        <v>0</v>
       </c>
       <c r="I27" s="40" t="n">
-        <v>137.74</v>
+        <v>0</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="49">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD27" s="50" t="n"/>
@@ -2225,13 +2163,13 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>459.94</v>
+        <v>459.93</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>459.94</v>
+        <v>22996.63</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
@@ -2239,74 +2177,74 @@
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.46</v>
+        <v>23.13</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>2.75</v>
+        <v>137.74</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="49">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD28" s="50" t="n"/>
@@ -2326,13 +2264,13 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>459.93</v>
+        <v>459.94</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>24836.35</v>
+        <v>459.94</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
@@ -2340,81 +2278,81 @@
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>24.97</v>
+        <v>0.46</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>148.78</v>
+        <v>2.75</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="49">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD29" s="50" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2423,17 +2361,17 @@
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>402.64</v>
+        <v>459.93</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>6039.54</v>
+        <v>24836.35</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
@@ -2441,85 +2379,85 @@
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>6</v>
+        <v>24.97</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>36.54</v>
+        <v>148.78</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="49">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD30" s="50" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45749</v>
+        <v>45811</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -2528,99 +2466,99 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>1</v>
+        <v>402.64</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>105</v>
+        <v>6039.54</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>0</v>
+        <v>36.54</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="49">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD31" s="50" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45734</v>
+        <v>45749</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C32" s="39" t="inlineStr">
@@ -2629,108 +2567,91 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
+        <v>105</v>
+      </c>
+      <c r="E32" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="41" t="n">
-        <v>283</v>
-      </c>
-      <c r="F32" s="51">
-        <f>E13*D13 + sum(H13:I13)</f>
-        <v/>
+      <c r="F32" s="41" t="n">
+        <v>105</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 02-APR-2025</t>
         </is>
       </c>
-      <c r="H32" s="40" t="n"/>
+      <c r="H32" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="52" t="n">
-        <v>459.93</v>
-      </c>
-      <c r="X32" s="53" t="n">
-        <v>45820</v>
-      </c>
-      <c r="Y32" s="54" t="n">
-        <v>0.6078501045</v>
-      </c>
-      <c r="Z32" s="55" t="n">
-        <v>174.45298</v>
-      </c>
-      <c r="AA32" s="55" t="n">
-        <v>457.45298</v>
-      </c>
-      <c r="AB32" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="49" t="n"/>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="47" t="n"/>
+      <c r="X32" s="47" t="n"/>
+      <c r="Y32" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="47" t="n"/>
+      <c r="AA32" s="47" t="n"/>
+      <c r="AB32" s="48" t="n"/>
+      <c r="AC32" s="49">
+        <f>if(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
       <c r="AD32" s="50" t="n"/>
-      <c r="AE32" s="57" t="n"/>
-      <c r="AF32" s="57" t="n"/>
-      <c r="AG32" s="57" t="n"/>
-      <c r="AH32" s="57" t="n"/>
-      <c r="AI32" s="57" t="n"/>
-      <c r="AJ32" s="57" t="n"/>
-      <c r="AK32" s="57" t="n"/>
-      <c r="AL32" s="57" t="n"/>
-      <c r="AM32" s="57" t="n"/>
-      <c r="AN32" s="57" t="n"/>
-      <c r="AO32" s="57" t="n"/>
-      <c r="AP32" s="57" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
@@ -2747,13 +2668,13 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="41" t="n">
         <v>283</v>
       </c>
       <c r="F33" s="51">
-        <f>E14*D14 + sum(H14:I14)</f>
+        <f>E13*D13 + sum(H13:I13)</f>
         <v/>
       </c>
       <c r="G33" s="39" t="inlineStr">
@@ -2763,58 +2684,58 @@
       </c>
       <c r="H33" s="40" t="n"/>
       <c r="I33" s="40" t="n">
-        <v>7.99</v>
+        <v>2</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W33" s="52" t="n">
@@ -2824,16 +2745,16 @@
         <v>45820</v>
       </c>
       <c r="Y33" s="54" t="n">
-        <v>0.6078606944</v>
+        <v>0.6078501045</v>
       </c>
       <c r="Z33" s="55" t="n">
-        <v>697.81192</v>
+        <v>174.45298</v>
       </c>
       <c r="AA33" s="55" t="n">
-        <v>1829.81192</v>
+        <v>457.45298</v>
       </c>
       <c r="AB33" s="56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="49" t="n"/>
       <c r="AD33" s="50" t="n"/>
@@ -2852,7 +2773,7 @@
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
@@ -2865,75 +2786,74 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>297.1</v>
-      </c>
-      <c r="F34" s="41" t="n">
-        <v>2970.96</v>
+        <v>283</v>
+      </c>
+      <c r="F34" s="51">
+        <f>E14*D14 + sum(H14:I14)</f>
+        <v/>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="40" t="n">
-        <v>2.96</v>
-      </c>
+      <c r="H34" s="40" t="n"/>
       <c r="I34" s="40" t="n">
-        <v>18</v>
+        <v>7.99</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W34" s="52" t="n">
@@ -2943,16 +2863,16 @@
         <v>45820</v>
       </c>
       <c r="Y34" s="54" t="n">
-        <v>0.5366132116</v>
+        <v>0.6078606944</v>
       </c>
       <c r="Z34" s="55" t="n">
-        <v>1605.5038</v>
+        <v>697.81192</v>
       </c>
       <c r="AA34" s="55" t="n">
-        <v>4576.5038</v>
+        <v>1829.81192</v>
       </c>
       <c r="AB34" s="56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC34" s="49" t="n"/>
       <c r="AD34" s="50" t="n"/>
@@ -2971,7 +2891,7 @@
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2987,10 +2907,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>312.45</v>
+        <v>297.1</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>3124.48</v>
+        <v>2970.96</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
@@ -2998,61 +2918,61 @@
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>18.89</v>
+        <v>18</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W35" s="52" t="n">
@@ -3062,13 +2982,13 @@
         <v>45820</v>
       </c>
       <c r="Y35" s="54" t="n">
-        <v>0.4621551839</v>
+        <v>0.5366132116</v>
       </c>
       <c r="Z35" s="55" t="n">
-        <v>1454.1528</v>
+        <v>1605.5038</v>
       </c>
       <c r="AA35" s="55" t="n">
-        <v>4578.6528</v>
+        <v>4576.5038</v>
       </c>
       <c r="AB35" s="56" t="n">
         <v>10</v>
@@ -3090,7 +3010,7 @@
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -3103,13 +3023,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>299.31</v>
+        <v>312.45</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>11972.42</v>
+        <v>3124.48</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -3117,61 +3037,61 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>11.88</v>
+        <v>3.09</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>72.54000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W36" s="52" t="n">
@@ -3181,16 +3101,16 @@
         <v>45820</v>
       </c>
       <c r="Y36" s="54" t="n">
-        <v>0.5254156811</v>
+        <v>0.4621551839</v>
       </c>
       <c r="Z36" s="55" t="n">
-        <v>6334.8528</v>
+        <v>1454.1528</v>
       </c>
       <c r="AA36" s="55" t="n">
-        <v>18307.2528</v>
+        <v>4578.6528</v>
       </c>
       <c r="AB36" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AC36" s="49" t="n"/>
       <c r="AD36" s="50" t="n"/>
@@ -3222,13 +3142,13 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>299.36</v>
+        <v>299.31</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>5987.21</v>
+        <v>11972.42</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -3236,61 +3156,61 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>5.93</v>
+        <v>11.88</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>36.28</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W37" s="52" t="n">
@@ -3300,16 +3220,16 @@
         <v>45820</v>
       </c>
       <c r="Y37" s="54" t="n">
-        <v>0.5251650076</v>
+        <v>0.5254156811</v>
       </c>
       <c r="Z37" s="55" t="n">
-        <v>3166.4404</v>
+        <v>6334.8528</v>
       </c>
       <c r="AA37" s="55" t="n">
-        <v>9153.6404</v>
+        <v>18307.2528</v>
       </c>
       <c r="AB37" s="56" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AC37" s="49" t="n"/>
       <c r="AD37" s="50" t="n"/>
@@ -3328,7 +3248,7 @@
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -3341,13 +3261,13 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>333.8</v>
+        <v>299.36</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>3338</v>
+        <v>5987.21</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -3355,61 +3275,61 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>3.31</v>
+        <v>5.93</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>20.19</v>
+        <v>36.28</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W38" s="52" t="n">
@@ -3419,16 +3339,16 @@
         <v>45820</v>
       </c>
       <c r="Y38" s="54" t="n">
-        <v>0.3699663246</v>
+        <v>0.5251650076</v>
       </c>
       <c r="Z38" s="55" t="n">
-        <v>1243.6418</v>
+        <v>3166.4404</v>
       </c>
       <c r="AA38" s="55" t="n">
-        <v>4581.6418</v>
+        <v>9153.6404</v>
       </c>
       <c r="AB38" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC38" s="49" t="n"/>
       <c r="AD38" s="50" t="n"/>
@@ -3447,7 +3367,7 @@
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -3463,10 +3383,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>361.6</v>
+        <v>333.8</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>3615.99</v>
+        <v>3338</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -3474,61 +3394,61 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>3.58</v>
+        <v>3.31</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>21.91</v>
+        <v>20.19</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W39" s="52" t="n">
@@ -3538,13 +3458,13 @@
         <v>45820</v>
       </c>
       <c r="Y39" s="54" t="n">
-        <v>0.2662471852</v>
+        <v>0.3699663246</v>
       </c>
       <c r="Z39" s="55" t="n">
-        <v>969.5338</v>
+        <v>1243.6418</v>
       </c>
       <c r="AA39" s="55" t="n">
-        <v>4585.5338</v>
+        <v>4581.6418</v>
       </c>
       <c r="AB39" s="56" t="n">
         <v>10</v>
@@ -3566,7 +3486,7 @@
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -3575,17 +3495,17 @@
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>293.2</v>
+        <v>361.6</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>13193.82</v>
+        <v>3615.99</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -3593,81 +3513,99 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>13.31</v>
+        <v>3.58</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>79.12</v>
+        <v>21.91</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="58" t="n"/>
-      <c r="X40" s="58" t="n"/>
-      <c r="Y40" s="54">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="58" t="n"/>
-      <c r="AA40" s="58" t="n"/>
-      <c r="AB40" s="59" t="n"/>
-      <c r="AC40" s="49">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="52" t="n">
+        <v>459.93</v>
+      </c>
+      <c r="X40" s="53" t="n">
+        <v>45820</v>
+      </c>
+      <c r="Y40" s="54" t="n">
+        <v>0.2662471852</v>
+      </c>
+      <c r="Z40" s="55" t="n">
+        <v>969.5338</v>
+      </c>
+      <c r="AA40" s="55" t="n">
+        <v>4585.5338</v>
+      </c>
+      <c r="AB40" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="49" t="n"/>
       <c r="AD40" s="50" t="n"/>
+      <c r="AE40" s="57" t="n"/>
+      <c r="AF40" s="57" t="n"/>
+      <c r="AG40" s="57" t="n"/>
+      <c r="AH40" s="57" t="n"/>
+      <c r="AI40" s="57" t="n"/>
+      <c r="AJ40" s="57" t="n"/>
+      <c r="AK40" s="57" t="n"/>
+      <c r="AL40" s="57" t="n"/>
+      <c r="AM40" s="57" t="n"/>
+      <c r="AN40" s="57" t="n"/>
+      <c r="AO40" s="57" t="n"/>
+      <c r="AP40" s="57" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -3680,13 +3618,13 @@
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>28798.67</v>
+        <v>13193.82</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
@@ -3694,186 +3632,186 @@
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>29.05</v>
+        <v>13.31</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>172.28</v>
+        <v>79.12</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W41" s="58" t="n"/>
       <c r="X41" s="58" t="n"/>
       <c r="Y41" s="54">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z41" s="58" t="n"/>
       <c r="AA41" s="58" t="n"/>
       <c r="AB41" s="59" t="n"/>
       <c r="AC41" s="49">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD41" s="50" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45233</v>
+        <v>45258</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D42" s="40" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>1</v>
+        <v>287.99</v>
       </c>
       <c r="F42" s="41" t="n">
-        <v>145</v>
+        <v>28798.67</v>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H42" s="40" t="n">
-        <v>0</v>
+        <v>29.05</v>
       </c>
       <c r="I42" s="40" t="n">
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W42" s="58" t="n"/>
       <c r="X42" s="58" t="n"/>
       <c r="Y42" s="54">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z42" s="58" t="n"/>
       <c r="AA42" s="58" t="n"/>
       <c r="AB42" s="59" t="n"/>
       <c r="AC42" s="49">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD42" s="50" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="38" t="n">
-        <v>45225</v>
+        <v>45233</v>
       </c>
       <c r="B43" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C43" s="39" t="inlineStr">
@@ -3882,77 +3820,95 @@
         </is>
       </c>
       <c r="D43" s="40" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E43" s="41" t="n">
-        <v>207.12</v>
+        <v>1</v>
       </c>
       <c r="F43" s="41" t="n">
-        <v>2071.16</v>
+        <v>145</v>
       </c>
       <c r="G43" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.0000/- per share on Ex-Date: 03-NOV-2023</t>
         </is>
       </c>
       <c r="H43" s="40" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="I43" s="40" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K43" s="58" t="n"/>
-      <c r="L43" s="58" t="n"/>
-      <c r="M43" s="60" t="n"/>
-      <c r="N43" s="61" t="n"/>
-      <c r="O43" s="60" t="n"/>
-      <c r="P43" s="58" t="n"/>
-      <c r="Q43" s="60" t="n"/>
-      <c r="R43" s="60" t="n"/>
-      <c r="S43" s="60" t="n"/>
-      <c r="T43" s="60" t="n"/>
-      <c r="U43" s="60" t="n"/>
-      <c r="V43" s="60" t="n"/>
-      <c r="W43" s="52" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="X43" s="53" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y43" s="54" t="n">
-        <v>0.4069137318</v>
-      </c>
-      <c r="Z43" s="55" t="n">
-        <v>848.7488</v>
-      </c>
-      <c r="AA43" s="55" t="n">
-        <v>2919.9488</v>
-      </c>
-      <c r="AB43" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC43" s="49" t="n"/>
+      <c r="K43" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L43" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N43" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P43" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R43" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S43" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T43" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U43" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V43" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="58" t="n"/>
+      <c r="X43" s="58" t="n"/>
+      <c r="Y43" s="54">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="58" t="n"/>
+      <c r="AA43" s="58" t="n"/>
+      <c r="AB43" s="59" t="n"/>
+      <c r="AC43" s="49">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
       <c r="AD43" s="50" t="n"/>
-      <c r="AE43" s="57" t="n"/>
-      <c r="AF43" s="57" t="n"/>
-      <c r="AG43" s="57" t="n"/>
-      <c r="AH43" s="57" t="n"/>
-      <c r="AI43" s="57" t="n"/>
-      <c r="AJ43" s="57" t="n"/>
-      <c r="AK43" s="57" t="n"/>
-      <c r="AL43" s="57" t="n"/>
-      <c r="AM43" s="57" t="n"/>
-      <c r="AN43" s="57" t="n"/>
-      <c r="AO43" s="57" t="n"/>
-      <c r="AP43" s="57" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
@@ -3968,10 +3924,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>215.42</v>
+        <v>207.12</v>
       </c>
       <c r="F44" s="41" t="n">
-        <v>2154.2</v>
+        <v>2071.16</v>
       </c>
       <c r="G44" s="39" t="inlineStr">
         <is>
@@ -3979,10 +3935,10 @@
         </is>
       </c>
       <c r="H44" s="40" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="I44" s="40" t="n">
-        <v>13.09</v>
+        <v>12.58</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
@@ -4007,13 +3963,13 @@
         <v>45282</v>
       </c>
       <c r="Y44" s="54" t="n">
-        <v>0.3535128607</v>
+        <v>0.4069137318</v>
       </c>
       <c r="Z44" s="55" t="n">
-        <v>766.9108</v>
+        <v>848.7488</v>
       </c>
       <c r="AA44" s="55" t="n">
-        <v>2921.1108</v>
+        <v>2919.9488</v>
       </c>
       <c r="AB44" s="56" t="n">
         <v>10</v>
@@ -4035,7 +3991,7 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45191</v>
+        <v>45204</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -4051,10 +4007,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>215.62</v>
+        <v>215.42</v>
       </c>
       <c r="F45" s="41" t="n">
-        <v>2156.25</v>
+        <v>2154.2</v>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
@@ -4062,10 +4018,10 @@
         </is>
       </c>
       <c r="H45" s="40" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="I45" s="40" t="n">
-        <v>13.07</v>
+        <v>13.09</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
@@ -4090,13 +4046,13 @@
         <v>45282</v>
       </c>
       <c r="Y45" s="54" t="n">
-        <v>0.3522628598</v>
+        <v>0.3535128607</v>
       </c>
       <c r="Z45" s="55" t="n">
-        <v>764.9388</v>
+        <v>766.9108</v>
       </c>
       <c r="AA45" s="55" t="n">
-        <v>2921.1388</v>
+        <v>2921.1108</v>
       </c>
       <c r="AB45" s="56" t="n">
         <v>10</v>
@@ -4118,7 +4074,7 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45184</v>
+        <v>45191</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
@@ -4134,10 +4090,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>223.93</v>
+        <v>215.62</v>
       </c>
       <c r="F46" s="41" t="n">
-        <v>2239.3</v>
+        <v>2156.25</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
@@ -4145,10 +4101,10 @@
         </is>
       </c>
       <c r="H46" s="40" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I46" s="40" t="n">
-        <v>13.56</v>
+        <v>13.07</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
@@ -4173,13 +4129,13 @@
         <v>45282</v>
       </c>
       <c r="Y46" s="54" t="n">
-        <v>0.3028700279</v>
+        <v>0.3522628598</v>
       </c>
       <c r="Z46" s="55" t="n">
-        <v>683.0022</v>
+        <v>764.9388</v>
       </c>
       <c r="AA46" s="55" t="n">
-        <v>2922.3022</v>
+        <v>2921.1388</v>
       </c>
       <c r="AB46" s="56" t="n">
         <v>10</v>
@@ -4201,7 +4157,7 @@
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45181</v>
+        <v>45184</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
@@ -4214,13 +4170,13 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>231.33</v>
+        <v>223.93</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>1156.64</v>
+        <v>2239.3</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
@@ -4228,10 +4184,10 @@
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>6.99</v>
+        <v>13.56</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
@@ -4256,16 +4212,16 @@
         <v>45282</v>
       </c>
       <c r="Y47" s="54" t="n">
-        <v>0.2618684215</v>
+        <v>0.3028700279</v>
       </c>
       <c r="Z47" s="55" t="n">
-        <v>305.0191</v>
+        <v>683.0022</v>
       </c>
       <c r="AA47" s="55" t="n">
-        <v>1461.6691</v>
+        <v>2922.3022</v>
       </c>
       <c r="AB47" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC47" s="49" t="n"/>
       <c r="AD47" s="50" t="n"/>
@@ -4284,7 +4240,7 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
@@ -4297,13 +4253,13 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>171.76</v>
+        <v>231.33</v>
       </c>
       <c r="F48" s="41" t="n">
-        <v>6870.22</v>
+        <v>1156.64</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
@@ -4311,10 +4267,10 @@
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>6.76</v>
+        <v>1.15</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>41.46</v>
+        <v>6.99</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
@@ -4333,22 +4289,22 @@
       <c r="U48" s="60" t="n"/>
       <c r="V48" s="60" t="n"/>
       <c r="W48" s="52" t="n">
-        <v>287.99</v>
+        <v>293.2</v>
       </c>
       <c r="X48" s="53" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="Y48" s="54" t="n">
-        <v>0.6625931857</v>
+        <v>0.2618684215</v>
       </c>
       <c r="Z48" s="55" t="n">
-        <v>4584.1112</v>
+        <v>305.0191</v>
       </c>
       <c r="AA48" s="55" t="n">
-        <v>11454.5112</v>
+        <v>1461.6691</v>
       </c>
       <c r="AB48" s="56" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AC48" s="49" t="n"/>
       <c r="AD48" s="50" t="n"/>
@@ -4371,7 +4327,7 @@
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C49" s="39" t="inlineStr">
@@ -4380,90 +4336,81 @@
         </is>
       </c>
       <c r="D49" s="40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>1.05</v>
+        <v>171.76</v>
       </c>
       <c r="F49" s="41" t="n">
-        <v>63</v>
+        <v>6870.22</v>
       </c>
       <c r="G49" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H49" s="40" t="n">
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="I49" s="40" t="n">
-        <v>0</v>
+        <v>41.46</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K49" s="47" t="n"/>
-      <c r="L49" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="63">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="62" t="n"/>
-      <c r="P49" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="62" t="n"/>
-      <c r="T49" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="62">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="58" t="n"/>
-      <c r="X49" s="58" t="n"/>
-      <c r="Y49" s="54">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="58" t="n"/>
-      <c r="AA49" s="58" t="n"/>
-      <c r="AB49" s="59" t="n"/>
-      <c r="AC49" s="49">
-        <f>if(B30="DIV", F30,"")</f>
-        <v/>
-      </c>
+      <c r="K49" s="58" t="n"/>
+      <c r="L49" s="58" t="n"/>
+      <c r="M49" s="60" t="n"/>
+      <c r="N49" s="61" t="n"/>
+      <c r="O49" s="60" t="n"/>
+      <c r="P49" s="58" t="n"/>
+      <c r="Q49" s="60" t="n"/>
+      <c r="R49" s="60" t="n"/>
+      <c r="S49" s="60" t="n"/>
+      <c r="T49" s="60" t="n"/>
+      <c r="U49" s="60" t="n"/>
+      <c r="V49" s="60" t="n"/>
+      <c r="W49" s="52" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="X49" s="53" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Y49" s="54" t="n">
+        <v>0.6625931857</v>
+      </c>
+      <c r="Z49" s="55" t="n">
+        <v>4584.1112</v>
+      </c>
+      <c r="AA49" s="55" t="n">
+        <v>11454.5112</v>
+      </c>
+      <c r="AB49" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC49" s="49" t="n"/>
       <c r="AD49" s="50" t="n"/>
+      <c r="AE49" s="57" t="n"/>
+      <c r="AF49" s="57" t="n"/>
+      <c r="AG49" s="57" t="n"/>
+      <c r="AH49" s="57" t="n"/>
+      <c r="AI49" s="57" t="n"/>
+      <c r="AJ49" s="57" t="n"/>
+      <c r="AK49" s="57" t="n"/>
+      <c r="AL49" s="57" t="n"/>
+      <c r="AM49" s="57" t="n"/>
+      <c r="AN49" s="57" t="n"/>
+      <c r="AO49" s="57" t="n"/>
+      <c r="AP49" s="57" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45140</v>
+        <v>45162</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C50" s="39" t="inlineStr">
@@ -4475,86 +4422,162 @@
         <v>60</v>
       </c>
       <c r="E50" s="41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F50" s="41" t="n">
+        <v>63</v>
+      </c>
+      <c r="G50" s="39" t="inlineStr">
+        <is>
+          <t>Final-Dividend of Rs.1.0500/- per share on Ex-Date: 24-AUG-2023</t>
+        </is>
+      </c>
+      <c r="H50" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K50" s="47" t="n"/>
+      <c r="L50" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M50" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N50" s="63">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O50" s="62" t="n"/>
+      <c r="P50" s="47">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q50" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R50" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S50" s="62" t="n"/>
+      <c r="T50" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <v/>
+      </c>
+      <c r="U50" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V50" s="62">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W50" s="58" t="n"/>
+      <c r="X50" s="58" t="n"/>
+      <c r="Y50" s="54">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="58" t="n"/>
+      <c r="AA50" s="58" t="n"/>
+      <c r="AB50" s="59" t="n"/>
+      <c r="AC50" s="49">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD50" s="50" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="38" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B51" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C51" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="E51" s="41" t="n">
         <v>177.1</v>
       </c>
-      <c r="F50" s="41" t="n">
+      <c r="F51" s="41" t="n">
         <v>10625.89</v>
       </c>
-      <c r="G50" s="39" t="inlineStr">
+      <c r="G51" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H50" s="40" t="n">
+      <c r="H51" s="40" t="n">
         <v>10.58</v>
       </c>
-      <c r="I50" s="40" t="n">
+      <c r="I51" s="40" t="n">
         <v>64.31</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K50" s="58" t="n"/>
-      <c r="L50" s="58" t="n"/>
-      <c r="M50" s="60" t="n"/>
-      <c r="N50" s="61" t="n"/>
-      <c r="O50" s="60" t="n"/>
-      <c r="P50" s="58" t="n"/>
-      <c r="Q50" s="60" t="n"/>
-      <c r="R50" s="60" t="n"/>
-      <c r="S50" s="60" t="n"/>
-      <c r="T50" s="60" t="n"/>
-      <c r="U50" s="60" t="n"/>
-      <c r="V50" s="60" t="n"/>
-      <c r="W50" s="52" t="n">
+      <c r="K51" s="58" t="n"/>
+      <c r="L51" s="58" t="n"/>
+      <c r="M51" s="60" t="n"/>
+      <c r="N51" s="61" t="n"/>
+      <c r="O51" s="60" t="n"/>
+      <c r="P51" s="58" t="n"/>
+      <c r="Q51" s="60" t="n"/>
+      <c r="R51" s="60" t="n"/>
+      <c r="S51" s="60" t="n"/>
+      <c r="T51" s="60" t="n"/>
+      <c r="U51" s="60" t="n"/>
+      <c r="V51" s="60" t="n"/>
+      <c r="W51" s="52" t="n">
         <v>287.99</v>
       </c>
-      <c r="X50" s="53" t="n">
+      <c r="X51" s="53" t="n">
         <v>45258</v>
       </c>
-      <c r="Y50" s="54" t="n">
+      <c r="Y51" s="54" t="n">
         <v>0.6130630104</v>
       </c>
-      <c r="Z50" s="55" t="n">
+      <c r="Z51" s="55" t="n">
         <v>6560.2524</v>
       </c>
-      <c r="AA50" s="55" t="n">
+      <c r="AA51" s="55" t="n">
         <v>17186.2524</v>
       </c>
-      <c r="AB50" s="56" t="n">
+      <c r="AB51" s="56" t="n">
         <v>60</v>
       </c>
-      <c r="AC50" s="49" t="n"/>
-      <c r="AD50" s="50" t="n"/>
-      <c r="AE50" s="57" t="n"/>
-      <c r="AF50" s="57" t="n"/>
-      <c r="AG50" s="57" t="n"/>
-      <c r="AH50" s="57" t="n"/>
-      <c r="AI50" s="57" t="n"/>
-      <c r="AJ50" s="57" t="n"/>
-      <c r="AK50" s="57" t="n"/>
-      <c r="AL50" s="57" t="n"/>
-      <c r="AM50" s="57" t="n"/>
-      <c r="AN50" s="57" t="n"/>
-      <c r="AO50" s="57" t="n"/>
-      <c r="AP50" s="57" t="n"/>
-    </row>
-    <row r="51">
-      <c r="E51" s="64" t="n"/>
-      <c r="F51" s="64" t="n"/>
-      <c r="G51" s="65" t="n"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
-      <c r="L51" s="64" t="n"/>
-      <c r="M51" s="67" t="n"/>
-      <c r="W51" s="64" t="n"/>
-      <c r="X51" s="64" t="n"/>
-      <c r="Y51" s="64" t="n"/>
-      <c r="Z51" s="64" t="n"/>
-      <c r="AA51" s="64" t="n"/>
-      <c r="AB51" s="64" t="n"/>
-      <c r="AC51" s="64" t="n"/>
+      <c r="AC51" s="49" t="n"/>
+      <c r="AD51" s="50" t="n"/>
+      <c r="AE51" s="57" t="n"/>
+      <c r="AF51" s="57" t="n"/>
+      <c r="AG51" s="57" t="n"/>
+      <c r="AH51" s="57" t="n"/>
+      <c r="AI51" s="57" t="n"/>
+      <c r="AJ51" s="57" t="n"/>
+      <c r="AK51" s="57" t="n"/>
+      <c r="AL51" s="57" t="n"/>
+      <c r="AM51" s="57" t="n"/>
+      <c r="AN51" s="57" t="n"/>
+      <c r="AO51" s="57" t="n"/>
+      <c r="AP51" s="57" t="n"/>
     </row>
     <row r="52">
       <c r="E52" s="64" t="n"/>
@@ -19523,6 +19546,7 @@
       <c r="J987" s="64" t="n"/>
       <c r="K987" s="64" t="n"/>
       <c r="L987" s="64" t="n"/>
+      <c r="M987" s="67" t="n"/>
       <c r="W987" s="64" t="n"/>
       <c r="X987" s="64" t="n"/>
       <c r="Y987" s="64" t="n"/>
@@ -19770,6 +19794,21 @@
       <c r="AA1003" s="64" t="n"/>
       <c r="AB1003" s="64" t="n"/>
       <c r="AC1003" s="64" t="n"/>
+    </row>
+    <row r="1004">
+      <c r="E1004" s="64" t="n"/>
+      <c r="F1004" s="64" t="n"/>
+      <c r="G1004" s="65" t="n"/>
+      <c r="J1004" s="64" t="n"/>
+      <c r="K1004" s="64" t="n"/>
+      <c r="L1004" s="64" t="n"/>
+      <c r="W1004" s="64" t="n"/>
+      <c r="X1004" s="64" t="n"/>
+      <c r="Y1004" s="64" t="n"/>
+      <c r="Z1004" s="64" t="n"/>
+      <c r="AA1004" s="64" t="n"/>
+      <c r="AB1004" s="64" t="n"/>
+      <c r="AC1004" s="64" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$61"/>
